--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -9,18 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="671"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7020" tabRatio="671"/>
   </bookViews>
   <sheets>
-    <sheet name="検査対象" sheetId="1" r:id="rId1"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId2"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId3"/>
-    <sheet name="チェックシート(Linux)" sheetId="4" r:id="rId4"/>
-    <sheet name="チェックシート(Windows)" sheetId="5" r:id="rId5"/>
-    <sheet name="テンプレート(Linux)" sheetId="6" r:id="rId6"/>
-    <sheet name="テンプレート(RH7)" sheetId="7" r:id="rId7"/>
-    <sheet name="テンプレート(Windows)" sheetId="8" r:id="rId8"/>
+    <sheet name="利用手順" sheetId="9" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
+    <sheet name="チェックシート(Linux)" sheetId="4" r:id="rId5"/>
+    <sheet name="チェックシート(Windows)" sheetId="5" r:id="rId6"/>
+    <sheet name="テンプレート(Linux)" sheetId="6" r:id="rId7"/>
+    <sheet name="テンプレート(RH7)" sheetId="7" r:id="rId8"/>
+    <sheet name="テンプレート(Windows)" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$97</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="599">
   <si>
     <t>共通設定</t>
   </si>
@@ -1693,6 +1697,546 @@
   </si>
   <si>
     <t>network.subnet</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>0. 事前準備</t>
+  </si>
+  <si>
+    <t>1. プロジェクト作成</t>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CPU 1 Core以上 / Memory 4 GB以上 / Disk 100 GB以上</t>
+  </si>
+  <si>
+    <t>* Windows 7 64bit、Windows Server 2012 R2以上で以下のスペックのPCが必要です。</t>
+  </si>
+  <si>
+    <t>* 以下パッケージのインストールが必要です。</t>
+  </si>
+  <si>
+    <t>* 詳細は、セットアップガイド「インベントリ収集PCセットアップ」を参照してください。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JDK1.8 (64bit) / PowerShell 5.0 以上 / VMWare PowerCLI 6.x / Getconfig インベントリ収集ツール 1.x</t>
+    <rPh sb="79" eb="81">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PowerShell コンソールを開いて、「getconfig -g "プロジェクト名"」でプロジェクトを作成 します。</t>
+  </si>
+  <si>
+    <t>cd C:\Users\Administrator\Desktop</t>
+  </si>
+  <si>
+    <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -g test_project1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>入力例：</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>比較対象</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VM設定項目</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査するシナリオID(チェックシート名カッコ内のID)。Linux か、 Windows を指定します。</t>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+    <rPh sb="9" eb="11">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション)  VMWare 仮想マシンの場合は、vCenter で定義した仮想マシン名を入力します。</t>
+    <rPh sb="16" eb="18">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション) VMWare 仮想マシン設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。</t>
+    <rPh sb="15" eb="17">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+    <rPh sb="8" eb="10">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>cent7</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>RH7</t>
+  </si>
+  <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>192.168.0.24</t>
+  </si>
+  <si>
+    <t>w2012</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad .\config\config.groovy</t>
+  </si>
+  <si>
+    <t>// vCenter接続情報</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.server   = '192.168.10.100'</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.user     = 'test_user'</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>// Linux 接続情報</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.user      = 'someuser'</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.password  = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>// Windows 接続情報</t>
+  </si>
+  <si>
+    <t>account.Windows.Test.user     = 'administrator'</t>
+  </si>
+  <si>
+    <t>account.Windows.Test.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>getconfig -c .\config\config.groovy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのIDを入力します。インベントリ結果の値の比較をする場合に使用します。テンプレートの設定</t>
+    <rPh sb="9" eb="10">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以降の作業は作成したプロジェクトディレクトリに移動して実行します。</t>
+    <rPh sb="0" eb="2">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux(RedHat6.x)の場合、'Linux'、Linux(RedHat7.x)の場合、'RH7'、Windowsの場合、'Windows'を指定します。</t>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1766,7 +2310,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1785,8 +2329,14 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1861,6 +2411,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1870,7 +2528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,6 +2582,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2277,9 +2971,1166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:T97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="10.75" customWidth="1"/>
+    <col min="19" max="19" width="9.25" customWidth="1"/>
+    <col min="20" max="20" width="11.25" customWidth="1"/>
+    <col min="21" max="1030" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C15" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="20"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C16" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>544</v>
+      </c>
+      <c r="D26" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>545</v>
+      </c>
+      <c r="D27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>546</v>
+      </c>
+      <c r="D28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>547</v>
+      </c>
+      <c r="D29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>548</v>
+      </c>
+      <c r="D31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D33" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>550</v>
+      </c>
+      <c r="D34" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>551</v>
+      </c>
+      <c r="D35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B39" s="1"/>
+      <c r="C39" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B43" s="4">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B45" s="4">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B47" s="4">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B48" s="4">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B49" s="4">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B50" s="4">
+        <v>9</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B51" s="4">
+        <v>10</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C57" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="26"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C61" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="20"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="29"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C63" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="28"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="29"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C64" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="29"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C65" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="29"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="29"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C67" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="29"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="29"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C69" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="29"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C70" s="27" t="s">
+        <v>579</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="29"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C71" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="29"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="29"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C73" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="29"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="29"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C75" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="29"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C76" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="23"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C82" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="26"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C88" s="24" t="s">
+        <v>590</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="26"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C93" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="26"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C97" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="J39:P39"/>
+    <mergeCell ref="Q39:T39"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2304,30 +4155,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -2921,7 +4772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W15"/>
   <sheetViews>
@@ -3419,7 +5270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3503,7 +5354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F94"/>
   <sheetViews>
@@ -5115,7 +6966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F64"/>
   <sheetViews>
@@ -6225,7 +8076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
@@ -9180,7 +11031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
@@ -12111,7 +13962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -2310,7 +2310,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2333,6 +2333,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -2528,7 +2534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2621,6 +2627,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2974,7 +2998,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:T97"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -2998,52 +3022,349 @@
     <col min="21" max="1030" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" s="31" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="18" t="s">
         <v>538</v>
       </c>
@@ -3064,8 +3385,11 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U15" s="31"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="21" t="s">
         <v>540</v>
       </c>
@@ -3086,539 +3410,1125 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+      <c r="U16" s="31"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="31" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="31" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="31" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="31" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="31" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C31" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
         <v>548</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="31" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="31" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="31" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31" t="s">
         <v>550</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="31" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31" t="s">
         <v>551</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="31" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="1"/>
-      <c r="C39" s="30" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="31"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="32" t="s">
         <v>487</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="U40" s="31"/>
+    </row>
+    <row r="41" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="31"/>
+      <c r="B41" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="P41" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="Q41" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="2" t="s">
+      <c r="T41" s="34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3">
+      <c r="U41" s="31"/>
+    </row>
+    <row r="42" spans="1:21" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="31"/>
+      <c r="B42" s="35">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B43" s="4">
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="31"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A43" s="31"/>
+      <c r="B43" s="36">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="36" t="s">
         <v>565</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B44" s="4">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
+      <c r="S43" s="36"/>
+      <c r="T43" s="36"/>
+      <c r="U43" s="31"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A44" s="31"/>
+      <c r="B44" s="36">
         <v>3</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="4">
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="31"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A45" s="31"/>
+      <c r="B45" s="36">
         <v>4</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B46" s="4">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+      <c r="U45" s="31"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A46" s="31"/>
+      <c r="B46" s="36">
         <v>5</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B47" s="4">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+      <c r="U46" s="31"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A47" s="31"/>
+      <c r="B47" s="36">
         <v>6</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B48" s="4">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="31"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A48" s="31"/>
+      <c r="B48" s="36">
         <v>7</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B49" s="4">
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="36"/>
+      <c r="T48" s="36"/>
+      <c r="U48" s="31"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A49" s="31"/>
+      <c r="B49" s="36">
         <v>8</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B50" s="4">
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="31"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A50" s="31"/>
+      <c r="B50" s="36">
         <v>9</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B51" s="4">
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36"/>
+      <c r="P50" s="36"/>
+      <c r="Q50" s="36"/>
+      <c r="R50" s="36"/>
+      <c r="S50" s="36"/>
+      <c r="T50" s="36"/>
+      <c r="U50" s="31"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A51" s="31"/>
+      <c r="B51" s="36">
         <v>10</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36"/>
+      <c r="P51" s="36"/>
+      <c r="Q51" s="36"/>
+      <c r="R51" s="36"/>
+      <c r="S51" s="36"/>
+      <c r="T51" s="36"/>
+      <c r="U51" s="31"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A53" s="31" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+      <c r="T53" s="31"/>
+      <c r="U53" s="31"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
       <c r="C57" s="24" t="s">
         <v>572</v>
       </c>
@@ -3639,13 +4549,82 @@
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="U57" s="31"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="31"/>
+      <c r="U58" s="31"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
       <c r="C61" s="18" t="s">
         <v>573</v>
       </c>
@@ -3666,8 +4645,11 @@
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
       <c r="T61" s="20"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U61" s="31"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -3686,8 +4668,11 @@
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
       <c r="T62" s="29"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U62" s="31"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A63" s="31"/>
+      <c r="B63" s="31"/>
       <c r="C63" s="27" t="s">
         <v>574</v>
       </c>
@@ -3708,8 +4693,11 @@
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="29"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U63" s="31"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A64" s="31"/>
+      <c r="B64" s="31"/>
       <c r="C64" s="27" t="s">
         <v>575</v>
       </c>
@@ -3730,8 +4718,11 @@
       <c r="R64" s="28"/>
       <c r="S64" s="28"/>
       <c r="T64" s="29"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U64" s="31"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="27" t="s">
         <v>576</v>
       </c>
@@ -3752,8 +4743,11 @@
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="29"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U65" s="31"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
@@ -3772,8 +4766,11 @@
       <c r="R66" s="28"/>
       <c r="S66" s="28"/>
       <c r="T66" s="29"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U66" s="31"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="C67" s="27" t="s">
         <v>577</v>
       </c>
@@ -3794,8 +4791,11 @@
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="29"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U67" s="31"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
       <c r="C68" s="27"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
@@ -3814,8 +4814,11 @@
       <c r="R68" s="28"/>
       <c r="S68" s="28"/>
       <c r="T68" s="29"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U68" s="31"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
       <c r="C69" s="27" t="s">
         <v>578</v>
       </c>
@@ -3836,8 +4839,11 @@
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="29"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U69" s="31"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
       <c r="C70" s="27" t="s">
         <v>579</v>
       </c>
@@ -3858,8 +4864,11 @@
       <c r="R70" s="28"/>
       <c r="S70" s="28"/>
       <c r="T70" s="29"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U70" s="31"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
       <c r="C71" s="27" t="s">
         <v>580</v>
       </c>
@@ -3880,8 +4889,11 @@
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="29"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U71" s="31"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="C72" s="27"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
@@ -3900,8 +4912,11 @@
       <c r="R72" s="28"/>
       <c r="S72" s="28"/>
       <c r="T72" s="29"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U72" s="31"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
       <c r="C73" s="27" t="s">
         <v>581</v>
       </c>
@@ -3922,8 +4937,11 @@
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="29"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U73" s="31"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="C74" s="27"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -3942,8 +4960,11 @@
       <c r="R74" s="28"/>
       <c r="S74" s="28"/>
       <c r="T74" s="29"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U74" s="31"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
       <c r="C75" s="27" t="s">
         <v>582</v>
       </c>
@@ -3964,8 +4985,11 @@
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="29"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="U75" s="31"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="21" t="s">
         <v>583</v>
       </c>
@@ -3986,18 +5010,130 @@
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
       <c r="T76" s="23"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
+      <c r="U76" s="31"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+      <c r="T77" s="31"/>
+      <c r="U77" s="31"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A78" s="31" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B80" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+      <c r="T79" s="31"/>
+      <c r="U79" s="31"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A80" s="31"/>
+      <c r="B80" s="31" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
+      <c r="T80" s="31"/>
+      <c r="U80" s="31"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A81" s="31"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+      <c r="T81" s="31"/>
+      <c r="U81" s="31"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
       <c r="C82" s="24" t="s">
         <v>586</v>
       </c>
@@ -4018,18 +5154,130 @@
       <c r="R82" s="25"/>
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="U82" s="31"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A83" s="31"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="31"/>
+      <c r="Q83" s="31"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+      <c r="T83" s="31"/>
+      <c r="U83" s="31"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A84" s="31" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="31"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="31"/>
+      <c r="Q84" s="31"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+      <c r="T84" s="31"/>
+      <c r="U84" s="31"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="31"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="31"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="31"/>
+      <c r="Q85" s="31"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
+      <c r="T85" s="31"/>
+      <c r="U85" s="31"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="31" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="24" t="s">
         <v>590</v>
       </c>
@@ -4050,18 +5298,107 @@
       <c r="R88" s="25"/>
       <c r="S88" s="25"/>
       <c r="T88" s="26"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+      <c r="U88" s="31"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A89" s="31"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A91" s="31"/>
+      <c r="B91" s="31" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="31"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="31"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="31"/>
+      <c r="S91" s="31"/>
+      <c r="T91" s="31"/>
+      <c r="U91" s="31"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A93" s="31"/>
+      <c r="B93" s="31"/>
       <c r="C93" s="24" t="s">
         <v>593</v>
       </c>
@@ -4082,13 +5419,82 @@
       <c r="R93" s="25"/>
       <c r="S93" s="25"/>
       <c r="T93" s="26"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+      <c r="U93" s="31"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A94" s="31"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="31"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="31"/>
+      <c r="Q94" s="31"/>
+      <c r="R94" s="31"/>
+      <c r="S94" s="31"/>
+      <c r="T94" s="31"/>
+      <c r="U94" s="31"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A95" s="31"/>
+      <c r="B95" s="31" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="31"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="31"/>
+      <c r="Q95" s="31"/>
+      <c r="R95" s="31"/>
+      <c r="S95" s="31"/>
+      <c r="T95" s="31"/>
+      <c r="U95" s="31"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A96" s="31"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="31"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="31"/>
+      <c r="R96" s="31"/>
+      <c r="S96" s="31"/>
+      <c r="T96" s="31"/>
+      <c r="U96" s="31"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A97" s="31"/>
+      <c r="B97" s="31"/>
       <c r="C97" s="24" t="s">
         <v>594</v>
       </c>
@@ -4109,6 +5515,30 @@
       <c r="R97" s="25"/>
       <c r="S97" s="25"/>
       <c r="T97" s="26"/>
+      <c r="U97" s="31"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A98" s="31"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+      <c r="K98" s="31"/>
+      <c r="L98" s="31"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="31"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="31"/>
+      <c r="R98" s="31"/>
+      <c r="S98" s="31"/>
+      <c r="T98" s="31"/>
+      <c r="U98" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7020" tabRatio="671"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7020" tabRatio="671" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="604">
   <si>
     <t>共通設定</t>
   </si>
@@ -2239,12 +2239,41 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>OS名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CPU数</t>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>MEM容量</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2309,8 +2338,40 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2339,6 +2400,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -2526,15 +2592,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2625,17 +2694,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2646,8 +2709,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="出力" xfId="2" builtinId="21"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3000,7 +3076,7 @@
   </sheetPr>
   <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3023,348 +3099,348 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
         <v>534</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
         <v>539</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="18" t="s">
         <v>538</v>
       </c>
@@ -3385,11 +3461,11 @@
       <c r="R15" s="19"/>
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
-      <c r="U15" s="31"/>
+      <c r="U15" s="30"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="21" t="s">
         <v>540</v>
       </c>
@@ -3410,1125 +3486,1125 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="23"/>
-      <c r="U16" s="31"/>
+      <c r="U16" s="30"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30" t="s">
         <v>542</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="s">
         <v>545</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="30"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="30" t="s">
         <v>596</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="30"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="30"/>
+      <c r="U31" s="30"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
         <v>543</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="33" t="s">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33" t="s">
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="31"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="30"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32" t="s">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="J40" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="K40" s="32" t="s">
+      <c r="K40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="L40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M40" s="32" t="s">
+      <c r="M40" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="N40" s="32" t="s">
+      <c r="N40" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="O40" s="32" t="s">
+      <c r="O40" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="P40" s="32" t="s">
+      <c r="P40" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="Q40" s="32" t="s">
+      <c r="Q40" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R40" s="32" t="s">
+      <c r="R40" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="S40" s="32" t="s">
+      <c r="S40" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="T40" s="32" t="s">
+      <c r="T40" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U40" s="31"/>
+      <c r="U40" s="30"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="30"/>
+      <c r="B41" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="34" t="s">
+      <c r="D41" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J41" s="34" t="s">
+      <c r="J41" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="O41" s="34" t="s">
+      <c r="O41" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="P41" s="34" t="s">
+      <c r="P41" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="Q41" s="34" t="s">
+      <c r="Q41" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R41" s="34" t="s">
+      <c r="R41" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="S41" s="34" t="s">
+      <c r="S41" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="34" t="s">
+      <c r="T41" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="U41" s="31"/>
+      <c r="U41" s="30"/>
     </row>
     <row r="42" spans="1:21" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="33">
         <v>1</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="35" t="s">
+      <c r="G42" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H42" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="I42" s="35" t="s">
+      <c r="I42" s="33" t="s">
         <v>564</v>
       </c>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="31"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="30"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A43" s="31"/>
-      <c r="B43" s="36">
+      <c r="A43" s="30"/>
+      <c r="B43" s="34">
         <v>2</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="36" t="s">
+      <c r="G43" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="31"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="30"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A44" s="31"/>
-      <c r="B44" s="36">
+      <c r="A44" s="30"/>
+      <c r="B44" s="34">
         <v>3</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="36" t="s">
+      <c r="G44" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="36" t="s">
+      <c r="H44" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="31"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="34"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="30"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="36">
+      <c r="A45" s="30"/>
+      <c r="B45" s="34">
         <v>4</v>
       </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="36"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="36"/>
-      <c r="T45" s="36"/>
-      <c r="U45" s="31"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="30"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="36">
+      <c r="A46" s="30"/>
+      <c r="B46" s="34">
         <v>5</v>
       </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="31"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="30"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A47" s="31"/>
-      <c r="B47" s="36">
+      <c r="A47" s="30"/>
+      <c r="B47" s="34">
         <v>6</v>
       </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="36"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="31"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
+      <c r="S47" s="34"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="30"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A48" s="31"/>
-      <c r="B48" s="36">
+      <c r="A48" s="30"/>
+      <c r="B48" s="34">
         <v>7</v>
       </c>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="31"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
+      <c r="S48" s="34"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="30"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="36">
+      <c r="A49" s="30"/>
+      <c r="B49" s="34">
         <v>8</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="36"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="31"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
+      <c r="S49" s="34"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="30"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A50" s="31"/>
-      <c r="B50" s="36">
+      <c r="A50" s="30"/>
+      <c r="B50" s="34">
         <v>9</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
-      <c r="R50" s="36"/>
-      <c r="S50" s="36"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="31"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="30"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
-      <c r="B51" s="36">
+      <c r="A51" s="30"/>
+      <c r="B51" s="34">
         <v>10</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="36"/>
-      <c r="P51" s="36"/>
-      <c r="Q51" s="36"/>
-      <c r="R51" s="36"/>
-      <c r="S51" s="36"/>
-      <c r="T51" s="36"/>
-      <c r="U51" s="31"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="30"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="30"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
+      <c r="U54" s="30"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="30"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="24" t="s">
         <v>572</v>
       </c>
@@ -4549,82 +4625,82 @@
       <c r="R57" s="25"/>
       <c r="S57" s="25"/>
       <c r="T57" s="26"/>
-      <c r="U57" s="31"/>
+      <c r="U57" s="30"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="30"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
         <v>573</v>
       </c>
@@ -4645,11 +4721,11 @@
       <c r="R61" s="19"/>
       <c r="S61" s="19"/>
       <c r="T61" s="20"/>
-      <c r="U61" s="31"/>
+      <c r="U61" s="30"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="27"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -4668,11 +4744,11 @@
       <c r="R62" s="28"/>
       <c r="S62" s="28"/>
       <c r="T62" s="29"/>
-      <c r="U62" s="31"/>
+      <c r="U62" s="30"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A63" s="31"/>
-      <c r="B63" s="31"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="27" t="s">
         <v>574</v>
       </c>
@@ -4693,11 +4769,11 @@
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="29"/>
-      <c r="U63" s="31"/>
+      <c r="U63" s="30"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A64" s="31"/>
-      <c r="B64" s="31"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="27" t="s">
         <v>575</v>
       </c>
@@ -4718,11 +4794,11 @@
       <c r="R64" s="28"/>
       <c r="S64" s="28"/>
       <c r="T64" s="29"/>
-      <c r="U64" s="31"/>
+      <c r="U64" s="30"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="27" t="s">
         <v>576</v>
       </c>
@@ -4743,11 +4819,11 @@
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="29"/>
-      <c r="U65" s="31"/>
+      <c r="U65" s="30"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="27"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
@@ -4766,11 +4842,11 @@
       <c r="R66" s="28"/>
       <c r="S66" s="28"/>
       <c r="T66" s="29"/>
-      <c r="U66" s="31"/>
+      <c r="U66" s="30"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="27" t="s">
         <v>577</v>
       </c>
@@ -4791,11 +4867,11 @@
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="29"/>
-      <c r="U67" s="31"/>
+      <c r="U67" s="30"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="27"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
@@ -4814,11 +4890,11 @@
       <c r="R68" s="28"/>
       <c r="S68" s="28"/>
       <c r="T68" s="29"/>
-      <c r="U68" s="31"/>
+      <c r="U68" s="30"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="27" t="s">
         <v>578</v>
       </c>
@@ -4839,11 +4915,11 @@
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="29"/>
-      <c r="U69" s="31"/>
+      <c r="U69" s="30"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="27" t="s">
         <v>579</v>
       </c>
@@ -4864,11 +4940,11 @@
       <c r="R70" s="28"/>
       <c r="S70" s="28"/>
       <c r="T70" s="29"/>
-      <c r="U70" s="31"/>
+      <c r="U70" s="30"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="27" t="s">
         <v>580</v>
       </c>
@@ -4889,11 +4965,11 @@
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="29"/>
-      <c r="U71" s="31"/>
+      <c r="U71" s="30"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="27"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
@@ -4912,11 +4988,11 @@
       <c r="R72" s="28"/>
       <c r="S72" s="28"/>
       <c r="T72" s="29"/>
-      <c r="U72" s="31"/>
+      <c r="U72" s="30"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="27" t="s">
         <v>581</v>
       </c>
@@ -4937,11 +5013,11 @@
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="29"/>
-      <c r="U73" s="31"/>
+      <c r="U73" s="30"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="27"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
@@ -4960,11 +5036,11 @@
       <c r="R74" s="28"/>
       <c r="S74" s="28"/>
       <c r="T74" s="29"/>
-      <c r="U74" s="31"/>
+      <c r="U74" s="30"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="27" t="s">
         <v>582</v>
       </c>
@@ -4985,11 +5061,11 @@
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="29"/>
-      <c r="U75" s="31"/>
+      <c r="U75" s="30"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="21" t="s">
         <v>583</v>
       </c>
@@ -5010,130 +5086,130 @@
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
       <c r="T76" s="23"/>
-      <c r="U76" s="31"/>
+      <c r="U76" s="30"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A77" s="31"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="31"/>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="31"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>584</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
+      <c r="Q78" s="30"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
+      <c r="T78" s="30"/>
+      <c r="U78" s="30"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="31"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="Q79" s="30"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
+      <c r="T79" s="30"/>
+      <c r="U79" s="30"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31" t="s">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
-      <c r="N80" s="31"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
+      <c r="Q80" s="30"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
+      <c r="T80" s="30"/>
+      <c r="U80" s="30"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A81" s="31"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="31"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
+      <c r="A81" s="30"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="24" t="s">
         <v>586</v>
       </c>
@@ -5154,130 +5230,130 @@
       <c r="R82" s="25"/>
       <c r="S82" s="25"/>
       <c r="T82" s="26"/>
-      <c r="U82" s="31"/>
+      <c r="U82" s="30"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A83" s="31"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="31"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="31"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
-      <c r="K85" s="31"/>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="31"/>
-      <c r="O85" s="31"/>
-      <c r="P85" s="31"/>
-      <c r="Q85" s="31"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31" t="s">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="31"/>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
-      <c r="N86" s="31"/>
-      <c r="O86" s="31"/>
-      <c r="P86" s="31"/>
-      <c r="Q86" s="31"/>
-      <c r="R86" s="31"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="31"/>
-      <c r="M87" s="31"/>
-      <c r="N87" s="31"/>
-      <c r="O87" s="31"/>
-      <c r="P87" s="31"/>
-      <c r="Q87" s="31"/>
-      <c r="R87" s="31"/>
-      <c r="S87" s="31"/>
-      <c r="T87" s="31"/>
-      <c r="U87" s="31"/>
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="30"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="24" t="s">
         <v>590</v>
       </c>
@@ -5298,107 +5374,107 @@
       <c r="R88" s="25"/>
       <c r="S88" s="25"/>
       <c r="T88" s="26"/>
-      <c r="U88" s="31"/>
+      <c r="U88" s="30"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A89" s="31"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="31"/>
-      <c r="N89" s="31"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="31"/>
-      <c r="Q89" s="31"/>
-      <c r="R89" s="31"/>
-      <c r="S89" s="31"/>
-      <c r="T89" s="31"/>
-      <c r="U89" s="31"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31" t="s">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="31"/>
-      <c r="N90" s="31"/>
-      <c r="O90" s="31"/>
-      <c r="P90" s="31"/>
-      <c r="Q90" s="31"/>
-      <c r="R90" s="31"/>
-      <c r="S90" s="31"/>
-      <c r="T90" s="31"/>
-      <c r="U90" s="31"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="31" t="s">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
-      <c r="M91" s="31"/>
-      <c r="N91" s="31"/>
-      <c r="O91" s="31"/>
-      <c r="P91" s="31"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="31"/>
-      <c r="T91" s="31"/>
-      <c r="U91" s="31"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="31"/>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A93" s="31"/>
-      <c r="B93" s="31"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="24" t="s">
         <v>593</v>
       </c>
@@ -5419,82 +5495,82 @@
       <c r="R93" s="25"/>
       <c r="S93" s="25"/>
       <c r="T93" s="26"/>
-      <c r="U93" s="31"/>
+      <c r="U93" s="30"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A94" s="31"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="31"/>
-      <c r="L94" s="31"/>
-      <c r="M94" s="31"/>
-      <c r="N94" s="31"/>
-      <c r="O94" s="31"/>
-      <c r="P94" s="31"/>
-      <c r="Q94" s="31"/>
-      <c r="R94" s="31"/>
-      <c r="S94" s="31"/>
-      <c r="T94" s="31"/>
-      <c r="U94" s="31"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="30"/>
+      <c r="U94" s="30"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A95" s="31"/>
-      <c r="B95" s="31" t="s">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="31"/>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
-      <c r="Q95" s="31"/>
-      <c r="R95" s="31"/>
-      <c r="S95" s="31"/>
-      <c r="T95" s="31"/>
-      <c r="U95" s="31"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A96" s="31"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-      <c r="K96" s="31"/>
-      <c r="L96" s="31"/>
-      <c r="M96" s="31"/>
-      <c r="N96" s="31"/>
-      <c r="O96" s="31"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="31"/>
-      <c r="R96" s="31"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="31"/>
-      <c r="U96" s="31"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="30"/>
+      <c r="U96" s="30"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A97" s="31"/>
-      <c r="B97" s="31"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="24" t="s">
         <v>594</v>
       </c>
@@ -5515,30 +5591,30 @@
       <c r="R97" s="25"/>
       <c r="S97" s="25"/>
       <c r="T97" s="26"/>
-      <c r="U97" s="31"/>
+      <c r="U97" s="30"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31"/>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="31"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="31"/>
-      <c r="T98" s="31"/>
-      <c r="U98" s="31"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="30"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="30"/>
+      <c r="R98" s="30"/>
+      <c r="S98" s="30"/>
+      <c r="T98" s="30"/>
+      <c r="U98" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5585,30 +5661,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30" t="s">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6206,8 +6282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6340,59 +6416,37 @@
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>599</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>506</v>
-      </c>
+      <c r="E5" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>517</v>
-      </c>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="6" t="s">
-        <v>31</v>
+      <c r="W5" s="38" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -6403,49 +6457,53 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>389</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
+        <v>513</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>517</v>
+      </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -6455,32 +6513,50 @@
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -6498,50 +6574,60 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -1,41 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\work\gradle-server-acceptance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="7020" tabRatio="671" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="671" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="利用手順" sheetId="9" r:id="rId1"/>
-    <sheet name="検査対象" sheetId="1" r:id="rId2"/>
-    <sheet name="検査レポート" sheetId="2" r:id="rId3"/>
-    <sheet name="エラーレポート" sheetId="3" r:id="rId4"/>
-    <sheet name="チェックシート(Linux)" sheetId="4" r:id="rId5"/>
-    <sheet name="チェックシート(Windows)" sheetId="5" r:id="rId6"/>
-    <sheet name="テンプレート(Linux)" sheetId="6" r:id="rId7"/>
-    <sheet name="テンプレート(RH7)" sheetId="7" r:id="rId8"/>
-    <sheet name="テンプレート(Windows)" sheetId="8" r:id="rId9"/>
+    <sheet name="利用手順" sheetId="1" r:id="rId1"/>
+    <sheet name="検査対象" sheetId="2" r:id="rId2"/>
+    <sheet name="検査レポート" sheetId="3" r:id="rId3"/>
+    <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
+    <sheet name="チェックシート(Linux)" sheetId="5" r:id="rId5"/>
+    <sheet name="チェックシート(Windows)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(Linux)" sheetId="7" r:id="rId7"/>
+    <sheet name="テンプレート(RH7)" sheetId="8" r:id="rId8"/>
+    <sheet name="テンプレート(Windows)" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$97</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1546727455" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1546727455" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1546727455" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1546727455"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="614">
+  <si>
+    <t>0. 事前準備</t>
+  </si>
+  <si>
+    <t>* Windows 7 64bit、Windows Server 2012 R2以上で以下のスペックのPCが必要です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CPU 1 Core以上 / Memory 4 GB以上 / Disk 100 GB以上</t>
+  </si>
+  <si>
+    <t>* 以下パッケージのインストールが必要です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    JDK1.8 (64bit) / PowerShell 5.0 以上 / VMWare PowerCLI 6.x / Getconfig インベントリ収集ツール 1.x</t>
+  </si>
+  <si>
+    <t>* 詳細は、セットアップガイド「インベントリ収集PCセットアップ」を参照してください。</t>
+  </si>
+  <si>
+    <t>1. プロジェクト作成</t>
+  </si>
+  <si>
+    <t>PowerShell コンソールを開いて、「getconfig -g "プロジェクト名"」でプロジェクトを作成 します。</t>
+  </si>
+  <si>
+    <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
+  </si>
+  <si>
+    <t>cd C:\Users\Administrator\Desktop</t>
+  </si>
+  <si>
+    <t>getconfig -g test_project1</t>
+  </si>
+  <si>
+    <t>以降の作業は作成したプロジェクトディレクトリに移動して実行します。</t>
+  </si>
+  <si>
+    <t>2. 検査シート編集</t>
+  </si>
+  <si>
+    <t>作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
+  </si>
+  <si>
+    <t>検査ドメイン</t>
+  </si>
+  <si>
+    <t>検査するシナリオID(チェックシート名カッコ内のID)。Linux か、 Windows を指定します。</t>
+  </si>
+  <si>
+    <t>対象サーバ</t>
+  </si>
+  <si>
+    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+  </si>
+  <si>
+    <t>検査対象サーバのIPを入力します。</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
+  </si>
+  <si>
+    <t>テンプレートID</t>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのIDを入力します。インベントリ結果の値の比較をする場合に使用します。テンプレートの設定</t>
+  </si>
+  <si>
+    <t>Linux(RedHat6.x)の場合、'Linux'、Linux(RedHat7.x)の場合、'RH7'、Windowsの場合、'Windows'を指定します。</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+  </si>
+  <si>
+    <t>(オプション)  VMWare 仮想マシンの場合は、vCenter で定義した仮想マシン名を入力します。</t>
+  </si>
+  <si>
+    <t>比較対象</t>
+  </si>
+  <si>
+    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
+  </si>
+  <si>
+    <t>特定パスワード</t>
+  </si>
+  <si>
+    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
+  </si>
+  <si>
+    <t>OS設定項目</t>
+  </si>
+  <si>
+    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
+  </si>
+  <si>
+    <t>VM設定項目</t>
+  </si>
+  <si>
+    <t>(オプション) VMWare 仮想マシン設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。</t>
+  </si>
+  <si>
+    <t>入力例：</t>
+  </si>
   <si>
     <t>共通設定</t>
   </si>
@@ -46,9 +160,6 @@
     <t>VM設定</t>
   </si>
   <si>
-    <t>検査ドメイン</t>
-  </si>
-  <si>
     <t>対象サーバ</t>
   </si>
   <si>
@@ -76,6 +187,18 @@
     <t>メモリ[MB]</t>
   </si>
   <si>
+    <t>IPアドレス2</t>
+  </si>
+  <si>
+    <t>IPアドレス3</t>
+  </si>
+  <si>
+    <t>IPアドレス4</t>
+  </si>
+  <si>
+    <t>IPアドレス5</t>
+  </si>
+  <si>
     <t>ESXiホスト</t>
   </si>
   <si>
@@ -118,6 +241,18 @@
     <t>mem_total</t>
   </si>
   <si>
+    <t>ip2</t>
+  </si>
+  <si>
+    <t>ip3</t>
+  </si>
+  <si>
+    <t>ip4</t>
+  </si>
+  <si>
+    <t>ip5</t>
+  </si>
+  <si>
     <t>esxi_host</t>
   </si>
   <si>
@@ -133,12 +268,132 @@
     <t>Linux</t>
   </si>
   <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
+    <t>cent7</t>
+  </si>
+  <si>
+    <t>192.168.0.20</t>
+  </si>
+  <si>
+    <t>RH7</t>
+  </si>
+  <si>
     <t>Windows</t>
   </si>
   <si>
+    <t>win2012</t>
+  </si>
+  <si>
+    <t>192.168.0.24</t>
+  </si>
+  <si>
+    <t>w2012</t>
+  </si>
+  <si>
+    <t>3. 設定ファイル(config.groovy)編集</t>
+  </si>
+  <si>
+    <t>設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>notepad .\config\config.groovy</t>
+  </si>
+  <si>
+    <t>以下の各検査対象の接続情報を編集します。</t>
+  </si>
+  <si>
+    <t>// vCenter接続情報</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.server   = '192.168.10.100'</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.user     = 'test_user'</t>
+  </si>
+  <si>
+    <t>account.vCenter.Test.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>// Linux 接続情報</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.user      = 'someuser'</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.password  = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>account.Linux.Test.work_dir  = '/tmp/gradle_test'</t>
+  </si>
+  <si>
+    <t>// Windows 接続情報</t>
+  </si>
+  <si>
+    <t>account.Windows.Test.user     = 'administrator'</t>
+  </si>
+  <si>
+    <t>account.Windows.Test.password = 'P@ssword'</t>
+  </si>
+  <si>
+    <t>4. Getconfig インベントリ収集実行</t>
+  </si>
+  <si>
+    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
+  </si>
+  <si>
+    <t>getconfig -c .\config\config.groovy</t>
+  </si>
+  <si>
+    <t>5. 実行結果の参照とコミット</t>
+  </si>
+  <si>
+    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>dir .\build</t>
+  </si>
+  <si>
+    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
+  </si>
+  <si>
+    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
+  </si>
+  <si>
+    <t>getconfig -u local</t>
+  </si>
+  <si>
+    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
+  </si>
+  <si>
+    <t>getconfig -u db</t>
+  </si>
+  <si>
+    <t>IPアドレス3</t>
+  </si>
+  <si>
+    <t>IPアドレス4</t>
+  </si>
+  <si>
+    <t>IPアドレス5</t>
+  </si>
+  <si>
+    <t>ip2</t>
+  </si>
+  <si>
+    <t>ip3</t>
+  </si>
+  <si>
+    <t>ip5</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -157,18 +412,45 @@
     <t>アーキテクチャ</t>
   </si>
   <si>
+    <t>CPUコア数</t>
+  </si>
+  <si>
+    <t>CPUクロック数</t>
+  </si>
+  <si>
     <t>MEM容量</t>
   </si>
   <si>
     <t>ディスク構成</t>
   </si>
   <si>
+    <t>内臓ディスク</t>
+  </si>
+  <si>
     <t>ネットワーク構成</t>
   </si>
   <si>
+    <t>サブネット構成</t>
+  </si>
+  <si>
+    <t>ゲートウェイ構成</t>
+  </si>
+  <si>
+    <t>ボンディング構成</t>
+  </si>
+  <si>
     <t>管理LAN</t>
   </si>
   <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>コンソール</t>
+  </si>
+  <si>
+    <t>パッケージ</t>
+  </si>
+  <si>
     <t>検査成績</t>
   </si>
   <si>
@@ -193,37 +475,97 @@
     <t>_base</t>
   </si>
   <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>OS名</t>
+  </si>
+  <si>
+    <t>CPU数</t>
+  </si>
+  <si>
+    <t>MEM容量</t>
+  </si>
+  <si>
+    <t>_redmine:IAサーバ</t>
+  </si>
+  <si>
     <t>os</t>
   </si>
   <si>
     <t>arch</t>
   </si>
   <si>
+    <t>cpu_core</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
     <t>filesystem</t>
   </si>
   <si>
     <t>net_ip</t>
   </si>
   <si>
+    <t>net_subnet</t>
+  </si>
+  <si>
+    <t>net_route</t>
+  </si>
+  <si>
+    <t>net_bond</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>runlevel.console</t>
+  </si>
+  <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
     <t>os_caption</t>
   </si>
   <si>
     <t>os_architecture</t>
   </si>
   <si>
+    <t>cpu_socket</t>
+  </si>
+  <si>
+    <t>mhz</t>
+  </si>
+  <si>
     <t>visible_memory</t>
   </si>
   <si>
     <t>network</t>
   </si>
   <si>
+    <t>network.subnet</t>
+  </si>
+  <si>
+    <t>network.gw</t>
+  </si>
+  <si>
+    <t>nic_teaming</t>
+  </si>
+  <si>
+    <t>ntp</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
     <t>Nic</t>
   </si>
   <si>
     <t>iLO</t>
   </si>
   <si>
-    <t>nic</t>
+    <t>disk</t>
   </si>
   <si>
     <t>Primergy</t>
@@ -434,9 +776,6 @@
   </si>
   <si>
     <t>CPUプロセッサーモデル</t>
-  </si>
-  <si>
-    <t>mhz</t>
   </si>
   <si>
     <t>├─CPUクロック</t>
@@ -492,12 +831,18 @@
     <t>├─メモリ総容量</t>
   </si>
   <si>
+    <t>メモリ総容量[GB]</t>
+  </si>
+  <si>
     <t>mem_free</t>
   </si>
   <si>
     <t>└─メモリ空容量</t>
   </si>
   <si>
+    <t>メモリ空き容量[GB]</t>
+  </si>
+  <si>
     <t>ネットワーク情報</t>
   </si>
   <si>
@@ -507,6 +852,12 @@
     <t>├─IPアドレス</t>
   </si>
   <si>
+    <t>├─サブネットアドレス</t>
+  </si>
+  <si>
+    <t>サブネットアドレス</t>
+  </si>
+  <si>
     <t>hw_address</t>
   </si>
   <si>
@@ -523,9 +874,6 @@
   </si>
   <si>
     <t>/etc/sysconfig/network-scriptsからネットワークブート構成検索</t>
-  </si>
-  <si>
-    <t>net_route</t>
   </si>
   <si>
     <t>デフォルトゲートウェイ</t>
@@ -613,6 +961,9 @@
     <t>mountコマンドで、/dev/mapper/下のボリュームを検索</t>
   </si>
   <si>
+    <t>Y1</t>
+  </si>
+  <si>
     <t>user</t>
   </si>
   <si>
@@ -749,6 +1100,15 @@
     <t>rpm -qa でパッケージ情報取得</t>
   </si>
   <si>
+    <t>packages.requirements</t>
+  </si>
+  <si>
+    <t>├─必須パッケージ</t>
+  </si>
+  <si>
+    <t>必須パッケージリスト</t>
+  </si>
+  <si>
     <t>packages.gcc</t>
   </si>
   <si>
@@ -885,6 +1245,15 @@
     <t>OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
   </si>
   <si>
+    <t>└─コンソール</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>コンソール設定(GUI、CUI)</t>
+  </si>
+  <si>
     <t>resolve_conf</t>
   </si>
   <si>
@@ -921,9 +1290,6 @@
     <t>タイムゾーン</t>
   </si>
   <si>
-    <t>ntp</t>
-  </si>
-  <si>
     <t>NTPサーバ名</t>
   </si>
   <si>
@@ -966,6 +1332,9 @@
     <t>SELinuxモードの検索。SELinuxが無効の場合は空白</t>
   </si>
   <si>
+    <t>Y2</t>
+  </si>
+  <si>
     <t>error_messages</t>
   </si>
   <si>
@@ -993,6 +1362,9 @@
     <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
   </si>
   <si>
@@ -1002,6 +1374,12 @@
     <t>Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
+    <t>├─CPUソケット数</t>
+  </si>
+  <si>
+    <t>CPUソケット数</t>
+  </si>
+  <si>
     <t>└─スレッド数</t>
   </si>
   <si>
@@ -1191,9 +1569,6 @@
     <t>network.ip</t>
   </si>
   <si>
-    <t>network.gw</t>
-  </si>
-  <si>
     <t>├─ゲートウェイ</t>
   </si>
   <si>
@@ -1209,9 +1584,6 @@
     <t>ネットワークサブネット</t>
   </si>
   <si>
-    <t>nic_teaming</t>
-  </si>
-  <si>
     <t>NICチーミング(NetLBFO)設定</t>
   </si>
   <si>
@@ -1386,6 +1758,9 @@
     <t>sysstat</t>
   </si>
   <si>
+    <t>${ip2}</t>
+  </si>
+  <si>
     <t>[SWAP]</t>
   </si>
   <si>
@@ -1401,12 +1776,21 @@
     <t>dmidecode</t>
   </si>
   <si>
+    <t>${ip3}</t>
+  </si>
+  <si>
     <t>strace</t>
   </si>
   <si>
+    <t>${ip4}</t>
+  </si>
+  <si>
     <t>net-snmp-libs</t>
   </si>
   <si>
+    <t>${ip5}</t>
+  </si>
+  <si>
     <t>net-snmp-utils</t>
   </si>
   <si>
@@ -1488,792 +1872,34 @@
     <t>Stopped</t>
   </si>
   <si>
-    <t>${ip2}</t>
+    <t>network</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>${ip3}</t>
-  </si>
-  <si>
-    <t>${ip4}</t>
-  </si>
-  <si>
-    <t>${ip5}</t>
-  </si>
-  <si>
-    <t>IPアドレス2</t>
+    <t>(*)</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>IPアドレス3</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>IPアドレス4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>IPアドレス5</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ip2</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ip3</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ip4</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ip5</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y2</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPUコア数</t>
-    <rPh sb="5" eb="6">
-      <t>スウ</t>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>CPUクロック数</t>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>cpu_core</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>mhz</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>メモリ総容量[GB]</t>
-  </si>
-  <si>
-    <t>メモリ空き容量[GB]</t>
-  </si>
-  <si>
-    <t>内臓ディスク</t>
-    <rPh sb="0" eb="2">
-      <t>ナイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>disk</t>
-  </si>
-  <si>
-    <t>net_bond</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>runlevel.console</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>└─コンソール</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>Linux</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>コンソール設定(GUI、CUI)</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
+    <t>Windows</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>コンソール</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>NTP</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ntp</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>パッケージ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>必須パッケージリスト</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─必須パッケージ</t>
-    <rPh sb="2" eb="4">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>packages.requirements</t>
-  </si>
-  <si>
-    <t>packages.requirements</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ゲートウェイ構成</t>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ボンディング構成</t>
-    <rPh sb="6" eb="8">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>cpu_socket</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─CPUソケット数</t>
-    <rPh sb="9" eb="10">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPUソケット数</t>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サブネット構成</t>
-    <rPh sb="5" eb="7">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>net_subnet</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>├─サブネットアドレス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>サブネットアドレス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>network.subnet</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>0. 事前準備</t>
-  </si>
-  <si>
-    <t>1. プロジェクト作成</t>
-  </si>
-  <si>
-    <t>2. 検査シート編集</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    CPU 1 Core以上 / Memory 4 GB以上 / Disk 100 GB以上</t>
-  </si>
-  <si>
-    <t>* Windows 7 64bit、Windows Server 2012 R2以上で以下のスペックのPCが必要です。</t>
-  </si>
-  <si>
-    <t>* 以下パッケージのインストールが必要です。</t>
-  </si>
-  <si>
-    <t>* 詳細は、セットアップガイド「インベントリ収集PCセットアップ」を参照してください。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    JDK1.8 (64bit) / PowerShell 5.0 以上 / VMWare PowerCLI 6.x / Getconfig インベントリ収集ツール 1.x</t>
-    <rPh sb="79" eb="81">
-      <t>シュウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>PowerShell コンソールを開いて、「getconfig -g "プロジェクト名"」でプロジェクトを作成 します。</t>
-  </si>
-  <si>
-    <t>cd C:\Users\Administrator\Desktop</t>
-  </si>
-  <si>
-    <t>ここでは、C:\Users\Administrator\Desktop の下に、 test_project1 という名前のプロジェクト を作成します。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>getconfig -g test_project1</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>作成したプロジェクトディレクトリ直下にある Excel ファイル(本ファイル)を開きます。</t>
-  </si>
-  <si>
-    <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
-  </si>
-  <si>
-    <t>入力例：</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>対象サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>IPアドレス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>テンプレートID</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>エイリアス</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>比較対象</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>OS設定項目</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>VM設定項目</t>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>検査するシナリオID(チェックシート名カッコ内のID)。Linux か、 Windows を指定します。</t>
-    <rPh sb="46" eb="48">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>検査対象サーバ名。任意の名前で問題ありませんが、通常はホスト名を指定します。</t>
-    <rPh sb="9" eb="11">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>検査対象サーバのIPを入力します。</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>後述する設定ファイル (connfig.goovy) 内に記述した接続アカウント ID を指定します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウジュツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション)  VMWare 仮想マシンの場合は、vCenter で定義した仮想マシン名を入力します。</t>
-    <rPh sb="16" eb="18">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション) インベントリ結果の比較をしたい場合に、比較対象サーバ名を指定します。</t>
-    <rPh sb="14" eb="16">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション) OS設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。空欄の場合はテンプレートの値を比較します。</t>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション) VMWare 仮想マシン設定項目の値比較で、対象サーバ固有の値を指定する場合に入力します。</t>
-    <rPh sb="15" eb="17">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>特定パスワード</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション) 接続時のパスワード入力で、対象サーバ固有の値を指定する場合に入力します。空欄の場合は設定ファイル(config.groovy)内に記述したパスワードを使用します。</t>
-    <rPh sb="8" eb="10">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コユウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>ostrich</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>cent7</t>
-  </si>
-  <si>
-    <t>192.168.0.20</t>
-  </si>
-  <si>
-    <t>RH7</t>
-  </si>
-  <si>
-    <t>win2012</t>
-  </si>
-  <si>
-    <t>192.168.0.24</t>
-  </si>
-  <si>
-    <t>w2012</t>
-  </si>
-  <si>
-    <t>3. 設定ファイル(config.groovy)編集</t>
-  </si>
-  <si>
-    <t>設定ファイルを編集します。</t>
-  </si>
-  <si>
-    <t>notepad .\config\config.groovy</t>
-  </si>
-  <si>
-    <t>// vCenter接続情報</t>
-  </si>
-  <si>
-    <t>account.vCenter.Test.server   = '192.168.10.100'</t>
-  </si>
-  <si>
-    <t>account.vCenter.Test.user     = 'test_user'</t>
-  </si>
-  <si>
-    <t>account.vCenter.Test.password = 'P@ssword'</t>
-  </si>
-  <si>
-    <t>// Linux 接続情報</t>
-  </si>
-  <si>
-    <t>account.Linux.Test.user      = 'someuser'</t>
-  </si>
-  <si>
-    <t>account.Linux.Test.password  = 'P@ssword'</t>
-  </si>
-  <si>
-    <t>account.Linux.Test.work_dir  = '/tmp/gradle_test'</t>
-  </si>
-  <si>
-    <t>// Windows 接続情報</t>
-  </si>
-  <si>
-    <t>account.Windows.Test.user     = 'administrator'</t>
-  </si>
-  <si>
-    <t>account.Windows.Test.password = 'P@ssword'</t>
-  </si>
-  <si>
-    <t>4. Getconfig インベントリ収集実行</t>
-  </si>
-  <si>
-    <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>getconfig -c .\config\config.groovy</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>以下の各検査対象の接続情報を編集します。</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>5. 実行結果の参照とコミット</t>
-  </si>
-  <si>
-    <t>getconfig 実行後、 build 下に保存されたインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>dir .\build</t>
-  </si>
-  <si>
-    <t>保存された「サーバチェックシート_{日時}.xlsx」を開いてインベントリ収集結果を確認します。</t>
-  </si>
-  <si>
-    <t>結果の確認ができたら、インベントリ収集結果をコミットをします。</t>
-  </si>
-  <si>
-    <t>getconfig -u local</t>
-  </si>
-  <si>
-    <t>getconfig -u db</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>構成管理データベースにインベントリ結果をロードする場合は、以下を実行します。</t>
-    <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのIDを入力します。インベントリ結果の値の比較をする場合に使用します。テンプレートの設定</t>
-    <rPh sb="9" eb="10">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヒカク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>以降の作業は作成したプロジェクトディレクトリに移動して実行します。</t>
-    <rPh sb="0" eb="2">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>Linux(RedHat6.x)の場合、'Linux'、Linux(RedHat7.x)の場合、'RH7'、Windowsの場合、'Windows'を指定します。</t>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>OS名</t>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>CPU数</t>
-    <rPh sb="3" eb="4">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>MEM容量</t>
-    <rPh sb="3" eb="5">
-      <t>ヨウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>_redmine:IAサーバ</t>
-    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2338,40 +1964,8 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2381,34 +1975,131 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -2433,44 +2124,89 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2479,17 +2215,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2498,7 +2234,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2506,46 +2242,55 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2553,29 +2298,29 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -2584,11 +2329,76 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2599,210 +2409,157 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="出力" xfId="2" builtinId="21"/>
+    <cellStyle name="出力" xfId="2" builtinId="21" customBuiltin="1"/>
     <cellStyle name="説明文" xfId="1" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1546727455" count="1">
+        <pm:charStyle name="標準" fontId="0" Id="1"/>
+      </pm:charStyles>
+      <pm:colors xmlns:pm="smNativeData" id="1546727455" count="5">
+        <pm:color name="色 24" rgb="3F3F3F"/>
+        <pm:color name="色 25" rgb="F2F2F2"/>
+        <pm:color name="色 26" rgb="FFFFCC"/>
+        <pm:color name="色 27" rgb="CCFFFF"/>
+        <pm:color name="*20%灰色" rgb="000000"/>
+      </pm:colors>
     </ext>
   </extLst>
 </styleSheet>
@@ -2819,39 +2576,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2930,142 +2687,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -3074,9 +2855,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:C104"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3089,8 +2872,8 @@
     <col min="9" max="9" width="16.5" customWidth="1"/>
     <col min="10" max="10" width="14.25" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="16" width="9.5" customWidth="1"/>
     <col min="17" max="17" width="10.125" customWidth="1"/>
     <col min="18" max="18" width="10.75" customWidth="1"/>
     <col min="19" max="19" width="9.25" customWidth="1"/>
@@ -3123,7 +2906,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -3172,7 +2955,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="30"/>
       <c r="B4" s="30" t="s">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -3197,7 +2980,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -3222,7 +3005,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>534</v>
+        <v>3</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -3247,7 +3030,7 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="30"/>
       <c r="B7" s="30" t="s">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
@@ -3272,7 +3055,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="30"/>
       <c r="B8" s="30" t="s">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -3319,7 +3102,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
-        <v>530</v>
+        <v>6</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -3368,7 +3151,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="30" t="s">
-        <v>537</v>
+        <v>7</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
@@ -3393,7 +3176,7 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>539</v>
+        <v>8</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -3442,7 +3225,7 @@
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="18" t="s">
-        <v>538</v>
+        <v>9</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
@@ -3467,7 +3250,7 @@
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="21" t="s">
-        <v>540</v>
+        <v>10</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3514,7 +3297,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="30" t="s">
-        <v>597</v>
+        <v>11</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -3561,7 +3344,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
-        <v>531</v>
+        <v>12</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -3610,7 +3393,7 @@
     <row r="22" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="30" t="s">
-        <v>541</v>
+        <v>13</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -3635,7 +3418,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="30" t="s">
-        <v>542</v>
+        <v>14</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -3684,10 +3467,10 @@
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>552</v>
+        <v>16</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
@@ -3711,10 +3494,10 @@
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>544</v>
+        <v>17</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>553</v>
+        <v>18</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
@@ -3738,10 +3521,10 @@
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>554</v>
+        <v>20</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
@@ -3765,10 +3548,10 @@
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>546</v>
+        <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>555</v>
+        <v>22</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
@@ -3792,10 +3575,10 @@
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>547</v>
+        <v>23</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>596</v>
+        <v>24</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
@@ -3820,7 +3603,7 @@
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>598</v>
+        <v>25</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
@@ -3844,10 +3627,10 @@
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
-        <v>548</v>
+        <v>26</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>556</v>
+        <v>27</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -3871,10 +3654,10 @@
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="s">
-        <v>549</v>
+        <v>28</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>557</v>
+        <v>29</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -3898,10 +3681,10 @@
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30" t="s">
-        <v>560</v>
+        <v>30</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>561</v>
+        <v>31</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -3925,10 +3708,10 @@
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30" t="s">
-        <v>550</v>
+        <v>32</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>558</v>
+        <v>33</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -3952,10 +3735,10 @@
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="s">
-        <v>551</v>
+        <v>34</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>559</v>
+        <v>35</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -4001,7 +3784,7 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A37" s="30"/>
       <c r="B37" s="30" t="s">
-        <v>543</v>
+        <v>36</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
@@ -4049,177 +3832,177 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
+      <c r="C39" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
       <c r="U39" s="30"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I40" s="31" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M40" s="31" t="s">
-        <v>486</v>
+        <v>49</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>487</v>
+        <v>50</v>
       </c>
       <c r="O40" s="31" t="s">
-        <v>488</v>
+        <v>51</v>
       </c>
       <c r="P40" s="31" t="s">
-        <v>489</v>
+        <v>52</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="R40" s="31" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="S40" s="31" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="T40" s="31" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="U40" s="30"/>
     </row>
-    <row r="41" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A41" s="30"/>
       <c r="B41" s="32" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="L41" s="32" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>490</v>
+        <v>67</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>491</v>
+        <v>68</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>492</v>
+        <v>69</v>
       </c>
       <c r="P41" s="32" t="s">
-        <v>493</v>
+        <v>70</v>
       </c>
       <c r="Q41" s="32" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="S41" s="32" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="T41" s="32" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="U41" s="30"/>
     </row>
-    <row r="42" spans="1:21" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="33">
         <v>1</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>562</v>
+        <v>76</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>563</v>
+        <v>77</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>562</v>
+        <v>76</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
@@ -4240,22 +4023,22 @@
         <v>2</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>564</v>
+        <v>79</v>
       </c>
       <c r="I43" s="34"/>
       <c r="J43" s="34"/>
@@ -4277,22 +4060,22 @@
         <v>3</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>567</v>
+        <v>83</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>568</v>
+        <v>84</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H44" s="34" t="s">
-        <v>569</v>
+        <v>85</v>
       </c>
       <c r="I44" s="34"/>
       <c r="J44" s="34"/>
@@ -4508,7 +4291,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
-        <v>570</v>
+        <v>86</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -4557,7 +4340,7 @@
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="30" t="s">
-        <v>571</v>
+        <v>87</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -4606,7 +4389,7 @@
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="24" t="s">
-        <v>572</v>
+        <v>88</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -4653,7 +4436,7 @@
     <row r="59" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A59" s="30"/>
       <c r="B59" s="30" t="s">
-        <v>587</v>
+        <v>89</v>
       </c>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
@@ -4702,7 +4485,7 @@
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="18" t="s">
-        <v>573</v>
+        <v>90</v>
       </c>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
@@ -4750,7 +4533,7 @@
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="27" t="s">
-        <v>574</v>
+        <v>91</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
@@ -4775,7 +4558,7 @@
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27" t="s">
-        <v>575</v>
+        <v>92</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
@@ -4800,7 +4583,7 @@
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="27" t="s">
-        <v>576</v>
+        <v>93</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
@@ -4848,7 +4631,7 @@
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="27" t="s">
-        <v>577</v>
+        <v>94</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
@@ -4896,7 +4679,7 @@
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27" t="s">
-        <v>578</v>
+        <v>95</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
@@ -4921,7 +4704,7 @@
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="27" t="s">
-        <v>579</v>
+        <v>96</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -4946,7 +4729,7 @@
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="27" t="s">
-        <v>580</v>
+        <v>97</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
@@ -4994,7 +4777,7 @@
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="27" t="s">
-        <v>581</v>
+        <v>98</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
@@ -5042,7 +4825,7 @@
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="27" t="s">
-        <v>582</v>
+        <v>99</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
@@ -5067,7 +4850,7 @@
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="21" t="s">
-        <v>583</v>
+        <v>100</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
@@ -5113,7 +4896,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="30" t="s">
-        <v>584</v>
+        <v>101</v>
       </c>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -5162,7 +4945,7 @@
     <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
-        <v>585</v>
+        <v>102</v>
       </c>
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
@@ -5211,7 +4994,7 @@
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="24" t="s">
-        <v>586</v>
+        <v>103</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="25"/>
@@ -5257,7 +5040,7 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="30" t="s">
-        <v>588</v>
+        <v>104</v>
       </c>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -5306,7 +5089,7 @@
     <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
-        <v>589</v>
+        <v>105</v>
       </c>
       <c r="C86" s="30"/>
       <c r="D86" s="30"/>
@@ -5355,7 +5138,7 @@
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="24" t="s">
-        <v>590</v>
+        <v>106</v>
       </c>
       <c r="D88" s="25"/>
       <c r="E88" s="25"/>
@@ -5402,7 +5185,7 @@
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="30" t="s">
-        <v>591</v>
+        <v>107</v>
       </c>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
@@ -5427,7 +5210,7 @@
     <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="30"/>
       <c r="B91" s="30" t="s">
-        <v>592</v>
+        <v>108</v>
       </c>
       <c r="C91" s="30"/>
       <c r="D91" s="30"/>
@@ -5476,7 +5259,7 @@
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="24" t="s">
-        <v>593</v>
+        <v>109</v>
       </c>
       <c r="D93" s="25"/>
       <c r="E93" s="25"/>
@@ -5523,7 +5306,7 @@
     <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="30" t="s">
-        <v>595</v>
+        <v>110</v>
       </c>
       <c r="C95" s="30"/>
       <c r="D95" s="30"/>
@@ -5572,7 +5355,7 @@
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="24" t="s">
-        <v>594</v>
+        <v>111</v>
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="25"/>
@@ -5616,6 +5399,24 @@
       <c r="T98" s="30"/>
       <c r="U98" s="30"/>
     </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>610</v>
+      </c>
+      <c r="C101" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C104" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C39:I39"/>
@@ -5624,11 +5425,19 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" firstPageNumber="0" fitToHeight="0" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="landscape" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5636,7 +5445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5644,14 +5455,14 @@
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.5"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="15" width="9.5" customWidth="1"/>
     <col min="16" max="16" width="10.125" customWidth="1"/>
     <col min="17" max="17" width="10.75" customWidth="1"/>
     <col min="18" max="18" width="9.25" customWidth="1"/>
@@ -5661,145 +5472,145 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="B1" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>486</v>
+        <v>49</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>487</v>
+        <v>112</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>488</v>
+        <v>113</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>489</v>
+        <v>114</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>490</v>
+        <v>115</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>491</v>
+        <v>116</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>492</v>
+        <v>69</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>493</v>
+        <v>117</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -5829,7 +5640,7 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5852,7 +5663,7 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5875,7 +5686,7 @@
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5898,7 +5709,7 @@
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5921,7 +5732,7 @@
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5944,7 +5755,7 @@
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5967,7 +5778,7 @@
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5990,7 +5801,7 @@
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6013,7 +5824,7 @@
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6036,7 +5847,7 @@
       <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6059,7 +5870,7 @@
       <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6082,7 +5893,7 @@
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6105,7 +5916,7 @@
       <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -6128,7 +5939,7 @@
       <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -6151,7 +5962,7 @@
       <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -6174,7 +5985,7 @@
       <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -6197,7 +6008,7 @@
       <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -6220,7 +6031,7 @@
       <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6243,7 +6054,7 @@
       <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6269,22 +6080,38 @@
     <mergeCell ref="P1:S1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$102:$C$104</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W15"/>
+  <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6300,93 +6127,93 @@
     <col min="20" max="20" width="29.125" customWidth="1"/>
     <col min="21" max="21" width="12.25" customWidth="1"/>
     <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5"/>
+    <col min="23" max="23" width="11.5" customWidth="1"/>
     <col min="24" max="1034" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>497</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>498</v>
+        <v>125</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>503</v>
+        <v>128</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>524</v>
+        <v>130</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>519</v>
+        <v>131</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>520</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>512</v>
+        <v>134</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>511</v>
+        <v>135</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>514</v>
+        <v>136</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6405,38 +6232,38 @@
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>599</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>602</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="38"/>
+      <c r="E5" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -6445,123 +6272,123 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="38" t="s">
-        <v>603</v>
+      <c r="W5" s="36" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>499</v>
+        <v>152</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>500</v>
+        <v>153</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>525</v>
+        <v>156</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>506</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="5"/>
       <c r="R6" s="5" t="s">
-        <v>513</v>
+        <v>159</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>507</v>
+        <v>160</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>517</v>
+        <v>161</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="6" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>521</v>
+        <v>164</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>528</v>
+        <v>168</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="5"/>
       <c r="R7" s="5" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="6" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6574,29 +6401,27 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>504</v>
+        <v>172</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="6" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6609,24 +6434,22 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5" t="s">
-        <v>505</v>
+        <v>175</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>62</v>
+        <v>609</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="6" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
@@ -6680,29 +6503,29 @@
       <c r="W11" s="7"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="8"/>
@@ -6779,10 +6602,43 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6790,7 +6646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6806,33 +6662,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -6865,8 +6721,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6874,7 +6738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="120" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -6899,1586 +6763,1594 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="11" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="11"/>
       <c r="B28" s="11" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="11"/>
       <c r="B29" s="11" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="11"/>
       <c r="B30" s="11" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="11"/>
       <c r="B33" s="11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>501</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>502</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>154</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
-        <v>525</v>
+        <v>156</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>526</v>
+        <v>270</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>527</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="11"/>
       <c r="B38" s="11" t="s">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11" t="s">
-        <v>158</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>164</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="E41" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>167</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12" t="s">
-        <v>170</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="12" t="s">
-        <v>173</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>177</v>
+        <v>292</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11" t="s">
-        <v>178</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="11"/>
       <c r="B47" s="11" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="F49" s="11" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>193</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="11" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11" t="s">
-        <v>199</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="12" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>203</v>
+        <v>319</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>205</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>208</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
-        <v>209</v>
+        <v>325</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="11"/>
       <c r="B57" s="11" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="11"/>
       <c r="B58" s="11" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="11"/>
       <c r="B59" s="11" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
       <c r="B60" s="11" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="11"/>
       <c r="B61" s="11" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11" t="s">
-        <v>226</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="11"/>
       <c r="B62" s="11" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="11"/>
       <c r="B63" s="11" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>518</v>
+        <v>352</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>516</v>
+        <v>353</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11" t="s">
-        <v>515</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="11"/>
       <c r="B66" s="11" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>237</v>
+        <v>356</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>238</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="11"/>
       <c r="B67" s="11" t="s">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>240</v>
+        <v>359</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>241</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="11"/>
       <c r="B68" s="11" t="s">
-        <v>242</v>
+        <v>361</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="11"/>
       <c r="B69" s="11" t="s">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11" t="s">
-        <v>247</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="11"/>
       <c r="B70" s="11" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="11"/>
       <c r="B71" s="11" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="12" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="12" t="s">
-        <v>256</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="12" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="12" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="12" t="s">
-        <v>265</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>273</v>
+        <v>392</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>274</v>
+        <v>393</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11" t="s">
-        <v>277</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>278</v>
+        <v>397</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>279</v>
+        <v>398</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="12" t="s">
-        <v>280</v>
+        <v>399</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>507</v>
+        <v>160</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>508</v>
+        <v>400</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>509</v>
+        <v>401</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="12" t="s">
-        <v>510</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>281</v>
+        <v>403</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>282</v>
+        <v>404</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="12" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
-        <v>284</v>
+        <v>406</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>287</v>
+        <v>409</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>288</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>291</v>
+        <v>413</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11" t="s">
-        <v>292</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11" t="s">
-        <v>295</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="11"/>
       <c r="B91" s="11" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="11" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>309</v>
+        <v>431</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>310</v>
+        <v>432</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="11" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>311</v>
+        <v>433</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>312</v>
+        <v>434</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>313</v>
+        <v>435</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="11" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>314</v>
+        <v>436</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>315</v>
+        <v>437</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>316</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8486,7 +8358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -8503,1092 +8375,1100 @@
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>317</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>81</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>318</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>93</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>319</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>521</v>
+        <v>164</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>522</v>
+        <v>443</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>523</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>320</v>
+        <v>445</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>321</v>
+        <v>446</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>322</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>323</v>
+        <v>448</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>324</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>325</v>
+        <v>450</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>326</v>
+        <v>451</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>328</v>
+        <v>453</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>329</v>
+        <v>454</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>330</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>331</v>
+        <v>456</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>333</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>335</v>
+        <v>460</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>338</v>
+        <v>463</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>339</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>340</v>
+        <v>465</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>341</v>
+        <v>466</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>342</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>343</v>
+        <v>468</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>344</v>
+        <v>469</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>345</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>346</v>
+        <v>471</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>347</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>348</v>
+        <v>473</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>349</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>351</v>
+        <v>476</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>352</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>353</v>
+        <v>478</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>354</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>355</v>
+        <v>480</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>356</v>
+        <v>481</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>357</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>358</v>
+        <v>483</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>359</v>
+        <v>484</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>360</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>361</v>
+        <v>486</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>362</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>363</v>
+        <v>488</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>364</v>
+        <v>489</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>365</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>366</v>
+        <v>491</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>367</v>
+        <v>492</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>191</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>369</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>197</v>
+        <v>313</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>198</v>
+        <v>314</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>206</v>
+        <v>322</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>371</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>372</v>
+        <v>497</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>373</v>
+        <v>498</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>374</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>376</v>
+        <v>501</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>377</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>378</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>379</v>
+        <v>504</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>380</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>381</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>382</v>
+        <v>507</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>155</v>
+        <v>269</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>390</v>
+        <v>513</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>392</v>
+        <v>515</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>393</v>
+        <v>516</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>394</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>395</v>
+        <v>518</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>398</v>
+        <v>521</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>399</v>
+        <v>522</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>400</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>401</v>
+        <v>524</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>402</v>
+        <v>525</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
-        <v>286</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>403</v>
+        <v>526</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>320</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4" t="s">
-        <v>404</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>405</v>
+        <v>528</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>406</v>
+        <v>529</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4" t="s">
-        <v>407</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>408</v>
+        <v>531</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>409</v>
+        <v>532</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>410</v>
+        <v>533</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>411</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>412</v>
+        <v>535</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>413</v>
+        <v>536</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>414</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>415</v>
+        <v>538</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>416</v>
+        <v>539</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4" t="s">
-        <v>416</v>
+        <v>539</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
-        <v>494</v>
+        <v>306</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>417</v>
+        <v>540</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>419</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>420</v>
+        <v>543</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>421</v>
+        <v>544</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>422</v>
+        <v>545</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
-        <v>495</v>
+        <v>429</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>423</v>
+        <v>546</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>424</v>
+        <v>547</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>425</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -9596,7 +9476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -9627,138 +9507,138 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>426</v>
+        <v>549</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>427</v>
+        <v>550</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>429</v>
+        <v>552</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>430</v>
+        <v>553</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>431</v>
+        <v>554</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>435</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9776,13 +9656,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>436</v>
+        <v>559</v>
       </c>
       <c r="G3" s="15">
         <v>6.7</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>437</v>
+        <v>560</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
@@ -9794,37 +9674,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>438</v>
+        <v>561</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>438</v>
+        <v>561</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>440</v>
+        <v>563</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>442</v>
+        <v>565</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>445</v>
+        <v>568</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>447</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9844,26 +9724,26 @@
       <c r="K4" s="15"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="17" t="s">
-        <v>448</v>
+        <v>572</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>449</v>
+        <v>573</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15" t="s">
-        <v>450</v>
+        <v>574</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>451</v>
+        <v>575</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15" t="s">
-        <v>452</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9883,7 +9763,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -9894,7 +9774,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15" t="s">
-        <v>453</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9914,7 +9794,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -9925,7 +9805,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15" t="s">
-        <v>454</v>
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9945,7 +9825,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -9956,7 +9836,7 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15" t="s">
-        <v>455</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9985,7 +9865,7 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15" t="s">
-        <v>456</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10014,7 +9894,7 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10043,7 +9923,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15" t="s">
-        <v>458</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10072,7 +9952,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15" t="s">
-        <v>459</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10101,7 +9981,7 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15" t="s">
-        <v>460</v>
+        <v>587</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10130,7 +10010,7 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15" t="s">
-        <v>461</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -12538,12 +12418,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12551,7 +12439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -12582,138 +12470,138 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="U1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>426</v>
+        <v>549</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>427</v>
+        <v>550</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>429</v>
+        <v>552</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>430</v>
+        <v>553</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>431</v>
+        <v>554</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>432</v>
+        <v>555</v>
       </c>
       <c r="S2" s="14" t="s">
-        <v>433</v>
+        <v>556</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>434</v>
+        <v>557</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="V2" s="14" t="s">
-        <v>435</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -12728,16 +12616,16 @@
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15" t="s">
-        <v>462</v>
+        <v>589</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>436</v>
+        <v>559</v>
       </c>
       <c r="G3" s="15">
         <v>6.7</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>437</v>
+        <v>560</v>
       </c>
       <c r="I3" s="15">
         <v>1</v>
@@ -12749,32 +12637,32 @@
         <v>2</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>463</v>
+        <v>590</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>463</v>
+        <v>590</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>440</v>
+        <v>563</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>441</v>
+        <v>564</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>464</v>
+        <v>591</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15" t="s">
-        <v>444</v>
+        <v>567</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>465</v>
+        <v>592</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="V3" s="15"/>
     </row>
@@ -12795,22 +12683,22 @@
       <c r="K4" s="15"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
       <c r="P4" s="17" t="s">
-        <v>448</v>
+        <v>572</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15" t="s">
-        <v>467</v>
+        <v>594</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>465</v>
+        <v>592</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -12832,7 +12720,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
       <c r="M5" s="16" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
@@ -12861,7 +12749,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
       <c r="M6" s="16" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -12890,7 +12778,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="16" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
@@ -15469,12 +15357,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15482,7 +15378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -15508,90 +15404,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>468</v>
+        <v>595</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>469</v>
+        <v>596</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>471</v>
+        <v>598</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>472</v>
+        <v>599</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>473</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -15605,13 +15501,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>474</v>
+        <v>601</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>475</v>
+        <v>602</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>476</v>
+        <v>603</v>
       </c>
       <c r="G3" s="15">
         <v>1</v>
@@ -15620,22 +15516,22 @@
         <v>4</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>439</v>
+        <v>562</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>477</v>
+        <v>604</v>
       </c>
       <c r="K3" s="15">
         <v>50</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>478</v>
+        <v>605</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>479</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -15651,16 +15547,16 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="16" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>480</v>
+        <v>607</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>481</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -15676,7 +15572,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -15697,7 +15593,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>484</v>
+        <v>579</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
@@ -15718,7 +15614,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -17533,11 +17429,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" cellComments="atEnd" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1546727455" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="618">
   <si>
     <t>0. 事前準備</t>
   </si>
@@ -1892,6 +1892,21 @@
   </si>
   <si>
     <t>Windows</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>virtual_drive</t>
+  </si>
+  <si>
+    <t>network</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CiscoUCS</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1965,7 +1980,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,8 +2113,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -2401,6 +2428,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2413,7 +2455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2526,6 +2568,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="2" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2857,9 +2914,7 @@
   </sheetPr>
   <dimension ref="A1:U104"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C104"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3832,30 +3887,30 @@
     <row r="39" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A39" s="30"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
-      <c r="Q39" s="38" t="s">
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
       <c r="U39" s="30"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.15">
@@ -5446,7 +5501,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5472,30 +5527,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6111,7 +6166,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:W16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6203,26 +6260,26 @@
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -6242,26 +6299,26 @@
       </c>
     </row>
     <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="35" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="35"/>
       <c r="N5" s="36"/>
       <c r="O5" s="5"/>
@@ -6277,34 +6334,34 @@
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="5" t="s">
         <v>155</v>
       </c>
@@ -6334,34 +6391,34 @@
       </c>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="40"/>
       <c r="M7" s="5" t="s">
         <v>167</v>
       </c>
@@ -6387,20 +6444,20 @@
       </c>
     </row>
     <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
         <v>172</v>
       </c>
       <c r="M8" s="5"/>
@@ -6420,20 +6477,20 @@
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40" t="s">
         <v>175</v>
       </c>
       <c r="M9" s="5"/>
@@ -6453,43 +6510,51 @@
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="A10" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="39" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="630">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -5843,9 +5843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6015,27 +6013,13 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -6052,24 +6036,12 @@
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>88</v>
-      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -6087,24 +6059,12 @@
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>94</v>
-      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="639">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -1934,6 +1934,42 @@
   <si>
     <t>notepad++ .\config\config.groovy</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機種</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>chassis.productname</t>
+  </si>
+  <si>
+    <t>chassis.productid</t>
+  </si>
+  <si>
+    <t>chassis.sn</t>
+  </si>
+  <si>
+    <t>HSI_SPN</t>
+  </si>
+  <si>
+    <t>HSI_PRODUCTID</t>
+  </si>
+  <si>
+    <t>HSI_SBSN</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2042,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2145,8 +2181,26 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2455,6 +2509,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2467,7 +2536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2579,11 +2648,29 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3101,6 +3188,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="25" t="s">
         <v>5</v>
       </c>
@@ -3125,6 +3213,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="25" t="s">
         <v>6</v>
       </c>
@@ -3149,6 +3238,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="25" t="s">
         <v>7</v>
       </c>
@@ -4132,30 +4222,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="38"/>
+      <c r="Q49" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="R49" s="38"/>
+      <c r="S49" s="38"/>
+      <c r="T49" s="38"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -5868,30 +5958,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6505,29 +6595,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:W16"/>
+  <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="15" width="21.25" customWidth="1"/>
-    <col min="16" max="16" width="29.125" customWidth="1"/>
-    <col min="17" max="18" width="20.875" customWidth="1"/>
-    <col min="19" max="19" width="13.75" customWidth="1"/>
-    <col min="20" max="20" width="29.125" customWidth="1"/>
-    <col min="21" max="21" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="24.75" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
-    <col min="24" max="1034" width="8.75" customWidth="1"/>
+    <col min="2" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="18" width="21.25" customWidth="1"/>
+    <col min="19" max="19" width="29.125" customWidth="1"/>
+    <col min="20" max="21" width="20.875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="29.125" customWidth="1"/>
+    <col min="24" max="24" width="12.25" customWidth="1"/>
+    <col min="25" max="25" width="24.75" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>133</v>
       </c>
@@ -6540,65 +6632,74 @@
       <c r="D3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="42" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>631</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>155</v>
       </c>
@@ -6611,9 +6712,9 @@
       <c r="D4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -6627,268 +6728,307 @@
       <c r="R4" s="30"/>
       <c r="S4" s="30"/>
       <c r="T4" s="30"/>
-      <c r="U4" s="30" t="s">
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="Y4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="Z4" s="31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>160</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="H5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="30"/>
       <c r="S5" s="30"/>
       <c r="T5" s="30"/>
       <c r="U5" s="30"/>
       <c r="V5" s="30"/>
-      <c r="W5" s="33" t="s">
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="33" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="J6" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="L6" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="M6" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="N6" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="Q6" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="R6" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="S6" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30" t="s">
+      <c r="T6" s="30"/>
+      <c r="U6" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="V6" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="W6" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="31" t="s">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="I7" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="L7" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="M7" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="N7" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="N7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="R7" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="S7" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30" t="s">
+      <c r="T7" s="30"/>
+      <c r="U7" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
       <c r="V7" s="30"/>
-      <c r="W7" s="31" t="s">
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>638</v>
+      </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="30" t="s">
-        <v>187</v>
-      </c>
+      <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="P8" s="30"/>
-      <c r="Q8" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
+      <c r="T8" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
-      <c r="W8" s="31" t="s">
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>155</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="30" t="s">
-        <v>190</v>
-      </c>
+      <c r="L9" s="30"/>
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
+      <c r="O9" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="P9" s="30"/>
-      <c r="Q9" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
+      <c r="T9" s="30" t="s">
+        <v>191</v>
+      </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="31" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
         <v>193</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="E10" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>635</v>
+      </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
-        <v>194</v>
-      </c>
+      <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="34" t="s">
+        <v>194</v>
+      </c>
       <c r="P10" s="34"/>
-      <c r="Q10" s="34" t="s">
-        <v>195</v>
-      </c>
+      <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="T10" s="34" t="s">
+        <v>195</v>
+      </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="34"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -6905,15 +7045,18 @@
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -6930,15 +7073,18 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -6955,15 +7101,18 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -6980,15 +7129,18 @@
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7005,15 +7157,18 @@
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -7030,6 +7185,9 @@
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="671"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="671" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="643">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -676,9 +676,6 @@
     <t>vCenter</t>
   </si>
   <si>
-    <t>VMWare リソース割り当ての検索</t>
-  </si>
-  <si>
     <t>├─CPU割り当て数</t>
   </si>
   <si>
@@ -724,69 +721,45 @@
     <t>データストア</t>
   </si>
   <si>
-    <t>データストアパスの取得</t>
-  </si>
-  <si>
     <t>VMNetwork</t>
   </si>
   <si>
     <t>ネットワーク・アダプタ</t>
   </si>
   <si>
-    <t>ネットワーク・アダプタの取得</t>
-  </si>
-  <si>
     <t>vmwaretool</t>
   </si>
   <si>
     <t>VMWare ツール</t>
   </si>
   <si>
-    <t>VMWare ツールの有無、アップグレードの検索</t>
-  </si>
-  <si>
     <t>vm_timesync</t>
   </si>
   <si>
     <t>VMWare 時刻同期</t>
   </si>
   <si>
-    <t>VMWare 時刻同期の有無</t>
-  </si>
-  <si>
     <t>vm_iops_limit</t>
   </si>
   <si>
     <t>ストレージIOPS制限</t>
   </si>
   <si>
-    <t>ストレージリソースのIOPS制限値を検索</t>
-  </si>
-  <si>
     <t>vm_storage</t>
   </si>
   <si>
     <t>ストレージ構成</t>
   </si>
   <si>
-    <t>ストレージ構成情報検索</t>
-  </si>
-  <si>
     <t>hostname</t>
   </si>
   <si>
-    <t>ホスト名の検索</t>
-  </si>
-  <si>
     <t>hostname_fqdn</t>
   </si>
   <si>
     <t>FQDN名</t>
   </si>
   <si>
-    <t>FQDN名の検索</t>
-  </si>
-  <si>
     <t>uname</t>
   </si>
   <si>
@@ -808,9 +781,6 @@
     <t>OSバージョン</t>
   </si>
   <si>
-    <t>Linux OSディストリビューションを検索</t>
-  </si>
-  <si>
     <t>OSディストリビューション</t>
   </si>
   <si>
@@ -824,9 +794,6 @@
   </si>
   <si>
     <t>CPU情報</t>
-  </si>
-  <si>
-    <t>/proc/cpuinfo を検索してプロセッサ構成を検索</t>
   </si>
   <si>
     <t>model_name</t>
@@ -885,9 +852,6 @@
     <t>メモリ情報</t>
   </si>
   <si>
-    <t>"/proc/meminfo" ファイルを検索してメモリ構成を検索</t>
-  </si>
-  <si>
     <t>├─メモリ総容量</t>
   </si>
   <si>
@@ -906,9 +870,6 @@
     <t>ネットワーク情報</t>
   </si>
   <si>
-    <t>/sbin/ip addr'コマンドでネットワーク構成を検索</t>
-  </si>
-  <si>
     <t>├─IPアドレス</t>
   </si>
   <si>
@@ -933,24 +894,15 @@
     <t>ネットワークブート</t>
   </si>
   <si>
-    <t>/etc/sysconfig/network-scriptsからネットワークブート構成検索</t>
-  </si>
-  <si>
     <t>デフォルトゲートウェイ</t>
   </si>
   <si>
-    <t>/sbin/ip route'コマンドでデフォルトゲートウェイアドレスを検索</t>
-  </si>
-  <si>
     <t>net_bond</t>
   </si>
   <si>
     <t>NICの冗長化(bonding設定)</t>
   </si>
   <si>
-    <t>/etc/sysconfig/network-scripts/*-bond*からNIC冗長設定検索</t>
-  </si>
-  <si>
     <t>block_device</t>
   </si>
   <si>
@@ -966,25 +918,15 @@
     <t>ディスクRAID</t>
   </si>
   <si>
-    <t>"/proc/mdstat" からmd([0-9]+)デバイスを取得。
-"mdadm --detail /dev/#{device}" を実行して、結果を取得。</t>
-  </si>
-  <si>
     <t>ファイルシステム</t>
   </si>
   <si>
-    <t>"/bin/lsblk -i"コマンドを実行して行数を検索</t>
-  </si>
-  <si>
     <t>filesystem./</t>
   </si>
   <si>
     <t>├─ルート(/)マウントポイント</t>
   </si>
   <si>
-    <t>ルート(/)マウントポイント容量</t>
-  </si>
-  <si>
     <t>filesystem.[SWAP]</t>
   </si>
   <si>
@@ -1018,9 +960,6 @@
     <t>論理ボリューム情報</t>
   </si>
   <si>
-    <t>mountコマンドで、/dev/mapper/下のボリュームを検索</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
@@ -1030,9 +969,6 @@
     <t>ユーザ情報</t>
   </si>
   <si>
-    <t>"/etc/passwd" を検索して、ユーザ名を検索。詳細は別シートに登録</t>
-  </si>
-  <si>
     <t>user.zabbix</t>
   </si>
   <si>
@@ -1048,37 +984,24 @@
     <t>ログオンテスト</t>
   </si>
   <si>
-    <t>config.groovyに記述したログオン検査用ユーザでssh疎通を確認</t>
-  </si>
-  <si>
     <t>fips</t>
   </si>
   <si>
     <t>データの暗号化</t>
   </si>
   <si>
-    <t>以下ファイルを読んで、データ暗号化の有無を確認
-/proc/sys/crypto/fips_enabled</t>
-  </si>
-  <si>
     <t>virturization</t>
   </si>
   <si>
     <t>仮想化プラットフォーム</t>
   </si>
   <si>
-    <t>XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
-  </si>
-  <si>
     <t>service</t>
   </si>
   <si>
     <t>サービス構成</t>
   </si>
   <si>
-    <t>chkconfig --list コマンドで、サービス数を検索、詳細は別シートに登録</t>
-  </si>
-  <si>
     <t>service.kdump</t>
   </si>
   <si>
@@ -1155,9 +1078,6 @@
   </si>
   <si>
     <t>パッケージ構成</t>
-  </si>
-  <si>
-    <t>rpm -qa でパッケージ情報取得</t>
   </si>
   <si>
     <t>packages.requirements</t>
@@ -1266,9 +1186,6 @@
     <t>ISOマウントの有無</t>
   </si>
   <si>
-    <t>mount コマンドで.isoファイルのマウント情報取得</t>
-  </si>
-  <si>
     <t>proxy_global</t>
   </si>
   <si>
@@ -1302,9 +1219,6 @@
     <t>ランレベル</t>
   </si>
   <si>
-    <t>OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
-  </si>
-  <si>
     <t>└─コンソール</t>
   </si>
   <si>
@@ -1353,18 +1267,12 @@
     <t>NTPサーバ名</t>
   </si>
   <si>
-    <t>NTPサーバの検索</t>
-  </si>
-  <si>
     <t>ntp_slew</t>
   </si>
   <si>
     <t>NTP slewモードの検索</t>
   </si>
   <si>
-    <t>/etc/sysconfig/ntpd から、OPTIONSを検索。設定しない＝「-u」、設定する「-x」</t>
-  </si>
-  <si>
     <t>snmp_trap</t>
   </si>
   <si>
@@ -1380,9 +1288,6 @@
     <t>SELinuxステータス</t>
   </si>
   <si>
-    <t>sestatus コマンドからステータス検索</t>
-  </si>
-  <si>
     <t>se_mode</t>
   </si>
   <si>
@@ -1401,36 +1306,21 @@
     <t>Syslogエラー</t>
   </si>
   <si>
-    <t>Syslogメッセージでerror,warning,failedを含む行を抽出</t>
-  </si>
-  <si>
     <t>oracle_module</t>
   </si>
   <si>
     <t>Oracleインストーラの有無</t>
   </si>
   <si>
-    <t>/root/packageの下にOracleインストールファイルがあるか</t>
-  </si>
-  <si>
     <t>oracle</t>
   </si>
   <si>
     <t>Oracleモジュールの有無</t>
   </si>
   <si>
-    <t>"ls -d /opt/oracle/app/product/*/*" でOracleのバージョン、サーバ/クライアントを検索</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>VMWare CPU,メモリ割り当て、 電源On-Off、ホストIPの検索</t>
-  </si>
-  <si>
-    <t>vCenterクラスタ名、vCenter構成でない場合は未記入</t>
-  </si>
-  <si>
     <t>Win32_Processor オブジェクトからCPU情報を検索</t>
   </si>
   <si>
@@ -1446,9 +1336,6 @@
     <t>memory</t>
   </si>
   <si>
-    <t>Win32_OperatingSystemから、メモリ情報を検索</t>
-  </si>
-  <si>
     <t>├─物理メモリ量</t>
   </si>
   <si>
@@ -1479,9 +1366,6 @@
     <t>システム情報</t>
   </si>
   <si>
-    <t>Win32_ComputerSystemから、システム情報を検索</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -1521,9 +1405,6 @@
     <t>OS情報</t>
   </si>
   <si>
-    <t>Win32_OperatingSystemから、OS情報を検索</t>
-  </si>
-  <si>
     <t>├─OS名</t>
   </si>
   <si>
@@ -1560,15 +1441,9 @@
     <t>ドライバー</t>
   </si>
   <si>
-    <t>Win32_PnPSignedDriverから、ドライバー登録件数を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>ディスク容量</t>
   </si>
   <si>
-    <t>Win32_LogicalDiskから、ストレージ容量を検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>filesystem.C</t>
   </si>
   <si>
@@ -1587,15 +1462,9 @@
     <t>Dドライブ容量</t>
   </si>
   <si>
-    <t>Win32_UserAccount から、ローカルアカウントのロック情報を検索</t>
-  </si>
-  <si>
     <t>config.groovyに記述したログオン検査用ユーザでPowerShellリモート疎通を確認</t>
   </si>
   <si>
-    <t>Get-Service から、サービスのステータスを検索</t>
-  </si>
-  <si>
     <t>service.VMTools</t>
   </si>
   <si>
@@ -1614,18 +1483,9 @@
     <t>Windows Update サービス</t>
   </si>
   <si>
-    <t>パッケージ情報取得</t>
-  </si>
-  <si>
     <t>システム暗号化</t>
   </si>
   <si>
-    <t>システム暗号化ポリシー。Enabled の値を検索</t>
-  </si>
-  <si>
-    <t>Win32_NetworkAdapterConfiguration。IP,GW,Indexを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>network.ip</t>
   </si>
   <si>
@@ -1647,36 +1507,24 @@
     <t>NICチーミング(NetLBFO)設定</t>
   </si>
   <si>
-    <t>NICチーミング(NetLBFO)名を検索</t>
-  </si>
-  <si>
     <t>network_profile</t>
   </si>
   <si>
     <t>ネットワークプロファイル</t>
   </si>
   <si>
-    <t>ネットワークプロファイル。0:パブリック,1:プライベート,2:ドメイン認証</t>
-  </si>
-  <si>
     <t>remote_desktop</t>
   </si>
   <si>
     <t>リモートデスクトップ接続許可設定</t>
   </si>
   <si>
-    <t>リモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】</t>
-  </si>
-  <si>
     <t>firewall</t>
   </si>
   <si>
     <t>ファイヤーウォール</t>
   </si>
   <si>
-    <t>Windows Firewall の受信規制リストを検索。詳細は、別シートに登録</t>
-  </si>
-  <si>
     <t>dns</t>
   </si>
   <si>
@@ -1686,18 +1534,12 @@
     <t>virturalization</t>
   </si>
   <si>
-    <t>Win32_ComputerSystemから仮想化プラットフォームを検索</t>
-  </si>
-  <si>
     <t>storage_timeout</t>
   </si>
   <si>
     <t>ストレージタイムアウト値</t>
   </si>
   <si>
-    <t>ストレージタイムアウト[秒]</t>
-  </si>
-  <si>
     <t>NTPサーバ情報</t>
   </si>
   <si>
@@ -1707,18 +1549,12 @@
     <t>タスクスケジューラ</t>
   </si>
   <si>
-    <t>Windows タスクスケジューラ構成</t>
-  </si>
-  <si>
     <t>etc_hosts</t>
   </si>
   <si>
     <t>hostsファイル</t>
   </si>
   <si>
-    <t>hostsファイル検索</t>
-  </si>
-  <si>
     <t>ie_version</t>
   </si>
   <si>
@@ -1731,25 +1567,16 @@
     <t>Windows機能</t>
   </si>
   <si>
-    <t>インストールされたWindows機能</t>
-  </si>
-  <si>
     <t>system_log</t>
   </si>
   <si>
     <t>Windowsシステムイベントログ</t>
   </si>
   <si>
-    <t>Windowsシステムイベントログから、エラーを抽出</t>
-  </si>
-  <si>
     <t>apps_log</t>
   </si>
   <si>
     <t>Windowsアプリイベントログ</t>
-  </si>
-  <si>
-    <t>Windowsアプリイベントログから、エラーを抽出</t>
   </si>
   <si>
     <t>net_dev:k</t>
@@ -1970,6 +1797,350 @@
   </si>
   <si>
     <t>HSI_SBSN</t>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、ストレージリソースのIOPS制限値を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare リソース割り当てを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク・アダプタを検索</t>
+    <rPh sb="37" eb="39">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Datastore コマンドで、データストアパスを検索</t>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare ツールの有無、バージョンを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VM コマンドで、VMWare 時刻同期の有無を検索</t>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Harddisk コマンドで、ストレージ構成情報検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>hostname -s　コマンドで、ホスト名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>hostname --fqdn コマンドで、FQDN名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>uname -a コマンドで、OSカーネルバージョンを検索</t>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>cat /etc/*-release コマンドで、Linux OSディストリビューションを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索し,プロセッサ構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/meminfo を検索してメモリ構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/sbin/ip addr コマンドで、ネットワーク構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/sbin/ip route コマンドで、デフォルトゲートウェイアドレスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/ からNIC冗長設定を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts からネットワークブート構成を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/mdstat からmd([0-9]+)デバイスを取得。
+"mdadm --detail /dev/#{device}" を実行して、結果を取得。</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/bin/lsblk -i　コマンドで、マウントポイント構成を検索</t>
+    <rPh sb="28" eb="30">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mountコマンドで、/dev/mapper/下のLVMボリュームを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/passwd を検索して、ユーザ名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>config.groovy に記述したログオン検査用ユーザでssh疎通を確認</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cpuinfo を検索して、XEN, KVM, Virtualbox など Linux の仮想化プラットフォームの検索</t>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>chkconfig --list コマンドで、サービス数を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>rpm -qa コマンドで、パッケージ情報検索</t>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>mount コマンドで.isoファイルのマウント有無検索</t>
+    <rPh sb="24" eb="26">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/inittabから、OS起動時のランレベルからコンソール設定(3 : CUIコンソール、5 : GUIコンソール)を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/keyboard、/etc/vconsole.conf からキーボード配列を検索</t>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/proc/cmdline からOS言語を検索</t>
+    <rPh sb="21" eb="23">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/clock からタイムゾーンを検索</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/ntp.conf から、NTPサーバを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/etc/sysconfig/ntpd から、NTP設定を検索。設定しない＝「-u」、設定する「-x」</t>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>sestatus コマンドで、SELinux ステータスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/var/log/messages から error,warning,failed を含む行を検索</t>
+    <rPh sb="47" eb="49">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>/root/package の下にOracleインストールファイルがあるかを検索</t>
+    <rPh sb="38" eb="40">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ls -d /opt/oracle/app/product/*/* でOracleのバージョン、サーバ/クライアントを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下ファイルを読んで、データ暗号化の有無を確認
+/proc/sys/crypto/fips_enabled</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_OperatingSystem オブジェクトから、メモリ情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_ComputerSystem オブジェクトから、システム情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_OperatingSystem オブジェクトから、OS情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_PnPSignedDriver オブジェクトから、ドライバー登録件数を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_LogicalDisk オブジェクトから、ストレージ容量を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_UserAccount オブジェクトから、ローカルアカウントのロック情報を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Service コマンドで、サービスのステータスを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_Product オブジェクトから、パッケージ情報検索</t>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下システム暗号化ポリシーレジストリの Enabled 値を検索
+HKLM:System\\CurrentControlSet\\Control\\Lsa\\FIPSAlgorithmPolicy</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_NetworkAdapterConfiguration オブジェクトから、IP,GW,Indexを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetLbfoTeamNic コマンドで、NICチーミング(NetLBFO)名を検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetConnectionProfile コマンドで、ネットワークプロファイル検索。0:パブリック,1:プライベート,2:ドメイン認証</t>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからリモートデスクトップ接続の許可設定を検索。0：利用可能、1：利用不可【既定】
+"HKLM:System\\CurrentControlSet\\Control\\Terminal Server"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetFirewallRuleコマンドで、Windows Firewall の受信規制リストを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-DnsClientServerAddress　コマンドで、DNSサーバ検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Win32_ComputerSystem オブジェクトから仮想化プラットフォームを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからストレージタイムアウト[秒]を検索
+"HKLM:SYSTEM\\CurrentControlSet\\Services\\disk"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリからNTPサーバ名検索
+"HKLM:System\\CurrentControlSet\\Services\\W32Time\\Parameters"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-ScheduledTask　コマンドで、Windows タスクスケジューラ情報を検索</t>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>{win_dir}\system32\drivers\etc\hosts からホストリスト検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>以下レジストリから、InternetExplorerバージョンを検索
+"HKLM:SOFTWARE\\Microsoft\\Internet Explorer"</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-WindowsFeature コマンドで、インストールされたWindows機能を検索</t>
+    <rPh sb="44" eb="46">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-EventLog コマンドで、Windowsシステムイベントログのエラーメッセージを検索</t>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-EventLog コマンドで、Windowsアプリイベントログのエラーメッセージを検索</t>
+    <rPh sb="45" eb="47">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -2536,7 +2707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2651,12 +2822,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2836,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2995,7 +3172,7 @@
   </sheetPr>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4222,30 +4399,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38" t="s">
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -4779,7 +4956,7 @@
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="21" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -5933,7 +6110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5958,30 +6135,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6632,14 +6809,14 @@
       <c r="D3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>630</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>632</v>
+      <c r="E3" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>137</v>
@@ -6712,9 +6889,9 @@
       <c r="D4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
@@ -6748,14 +6925,14 @@
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
-      <c r="E5" s="43" t="s">
-        <v>630</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>632</v>
+      <c r="E5" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>575</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>161</v>
@@ -6792,9 +6969,9 @@
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="30" t="s">
         <v>165</v>
       </c>
@@ -6852,9 +7029,9 @@
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="30" t="s">
         <v>177</v>
       </c>
@@ -6908,14 +7085,14 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
-      <c r="E8" s="43" t="s">
-        <v>636</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>637</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>638</v>
+      <c r="E8" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>581</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -6950,9 +7127,9 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -6986,14 +7163,14 @@
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>634</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>635</v>
+      <c r="E10" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>578</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -7026,9 +7203,9 @@
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
@@ -7054,9 +7231,9 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -7082,9 +7259,9 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -7110,9 +7287,9 @@
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7138,9 +7315,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7166,9 +7343,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -7300,9 +7477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7357,8 +7532,8 @@
         <v>211</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>212</v>
+      <c r="F5" s="9" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -7367,30 +7542,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>214</v>
+      <c r="F6" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>217</v>
+      <c r="F7" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -7399,46 +7574,46 @@
         <v>83</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>219</v>
+      <c r="F8" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>222</v>
+      <c r="F9" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>225</v>
+      <c r="F10" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -7446,10 +7621,10 @@
         <v>208</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>211</v>
@@ -7457,8 +7632,8 @@
       <c r="E11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>228</v>
+      <c r="F11" s="9" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7466,10 +7641,10 @@
         <v>208</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>211</v>
@@ -7477,8 +7652,8 @@
       <c r="E12" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>231</v>
+      <c r="F12" s="9" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -7486,17 +7661,17 @@
         <v>208</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>234</v>
+      <c r="F13" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -7504,17 +7679,17 @@
         <v>208</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="8"/>
-      <c r="F14" s="8" t="s">
-        <v>237</v>
+      <c r="F14" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -7522,17 +7697,17 @@
         <v>208</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E15" s="8"/>
-      <c r="F15" s="8" t="s">
-        <v>240</v>
+      <c r="F15" s="9" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -7540,10 +7715,10 @@
         <v>208</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>211</v>
@@ -7551,8 +7726,8 @@
       <c r="E16" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>243</v>
+      <c r="F16" s="9" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -7560,7 +7735,7 @@
         <v>208</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>134</v>
@@ -7569,8 +7744,8 @@
         <v>84</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>245</v>
+      <c r="F17" s="9" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -7578,17 +7753,17 @@
         <v>208</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8" t="s">
-        <v>248</v>
+      <c r="F18" s="9" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -7596,33 +7771,33 @@
         <v>208</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="8"/>
-      <c r="F19" s="8" t="s">
-        <v>250</v>
+      <c r="F19" s="9" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>253</v>
+      <c r="F20" s="9" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -7637,7 +7812,7 @@
         <v>84</v>
       </c>
       <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7646,17 +7821,17 @@
         <v>208</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>256</v>
+      <c r="F22" s="9" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -7665,30 +7840,30 @@
         <v>165</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>257</v>
+      <c r="F23" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
-        <v>259</v>
+      <c r="F24" s="9" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -7696,33 +7871,33 @@
         <v>208</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>262</v>
+      <c r="F25" s="9" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>265</v>
+      <c r="F26" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -7731,14 +7906,14 @@
         <v>180</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>267</v>
+      <c r="F27" s="9" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -7747,46 +7922,46 @@
         <v>74</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>269</v>
+      <c r="F28" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>272</v>
+      <c r="F29" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
-        <v>275</v>
+      <c r="F30" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
@@ -7794,17 +7969,17 @@
         <v>208</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -7812,17 +7987,17 @@
         <v>208</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>281</v>
+      <c r="F32" s="9" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7831,30 +8006,30 @@
         <v>75</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>283</v>
+      <c r="F33" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>286</v>
+      <c r="F34" s="9" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7865,7 +8040,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
@@ -7873,8 +8048,8 @@
       <c r="E35" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>288</v>
+      <c r="F35" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7883,13 +8058,13 @@
         <v>170</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7899,30 +8074,30 @@
         <v>171</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>291</v>
+      <c r="F37" s="9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>294</v>
+      <c r="F38" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7930,17 +8105,17 @@
         <v>208</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>297</v>
+      <c r="F39" s="9" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7951,14 +8126,14 @@
         <v>172</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>299</v>
+      <c r="F40" s="9" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -7966,10 +8141,10 @@
         <v>208</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
@@ -7977,8 +8152,8 @@
       <c r="E41" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>302</v>
+      <c r="F41" s="9" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7986,17 +8161,17 @@
         <v>208</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -8004,17 +8179,17 @@
         <v>208</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>308</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -8025,7 +8200,7 @@
         <v>169</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
@@ -8033,56 +8208,54 @@
       <c r="E44" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>310</v>
+      <c r="F44" s="9" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
-        <v>313</v>
-      </c>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="8" t="s">
-        <v>316</v>
+      <c r="F46" s="9" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>319</v>
+      <c r="F47" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -8090,17 +8263,17 @@
         <v>208</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>322</v>
+      <c r="F48" s="9" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8108,10 +8281,10 @@
         <v>208</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
@@ -8119,19 +8292,19 @@
       <c r="E49" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>325</v>
+      <c r="F49" s="9" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
@@ -8139,89 +8312,89 @@
       <c r="E50" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>329</v>
+      <c r="F50" s="9" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>332</v>
+      <c r="F51" s="9" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="F52" s="9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
-        <v>341</v>
+      <c r="F54" s="9" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
@@ -8229,147 +8402,147 @@
       <c r="E55" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>344</v>
+      <c r="F55" s="9" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>347</v>
+      <c r="F56" s="9" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
-        <v>350</v>
+      <c r="F57" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
-        <v>353</v>
+      <c r="F58" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
-        <v>356</v>
+      <c r="F59" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>359</v>
+      <c r="F60" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
-        <v>362</v>
+      <c r="F61" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
-        <v>365</v>
+      <c r="F62" s="9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
-        <v>368</v>
+      <c r="F63" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
@@ -8377,479 +8550,479 @@
       <c r="E64" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>371</v>
+      <c r="F64" s="9" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>374</v>
+      <c r="F65" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
-        <v>377</v>
+      <c r="F66" s="9" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>380</v>
+      <c r="F67" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
-        <v>383</v>
+      <c r="F68" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
-        <v>386</v>
+      <c r="F69" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="8" t="s">
-        <v>389</v>
+      <c r="F70" s="9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>405</v>
+        <v>379</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
-        <v>407</v>
+      <c r="F76" s="9" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
-      <c r="F77" s="8" t="s">
-        <v>410</v>
+      <c r="F77" s="9" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
-      <c r="F78" s="8" t="s">
-        <v>413</v>
+      <c r="F78" s="9" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
-        <v>416</v>
+      <c r="F79" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>419</v>
+        <v>608</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
-        <v>428</v>
+      <c r="F83" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
-        <v>430</v>
+      <c r="F84" s="9" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
-        <v>432</v>
+      <c r="F85" s="9" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
-        <v>434</v>
+      <c r="F86" s="9" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
-        <v>436</v>
+      <c r="F87" s="9" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F88" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
-        <v>442</v>
+      <c r="F89" s="9" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
-        <v>445</v>
+      <c r="F90" s="9" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>448</v>
+      <c r="F91" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>451</v>
+        <v>420</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
@@ -8857,50 +9030,50 @@
       <c r="E92" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>452</v>
+      <c r="F92" s="9" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F93" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>458</v>
+      <c r="F94" s="9" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -8920,9 +9093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
-    </sheetView>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8931,7 +9102,7 @@
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="65.75" customWidth="1"/>
+    <col min="6" max="6" width="52.125" customWidth="1"/>
     <col min="7" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8957,7 +9128,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>209</v>
@@ -8969,8 +9140,8 @@
         <v>211</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>460</v>
+      <c r="F5" s="45" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -8979,30 +9150,30 @@
         <v>82</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>214</v>
+      <c r="F6" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>217</v>
+      <c r="F7" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -9011,46 +9182,46 @@
         <v>83</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>219</v>
+      <c r="F8" s="45" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>222</v>
+      <c r="F9" s="45" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>461</v>
+      <c r="F10" s="45" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -9058,10 +9229,10 @@
         <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>211</v>
@@ -9069,19 +9240,19 @@
       <c r="E11" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F11" s="45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>211</v>
@@ -9089,8 +9260,8 @@
       <c r="E12" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>231</v>
+      <c r="F12" s="45" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -9098,17 +9269,17 @@
         <v>208</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>234</v>
+      <c r="F13" s="45" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -9116,35 +9287,35 @@
         <v>208</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="45" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>240</v>
+      <c r="F15" s="45" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -9152,10 +9323,10 @@
         <v>208</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>211</v>
@@ -9163,8 +9334,8 @@
       <c r="E16" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>243</v>
+      <c r="F16" s="45" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -9172,33 +9343,33 @@
         <v>208</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>462</v>
+      <c r="F17" s="46" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>265</v>
+      <c r="F18" s="46" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -9207,14 +9378,14 @@
         <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>267</v>
+      <c r="F19" s="46" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -9223,14 +9394,14 @@
         <v>179</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>464</v>
+      <c r="F20" s="46" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -9239,14 +9410,14 @@
         <v>74</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
-        <v>269</v>
+      <c r="F21" s="46" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -9254,17 +9425,17 @@
         <v>208</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>466</v>
+        <v>430</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>467</v>
+      <c r="F22" s="46" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -9273,46 +9444,46 @@
         <v>181</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
-        <v>469</v>
+      <c r="F23" s="46" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>472</v>
+      <c r="F24" s="46" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>474</v>
+        <v>437</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
-        <v>475</v>
+      <c r="F25" s="46" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -9320,81 +9491,81 @@
         <v>208</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
-        <v>478</v>
+      <c r="F26" s="46" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
-        <v>481</v>
+      <c r="F27" s="46" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
-        <v>484</v>
+      <c r="F28" s="46" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
-        <v>487</v>
+      <c r="F29" s="46" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>490</v>
+      <c r="F30" s="46" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -9405,14 +9576,14 @@
         <v>165</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>492</v>
+      <c r="F31" s="46" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -9421,30 +9592,30 @@
         <v>177</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
-        <v>494</v>
+      <c r="F32" s="46" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
-        <v>497</v>
+      <c r="F33" s="46" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -9453,41 +9624,41 @@
         <v>178</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
-        <v>499</v>
+      <c r="F34" s="46" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
-        <v>502</v>
+      <c r="F35" s="46" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>503</v>
+        <v>464</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>91</v>
@@ -9495,8 +9666,8 @@
       <c r="E36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>505</v>
+      <c r="F36" s="46" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -9507,7 +9678,7 @@
         <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>91</v>
@@ -9515,51 +9686,51 @@
       <c r="E37" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>507</v>
+      <c r="F37" s="46" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>510</v>
+      <c r="F38" s="46" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F39" s="46" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>91</v>
@@ -9567,37 +9738,37 @@
       <c r="E40" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F40" s="46" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>515</v>
+      <c r="F41" s="46" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>91</v>
@@ -9605,51 +9776,51 @@
       <c r="E42" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>516</v>
+      <c r="F42" s="46" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
-        <v>519</v>
+      <c r="F43" s="46" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
-        <v>522</v>
+      <c r="F44" s="46" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>91</v>
@@ -9657,26 +9828,26 @@
       <c r="E45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F45" s="46" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
-        <v>525</v>
+      <c r="F46" s="46" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -9695,23 +9866,23 @@
       <c r="E47" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>526</v>
+      <c r="F47" s="46" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>527</v>
+        <v>481</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -9721,30 +9892,30 @@
         <v>184</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4" t="s">
-        <v>529</v>
+      <c r="F49" s="46" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>530</v>
+        <v>484</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4" t="s">
-        <v>532</v>
+      <c r="F50" s="46" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -9755,7 +9926,7 @@
         <v>185</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>91</v>
@@ -9763,19 +9934,19 @@
       <c r="E51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>535</v>
+        <v>488</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>536</v>
+        <v>489</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>91</v>
@@ -9783,37 +9954,37 @@
       <c r="E52" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="4"/>
-      <c r="F53" s="4" t="s">
-        <v>540</v>
+      <c r="F53" s="46" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>91</v>
@@ -9821,91 +9992,91 @@
       <c r="E54" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>543</v>
+      <c r="F54" s="46" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>428</v>
+      <c r="F55" s="46" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="46" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>208</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>548</v>
+        <v>497</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>549</v>
+        <v>498</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="4"/>
-      <c r="F57" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="46" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>186</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>551</v>
+        <v>499</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="4" t="s">
-        <v>435</v>
+      <c r="F58" s="46" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>552</v>
+        <v>500</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>91</v>
@@ -9913,19 +10084,19 @@
       <c r="E59" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>554</v>
+      <c r="F59" s="46" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>555</v>
+        <v>502</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>556</v>
+        <v>503</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>91</v>
@@ -9933,37 +10104,37 @@
       <c r="E60" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F60" s="46" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>558</v>
+        <v>504</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>559</v>
+        <v>505</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
-        <v>559</v>
+      <c r="F61" s="46" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>560</v>
+        <v>506</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>91</v>
@@ -9971,19 +10142,19 @@
       <c r="E62" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F62" s="46" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>564</v>
+        <v>509</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>91</v>
@@ -9991,19 +10162,19 @@
       <c r="E63" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F63" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>567</v>
+        <v>511</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>91</v>
@@ -10011,8 +10182,8 @@
       <c r="E64" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>568</v>
+      <c r="F64" s="46" t="s">
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -10146,16 +10317,16 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>166</v>
@@ -10164,43 +10335,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10218,13 +10389,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -10236,37 +10407,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10286,26 +10457,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10325,7 +10496,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -10336,7 +10507,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10356,7 +10527,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -10367,7 +10538,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10387,7 +10558,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10398,7 +10569,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10427,7 +10598,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10456,7 +10627,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10485,7 +10656,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10514,7 +10685,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10543,7 +10714,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -10572,7 +10743,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -13109,16 +13280,16 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>165</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>166</v>
@@ -13127,43 +13298,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -13178,16 +13349,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -13199,32 +13370,32 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="V3" s="12"/>
     </row>
@@ -13245,22 +13416,22 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -13282,7 +13453,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -13311,7 +13482,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -13340,7 +13511,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -16019,7 +16190,7 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>177</v>
@@ -16034,22 +16205,22 @@
         <v>181</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>615</v>
+        <v>558</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>616</v>
+        <v>559</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>617</v>
+        <v>560</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>618</v>
+        <v>561</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>619</v>
+        <v>562</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>620</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16063,13 +16234,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>621</v>
+        <v>564</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>622</v>
+        <v>565</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>623</v>
+        <v>566</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -16078,22 +16249,22 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>624</v>
+        <v>567</v>
       </c>
       <c r="K3" s="12">
         <v>50</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>625</v>
+        <v>568</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16109,16 +16280,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>628</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -16134,7 +16305,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -16155,7 +16326,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -16176,7 +16347,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -24,17 +24,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1550180405" val="944" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1550180405" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1550180405" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1550180405"/>
+      <pm:revision xmlns:pm="smNativeData" day="1551574480" val="934" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1551574480" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1551574480" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1551574480"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="686">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -947,6 +947,15 @@
     <t>サブネットアドレス</t>
   </si>
   <si>
+    <t>ipv6_disable</t>
+  </si>
+  <si>
+    <t>├─IPv6無効化</t>
+  </si>
+  <si>
+    <t>IPv6無効化設定</t>
+  </si>
+  <si>
     <t>hw_address</t>
   </si>
   <si>
@@ -1120,7 +1129,7 @@
     <t>├─ファイヤーウォール(RHEL7)</t>
   </si>
   <si>
-    <t>firewalld ファイヤーウォールの自動起動設定</t>
+    <t>firewalld ファイヤーウォールの自動起動設定。無効化した</t>
   </si>
   <si>
     <t>service.iptables</t>
@@ -1166,6 +1175,15 @@
   </si>
   <si>
     <t>Wacom タブレットのホットプラグ機能の自動起動設定</t>
+  </si>
+  <si>
+    <t>service.vncserver@:1</t>
+  </si>
+  <si>
+    <t>├─VNCサービス@:1</t>
+  </si>
+  <si>
+    <t>VNCサーバの自動起動設定(複製)</t>
   </si>
   <si>
     <t>service.vncserver</t>
@@ -1385,6 +1403,15 @@
     <t>/etc/sysconfig/clock からタイムゾーンを検索</t>
   </si>
   <si>
+    <t>grub</t>
+  </si>
+  <si>
+    <t>ブートローダー</t>
+  </si>
+  <si>
+    <t>/etc/default/grupからGRUB_CMDLINE_LINUXのvgaを検索</t>
+  </si>
+  <si>
     <t>NTPサーバ名</t>
   </si>
   <si>
@@ -1918,9 +1945,6 @@
     <t>3.10</t>
   </si>
   <si>
-    <t>ens160</t>
-  </si>
-  <si>
     <t>192.168.0.254</t>
   </si>
   <si>
@@ -1933,10 +1957,112 @@
     <t>enabled</t>
   </si>
   <si>
+    <t>tigervnc</t>
+  </si>
+  <si>
     <t>1.6G</t>
   </si>
   <si>
-    <t>firewalld</t>
+    <t>tigervnc-server</t>
+  </si>
+  <si>
+    <t>binutils</t>
+  </si>
+  <si>
+    <t>compat-libcap1</t>
+  </si>
+  <si>
+    <t>compat-libstdc++-33</t>
+  </si>
+  <si>
+    <t>glibc</t>
+  </si>
+  <si>
+    <t>glibc-devel</t>
+  </si>
+  <si>
+    <t>ksh</t>
+  </si>
+  <si>
+    <t>libaio</t>
+  </si>
+  <si>
+    <t>libaio-devel</t>
+  </si>
+  <si>
+    <t>libgcc</t>
+  </si>
+  <si>
+    <t>libstdc++</t>
+  </si>
+  <si>
+    <t>libstdc++-devel</t>
+  </si>
+  <si>
+    <t>libxcb</t>
+  </si>
+  <si>
+    <t>libX11</t>
+  </si>
+  <si>
+    <t>libXau</t>
+  </si>
+  <si>
+    <t>libXi</t>
+  </si>
+  <si>
+    <t>libXtst</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>net-tools</t>
+  </si>
+  <si>
+    <t>nfs-utils</t>
+  </si>
+  <si>
+    <t>smartmontools</t>
+  </si>
+  <si>
+    <t>compat-libstdc++-33.i686</t>
+  </si>
+  <si>
+    <t>glibc.i686</t>
+  </si>
+  <si>
+    <t>glibc-devel.i686</t>
+  </si>
+  <si>
+    <t>libaio.i686</t>
+  </si>
+  <si>
+    <t>libaio-devel.i686</t>
+  </si>
+  <si>
+    <t>libgcc.i686</t>
+  </si>
+  <si>
+    <t>libstdc++.i686</t>
+  </si>
+  <si>
+    <t>libstdc++-devel.i686</t>
+  </si>
+  <si>
+    <t>libxcb.i686</t>
+  </si>
+  <si>
+    <t>libX11.i686</t>
+  </si>
+  <si>
+    <t>libXau.i686</t>
+  </si>
+  <si>
+    <t>libXi.i686</t>
+  </si>
+  <si>
+    <t>libXtst.i686</t>
   </si>
   <si>
     <t>network:key</t>
@@ -2001,7 +2127,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -2016,7 +2142,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2032,7 +2158,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2048,7 +2174,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2065,7 +2191,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="220" lang="default" weight="bold"/>
@@ -2082,7 +2208,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -2098,7 +2224,7 @@
       <sz val="9"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="180" lang="default"/>
             <pm:cs face="Times New Roman" sz="180" lang="default"/>
             <pm:ea face="SimSun" sz="180" lang="default"/>
@@ -2114,7 +2240,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ ゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2130,7 +2256,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1550180405" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1551574480" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -2139,7 +2265,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2152,7 +2278,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2163,7 +2289,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2174,7 +2300,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2194,7 +2320,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2205,7 +2331,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2216,7 +2342,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2227,7 +2353,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2238,7 +2364,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2249,7 +2375,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2260,7 +2386,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2271,7 +2397,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2282,7 +2408,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2293,7 +2419,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2304,7 +2430,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2315,7 +2441,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2326,7 +2452,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2337,7 +2463,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2348,7 +2474,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2359,7 +2485,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2370,7 +2496,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2381,7 +2507,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -2392,24 +2518,13 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1550180405" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1551574480" type="1" fgLvl="100" fgClr="00BFBFBF" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -2425,7 +2540,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405"/>
+          <pm:border xmlns:pm="smNativeData" id="1551574480"/>
         </ext>
       </extLst>
     </border>
@@ -2444,7 +2559,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2468,7 +2583,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2492,7 +2607,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2516,7 +2631,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2539,7 +2654,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2563,7 +2678,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2584,7 +2699,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2606,7 +2721,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2627,7 +2742,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2649,7 +2764,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2671,7 +2786,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2692,7 +2807,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2714,7 +2829,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2737,7 +2852,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -2759,7 +2874,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2782,7 +2897,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2803,7 +2918,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405"/>
+          <pm:border xmlns:pm="smNativeData" id="1551574480"/>
         </ext>
       </extLst>
     </border>
@@ -2822,7 +2937,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -2843,7 +2958,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2867,7 +2982,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="2" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2891,7 +3006,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2914,7 +3029,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -2938,7 +3053,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -2962,7 +3077,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405"/>
+          <pm:border xmlns:pm="smNativeData" id="1551574480"/>
         </ext>
       </extLst>
     </border>
@@ -2981,31 +3096,12 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405">
+          <pm:border xmlns:pm="smNativeData" id="1551574480">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1550180405"/>
         </ext>
       </extLst>
     </border>
@@ -3160,10 +3256,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1550180405" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1551574480" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1550180405" count="5">
+      <pm:colors xmlns:pm="smNativeData" id="1551574480" count="5">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="F2F2F2"/>
         <pm:color name="色 26" rgb="CCFFFF"/>
@@ -6328,7 +6424,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6339,16 +6435,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6600,13 +6696,13 @@
       <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -6993,15 +7089,18 @@
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="P1:S1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation sqref="B4:B23" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+  <dataValidations count="2">
+    <dataValidation sqref="B4:B6 B8:B23" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
+      <formula1>利用手順!$C$116:$C$118</formula1>
+    </dataValidation>
+    <dataValidation sqref="B7" type="list" operator="between" errorStyle="stop" allowBlank="1" showInputMessage="1" showErrorMessage="1" view="0">
       <formula1>利用手順!$C$116:$C$118</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7012,16 +7111,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7179,7 +7278,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7228,7 +7327,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7293,7 +7392,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7354,7 +7453,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7401,7 +7500,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7442,7 +7541,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7489,7 +7588,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7522,7 +7621,7 @@
       <c r="Z11" s="36"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1550180405" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1551574480" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -7670,7 +7769,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7679,16 +7778,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7778,7 +7877,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -7787,16 +7886,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -7807,10 +7906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:F94"/>
+  <dimension ref="A3:F97"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView view="normal" topLeftCell="A37" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -8435,9 +8534,7 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>306</v>
       </c>
@@ -8457,17 +8554,17 @@
         <v>221</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8475,7 +8572,7 @@
         <v>221</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>311</v>
+        <v>179</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>312</v>
@@ -8483,9 +8580,7 @@
       <c r="D41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="11" t="s">
         <v>313</v>
       </c>
@@ -8503,7 +8598,9 @@
       <c r="D42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="F42" s="11" t="s">
         <v>316</v>
       </c>
@@ -8531,25 +8628,25 @@
         <v>221</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>322</v>
+        <v>176</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>323</v>
@@ -8557,24 +8654,26 @@
       <c r="D45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
+      <c r="E45" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="F46" s="11"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="10"/>
@@ -8593,9 +8692,7 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>330</v>
       </c>
@@ -8623,22 +8720,20 @@
       <c r="D49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="E49" s="10"/>
       <c r="F49" s="11" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>84</v>
@@ -8647,11 +8742,13 @@
         <v>221</v>
       </c>
       <c r="F50" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>340</v>
       </c>
@@ -8661,15 +8758,15 @@
       <c r="D51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="F51" s="11" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>343</v>
       </c>
@@ -8686,7 +8783,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>346</v>
@@ -8704,7 +8801,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>349</v>
@@ -8722,7 +8819,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>352</v>
@@ -8733,15 +8830,15 @@
       <c r="D55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="11" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10"/>
+      <c r="A56" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="B56" s="10" t="s">
         <v>355</v>
       </c>
@@ -8751,7 +8848,9 @@
       <c r="D56" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="F56" s="11" t="s">
         <v>357</v>
       </c>
@@ -8869,9 +8968,7 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>379</v>
       </c>
@@ -8881,9 +8978,7 @@
       <c r="D64" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="11" t="s">
         <v>381</v>
       </c>
@@ -8905,7 +9000,9 @@
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="10"/>
+      <c r="A66" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="B66" s="10" t="s">
         <v>385</v>
       </c>
@@ -8915,7 +9012,9 @@
       <c r="D66" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="F66" s="11" t="s">
         <v>387</v>
       </c>
@@ -9065,9 +9164,7 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>415</v>
       </c>
@@ -9083,9 +9180,7 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>418</v>
       </c>
@@ -9102,7 +9197,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>421</v>
@@ -9120,7 +9215,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>424</v>
@@ -9138,7 +9233,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>427</v>
@@ -9156,16 +9251,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>182</v>
+        <v>430</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="11" t="s">
@@ -9174,7 +9269,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>433</v>
@@ -9191,15 +9286,17 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="10"/>
+      <c r="A83" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="B83" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="11" t="s">
@@ -9208,7 +9305,7 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>439</v>
@@ -9225,9 +9322,7 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>442</v>
       </c>
@@ -9244,7 +9339,7 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>445</v>
@@ -9262,64 +9357,64 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>193</v>
+        <v>448</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="11" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D88" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="11" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D89" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="11" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>456</v>
+        <v>193</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>457</v>
@@ -9333,7 +9428,9 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="10"/>
+      <c r="A91" s="10" t="s">
+        <v>339</v>
+      </c>
       <c r="B91" s="10" t="s">
         <v>459</v>
       </c>
@@ -9350,65 +9447,117 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>463</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>464</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>221</v>
-      </c>
+      <c r="E92" s="10"/>
       <c r="F92" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="10" t="s">
-        <v>462</v>
+        <v>339</v>
       </c>
       <c r="B93" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>466</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>467</v>
       </c>
       <c r="D93" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="D94" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="10"/>
       <c r="F94" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="10" t="s">
         <v>471</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="11" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -9419,16 +9568,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -9478,7 +9627,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>222</v>
@@ -9703,7 +9852,7 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="42" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -9744,14 +9893,14 @@
         <v>186</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="42" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9760,7 +9909,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>91</v>
@@ -9775,7 +9924,7 @@
         <v>221</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>291</v>
@@ -9785,7 +9934,7 @@
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="42" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9794,46 +9943,46 @@
         <v>188</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="42" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="42" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="42" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9841,81 +9990,81 @@
         <v>221</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="42" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="42" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="42" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="42" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="42" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9926,14 +10075,14 @@
         <v>172</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="42" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9942,30 +10091,30 @@
         <v>184</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="42" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="42" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9974,41 +10123,41 @@
         <v>185</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="42" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="42" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>91</v>
@@ -10017,7 +10166,7 @@
         <v>221</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10028,7 +10177,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>91</v>
@@ -10037,39 +10186,39 @@
         <v>221</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="42" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="42" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10077,10 +10226,10 @@
         <v>221</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>91</v>
@@ -10089,7 +10238,7 @@
         <v>221</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -10097,28 +10246,28 @@
         <v>221</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="42" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>91</v>
@@ -10127,50 +10276,50 @@
         <v>221</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="42" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="42" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>91</v>
@@ -10179,25 +10328,25 @@
         <v>221</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="42" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -10217,13 +10366,13 @@
         <v>221</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>300</v>
@@ -10242,30 +10391,30 @@
         <v>191</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="42" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="42" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -10276,7 +10425,7 @@
         <v>192</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>91</v>
@@ -10285,7 +10434,7 @@
         <v>221</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10293,10 +10442,10 @@
         <v>221</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>91</v>
@@ -10305,36 +10454,36 @@
         <v>221</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="42" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>91</v>
@@ -10343,43 +10492,43 @@
         <v>221</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="42" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="42" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -10387,46 +10536,46 @@
         <v>221</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="42" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>193</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="42" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>91</v>
@@ -10435,18 +10584,18 @@
         <v>221</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>91</v>
@@ -10455,36 +10604,36 @@
         <v>221</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="42" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>91</v>
@@ -10493,18 +10642,18 @@
         <v>221</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>91</v>
@@ -10513,18 +10662,18 @@
         <v>221</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>91</v>
@@ -10533,14 +10682,14 @@
         <v>221</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -10551,16 +10700,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -10705,37 +10854,37 @@
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -10753,13 +10902,13 @@
         <v>2.60000000000000009</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>6.70000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -10771,37 +10920,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="S3" s="14" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -10821,26 +10970,26 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -10860,7 +11009,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10871,7 +11020,7 @@
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -10891,7 +11040,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10902,7 +11051,7 @@
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -10922,7 +11071,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -10933,7 +11082,7 @@
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -10962,7 +11111,7 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -10991,7 +11140,7 @@
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -11020,7 +11169,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -11049,7 +11198,7 @@
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -11078,7 +11227,7 @@
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -11107,7 +11256,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -13517,7 +13666,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -13528,16 +13677,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -13551,7 +13700,7 @@
   <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -13575,8 +13724,8 @@
     <col min="18" max="18" width="7.372727" customWidth="1"/>
     <col min="19" max="20" width="9.500000" customWidth="1"/>
     <col min="21" max="21" width="9.127273" customWidth="1"/>
-    <col min="22" max="22" width="26.627273" customWidth="1"/>
-    <col min="23" max="1025" width="8.745455" customWidth="1"/>
+    <col min="22" max="22" width="27.990909" customWidth="1"/>
+    <col min="23" max="1024" width="8.745455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -13682,37 +13831,37 @@
         <v>75</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="U2" s="13" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -13723,20 +13872,20 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>6.70000000000000018</v>
+        <v>7.20000000000000018</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="I3" s="14" t="n">
         <v>1</v>
@@ -13745,37 +13894,35 @@
         <v>1</v>
       </c>
       <c r="K3" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>624</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="L3" s="15"/>
       <c r="M3" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>624</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N3" s="14"/>
       <c r="O3" s="14" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="Q3" s="14" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="R3" s="14"/>
       <c r="S3" s="14" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="V3" s="14"/>
+        <v>636</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="7">
@@ -13794,25 +13941,23 @@
       <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="16" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="R4" s="14"/>
-      <c r="S4" s="14" t="s">
-        <v>630</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>627</v>
-      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="V4" s="14" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="7">
@@ -13831,7 +13976,7 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
       <c r="M5" s="15" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13841,7 +13986,9 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="V5" s="14" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="7">
@@ -13860,7 +14007,7 @@
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="15" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13870,7 +14017,9 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
+      <c r="V6" s="14" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="7">
@@ -13889,7 +14038,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="15" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
@@ -13899,7 +14048,9 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="V7" s="14" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="7">
@@ -13926,7 +14077,9 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
+      <c r="V8" s="14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="7">
@@ -13953,7 +14106,9 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="V9" s="14" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="7">
@@ -13980,7 +14135,9 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="V10" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="7">
@@ -14007,7 +14164,9 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="7">
@@ -14034,7 +14193,9 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="V12" s="14" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="7">
@@ -14061,7 +14222,9 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
+      <c r="V13" s="14" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="7">
@@ -14088,7 +14251,9 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="7">
@@ -14115,7 +14280,9 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
+      <c r="V15" s="14" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="7">
@@ -14142,7 +14309,9 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
+      <c r="V16" s="14" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="7">
@@ -14169,7 +14338,9 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="V17" s="14" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="7">
@@ -14196,7 +14367,9 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="V18" s="14" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="7">
@@ -14223,7 +14396,9 @@
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
+      <c r="V19" s="14" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="7">
@@ -14250,7 +14425,9 @@
       <c r="S20" s="14"/>
       <c r="T20" s="14"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="V20" s="14" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="7">
@@ -14277,7 +14454,9 @@
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="V21" s="14" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="7">
@@ -14304,7 +14483,9 @@
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
+      <c r="V22" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="7">
@@ -14331,7 +14512,9 @@
       <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+      <c r="V23" s="7" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="7">
@@ -14358,7 +14541,9 @@
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
+      <c r="V24" s="7" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="7">
@@ -14385,7 +14570,9 @@
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="V25" s="7" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="7">
@@ -14412,7 +14599,9 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="V26" s="7" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="7">
@@ -14439,7 +14628,9 @@
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="V27" s="7" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="7">
@@ -14466,7 +14657,9 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
+      <c r="V28" s="7" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="7">
@@ -14493,7 +14686,9 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="V29" s="7" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="7">
@@ -14520,7 +14715,9 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
+      <c r="V30" s="7" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="7">
@@ -14547,7 +14744,9 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
+      <c r="V31" s="7" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="7">
@@ -14574,7 +14773,9 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
+      <c r="V32" s="7" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="7">
@@ -14601,7 +14802,9 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="7">
@@ -14628,7 +14831,9 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+      <c r="V34" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="7">
@@ -14655,7 +14860,9 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+      <c r="V35" s="7" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="7">
@@ -14682,7 +14889,9 @@
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+      <c r="V36" s="7" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="7">
@@ -14709,7 +14918,9 @@
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+      <c r="V37" s="7" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="7">
@@ -14736,7 +14947,9 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+      <c r="V38" s="7" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="7">
@@ -16470,7 +16683,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -16481,16 +16694,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -16597,22 +16810,22 @@
         <v>188</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -16626,13 +16839,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="G3" s="14" t="n">
         <v>1</v>
@@ -16641,20 +16854,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>40</v>
       </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -16670,16 +16883,16 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
       <c r="I4" s="15" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -16695,7 +16908,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="15" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -16716,7 +16929,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="15" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -16737,7 +16950,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -18554,7 +18767,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1550180405" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1551574480" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -18565,16 +18778,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1550180405" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1550180405" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1551574480" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1551574480" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1550180405" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1551574480" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="671" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="671"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="751">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2368,6 +2368,77 @@
   </si>
   <si>
     <t>wmic qfeコマンドで、パッチリストを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linux</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>fstypes</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─ファイルシステムタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>マウントポイントのファイルシステム</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMware Tools の時刻同期</t>
+    <rPh sb="14" eb="16">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ドウキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmwaretool_timesync</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWareツールの時刻同期設定</t>
+    <rPh sb="10" eb="12">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>core_collector</t>
+  </si>
+  <si>
+    <t>コアコレクター設定</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vmware_scsi_timeout</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare SCSIタイムアウト</t>
+  </si>
+  <si>
+    <t>/etc/udev/rules.d/99-vmware-scsi-udev.rulesからVMWare SCSIタイムアウト検索</t>
+    <rPh sb="62" eb="64">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2912,7 +2983,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3024,12 +3095,6 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3047,6 +3112,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3372,7 +3449,7 @@
   </sheetPr>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4599,30 +4676,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37" t="s">
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="37"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="37"/>
-      <c r="Q49" s="37" t="s">
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="37"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
       <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -6310,7 +6387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6333,30 +6410,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -6942,7 +7019,7 @@
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -7679,10 +7756,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F97"/>
+  <dimension ref="A3:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A67" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8499,34 +8576,30 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A50" s="45"/>
       <c r="B50" s="8" t="s">
-        <v>336</v>
+        <v>739</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>337</v>
+        <v>740</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>338</v>
+        <v>741</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
@@ -8535,59 +8608,61 @@
         <v>221</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B52" s="8" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F52" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
@@ -8595,395 +8670,395 @@
         <v>339</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B57" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F57" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="8"/>
+      <c r="E67" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F67" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -8991,17 +9066,17 @@
         <v>339</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -9009,17 +9084,17 @@
         <v>339</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -9027,87 +9102,87 @@
         <v>339</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E83" s="8"/>
-      <c r="F83" s="9" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" s="45"/>
+      <c r="B83" s="45" t="s">
+        <v>745</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>746</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="E83" s="45"/>
+      <c r="F83" s="46" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B85" s="8" t="s">
-        <v>442</v>
+        <v>182</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -9115,35 +9190,33 @@
         <v>339</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -9151,17 +9224,17 @@
         <v>339</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -9169,17 +9242,17 @@
         <v>339</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -9187,17 +9260,17 @@
         <v>339</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>193</v>
+        <v>451</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9205,35 +9278,35 @@
         <v>339</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>462</v>
+        <v>193</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -9241,88 +9314,160 @@
         <v>339</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A94" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B94" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E95" s="8"/>
       <c r="F95" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
-        <v>471</v>
-      </c>
+      <c r="A96" s="8"/>
       <c r="B96" s="8" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>479</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="B97" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>742</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="45"/>
+      <c r="F97" s="46" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="45" t="s">
+        <v>747</v>
+      </c>
+      <c r="B98" s="45" t="s">
+        <v>748</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D98" s="45" t="s">
+        <v>738</v>
+      </c>
+      <c r="E98" s="45"/>
+      <c r="F98" s="46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A101" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9" t="s">
         <v>480</v>
       </c>
     </row>
@@ -9355,1413 +9500,1413 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="27.75" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="40" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="40" customWidth="1"/>
-    <col min="6" max="6" width="52.125" style="40" customWidth="1"/>
-    <col min="7" max="1025" width="8.75" style="40" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="5.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="27.75" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="38" customWidth="1"/>
+    <col min="6" max="6" width="52.125" style="38" customWidth="1"/>
+    <col min="7" max="1025" width="8.75" style="38" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="40" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="40" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="40" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42" t="s">
+      <c r="E14" s="39"/>
+      <c r="F14" s="40" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="40" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="40" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="41" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="43" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="41" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="43" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="41" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="39"/>
+      <c r="F20" s="41" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="43" t="s">
+      <c r="E21" s="39"/>
+      <c r="F21" s="41" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="41" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="41" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="41" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="43" t="s">
+      <c r="E25" s="39"/>
+      <c r="F25" s="41" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="39"/>
+      <c r="F26" s="41" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="43" t="s">
+      <c r="E27" s="39"/>
+      <c r="F27" s="41" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="43" t="s">
+      <c r="E28" s="39"/>
+      <c r="F28" s="41" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="39"/>
+      <c r="F29" s="41" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="41" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="43" t="s">
+      <c r="E31" s="39"/>
+      <c r="F31" s="41" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="43" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="41" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="41" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="43" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="41" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="43" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="41" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="43" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="41" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="43"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="41"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="41" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39" t="s">
         <v>686</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="39" t="s">
         <v>687</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="39" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="41" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="41" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="43" t="s">
+      <c r="E42" s="39"/>
+      <c r="F42" s="41" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="41" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="43" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="41" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="39" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="41" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="43" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="41" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="39" t="s">
         <v>355</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="39" t="s">
         <v>356</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="41" t="s">
+      <c r="E46" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="41" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="43" t="s">
+      <c r="E47" s="39"/>
+      <c r="F47" s="41" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="39"/>
+      <c r="F48" s="41" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="44" t="s">
+      <c r="A49" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="39" t="s">
         <v>385</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="41" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="39" t="s">
         <v>349</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="43" t="s">
+      <c r="E50" s="39"/>
+      <c r="F50" s="41" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="41" t="s">
+      <c r="A51" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="41" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="41"/>
-      <c r="B52" s="41" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="43" t="s">
+      <c r="E52" s="39"/>
+      <c r="F52" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="43" t="s">
+      <c r="E53" s="39"/>
+      <c r="F53" s="41" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="43" t="s">
+      <c r="E54" s="39"/>
+      <c r="F54" s="41" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
+      <c r="A55" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="41" t="s">
+      <c r="E55" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="41" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="41" t="s">
+      <c r="A56" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E56" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="41" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A57" s="41" t="s">
+      <c r="A57" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="41" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41" t="s">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="43" t="s">
+      <c r="E58" s="39"/>
+      <c r="F58" s="41" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41" t="s">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="43" t="s">
+      <c r="E59" s="39"/>
+      <c r="F59" s="41" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="43" t="s">
+      <c r="E60" s="39"/>
+      <c r="F60" s="41" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="41" t="s">
+      <c r="A61" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="41" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="43" t="s">
+      <c r="E62" s="39"/>
+      <c r="F62" s="41" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="43" t="s">
+      <c r="E63" s="39"/>
+      <c r="F63" s="41" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="D64" s="41" t="s">
+      <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="43" t="s">
+      <c r="E64" s="39"/>
+      <c r="F64" s="41" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39" t="s">
         <v>718</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="39" t="s">
         <v>719</v>
       </c>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41" t="s">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39" t="s">
         <v>721</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="39" t="s">
         <v>722</v>
       </c>
-      <c r="D66" s="41" t="s">
+      <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="39" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41" t="s">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39" t="s">
         <v>724</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="39" t="s">
         <v>725</v>
       </c>
-      <c r="D67" s="41" t="s">
+      <c r="D67" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="39" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="41"/>
-      <c r="F68" s="43" t="s">
+      <c r="E68" s="39"/>
+      <c r="F68" s="41" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="44" t="s">
+      <c r="A69" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="D69" s="41" t="s">
+      <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F69" s="43" t="s">
+      <c r="F69" s="41" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="43" t="s">
+      <c r="E70" s="39"/>
+      <c r="F70" s="41" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="44" t="s">
+      <c r="A71" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="43" t="s">
+      <c r="E71" s="39"/>
+      <c r="F71" s="41" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="39" t="s">
         <v>567</v>
       </c>
-      <c r="D72" s="41" t="s">
+      <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E72" s="41"/>
-      <c r="F72" s="43" t="s">
+      <c r="E72" s="39"/>
+      <c r="F72" s="41" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="44" t="s">
+      <c r="A73" s="42" t="s">
         <v>727</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="39" t="s">
         <v>728</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="39" t="s">
         <v>729</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="41"/>
-      <c r="F73" s="43" t="s">
+      <c r="E73" s="39"/>
+      <c r="F73" s="41" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="44"/>
-      <c r="B74" s="41" t="s">
+      <c r="A74" s="42"/>
+      <c r="B74" s="39" t="s">
         <v>731</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="39" t="s">
         <v>732</v>
       </c>
-      <c r="D74" s="41" t="s">
+      <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41" t="s">
+      <c r="E74" s="39"/>
+      <c r="F74" s="39" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="44"/>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="42"/>
+      <c r="B75" s="39" t="s">
         <v>733</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="39" t="s">
         <v>734</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41" t="s">
+      <c r="E75" s="39"/>
+      <c r="F75" s="39" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="39" t="s">
         <v>735</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C76" s="39" t="s">
         <v>736</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="41" t="s">
+      <c r="E76" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="41" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="43" t="s">
+      <c r="E77" s="39"/>
+      <c r="F77" s="41" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="39" t="s">
         <v>571</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="39" t="s">
         <v>572</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="41" t="s">
+      <c r="E78" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="41" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F79" s="43" t="s">
+      <c r="F79" s="41" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="D80" s="41" t="s">
+      <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="41"/>
-      <c r="F80" s="43" t="s">
+      <c r="E80" s="39"/>
+      <c r="F80" s="41" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="44" t="s">
+      <c r="A81" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="D81" s="41" t="s">
+      <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="43" t="s">
+      <c r="F81" s="41" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="44" t="s">
+      <c r="A82" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="39" t="s">
         <v>584</v>
       </c>
-      <c r="D82" s="41" t="s">
+      <c r="D82" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="41" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="44" t="s">
+      <c r="A83" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="39" t="s">
         <v>587</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="41" t="s">
         <v>588</v>
       </c>
     </row>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="771">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2438,6 +2438,113 @@
     <t>/etc/udev/rules.d/99-vmware-scsi-udev.rulesからVMWare SCSIタイムアウト検索</t>
     <rPh sb="62" eb="64">
       <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMNetwork.type</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─アダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタタイプ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMWare 設定カスタマイズ</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.limit</t>
+  </si>
+  <si>
+    <t>├─リソース制限</t>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリリソース制限設定</t>
+    <rPh sb="11" eb="13">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.shares_level</t>
+  </si>
+  <si>
+    <t>├─シェアレベル</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU,メモリ共有レベル設定</t>
+    <rPh sb="7" eb="9">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_conf.cpu_affinity</t>
+  </si>
+  <si>
+    <t>└─CPUアフィニティ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPUアフィニティ設定</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_nic_limit</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワークアダプタ制限</t>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
+    <rPh sb="31" eb="34">
+      <t>セイゲンチ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -2983,7 +3090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3104,26 +3211,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4676,30 +4780,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="24"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43" t="s">
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
       <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -6410,30 +6514,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
@@ -7756,10 +7860,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F101"/>
+  <dimension ref="A3:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="75" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7802,351 +7906,351 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="43" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="43" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C20" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D20" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B22" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D22" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E22" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F22" s="43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="9" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -8154,267 +8258,265 @@
         <v>221</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="9" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="9" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
+      <c r="A28" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B28" s="8" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B37" s="8" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B38" s="8" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -8422,139 +8524,139 @@
         <v>221</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F41" s="9" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
-        <v>221</v>
-      </c>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="9" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B47" s="8" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="9" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B48" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F48" s="9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8562,33 +8664,35 @@
         <v>221</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B50" s="8" t="s">
-        <v>739</v>
+        <v>320</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>740</v>
+        <v>321</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>741</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -8596,10 +8700,10 @@
         <v>221</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
@@ -8608,108 +8712,98 @@
         <v>221</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>342</v>
-      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="42"/>
       <c r="B56" s="8" t="s">
-        <v>352</v>
+        <v>739</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>353</v>
+        <v>740</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>354</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
@@ -8718,453 +8812,457 @@
         <v>221</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B58" s="8" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F58" s="9" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B60" s="8" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="8"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A61" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B61" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="8"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B62" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B63" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F63" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E67" s="8"/>
       <c r="F67" s="9" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="9" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B73" s="8" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F73" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45" t="s">
-        <v>745</v>
-      </c>
-      <c r="C83" s="45" t="s">
-        <v>746</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>738</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="46" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -9172,17 +9270,17 @@
         <v>339</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -9190,33 +9288,35 @@
         <v>339</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B87" s="8" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -9224,53 +9324,51 @@
         <v>339</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" s="42"/>
+      <c r="B89" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E89" s="42"/>
+      <c r="F89" s="43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9278,17 +9376,17 @@
         <v>339</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -9296,53 +9394,51 @@
         <v>339</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>193</v>
+        <v>439</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A93" s="8"/>
       <c r="B93" s="8" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -9350,124 +9446,232 @@
         <v>339</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="9" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="8"/>
+      <c r="A96" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B96" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="B97" s="45" t="s">
-        <v>743</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>742</v>
+      <c r="A97" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E97" s="45"/>
-      <c r="F97" s="46" t="s">
-        <v>744</v>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="B98" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C98" s="45" t="s">
-        <v>749</v>
-      </c>
-      <c r="D98" s="45" t="s">
-        <v>738</v>
-      </c>
-      <c r="E98" s="45"/>
-      <c r="F98" s="46" t="s">
-        <v>750</v>
+      <c r="A98" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E99" s="8"/>
       <c r="F99" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="42"/>
+      <c r="F103" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B104" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="D104" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E104" s="42"/>
+      <c r="F104" s="43" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9" t="s">
         <v>480</v>
       </c>
     </row>
@@ -9492,11 +9696,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F83"/>
+  <dimension ref="A4:F89"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9530,713 +9732,703 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="43" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39" t="s">
+    <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="43" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="43" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A12" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="43" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="s">
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B14" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C14" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D14" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B15" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D15" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="39" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B16" s="42" t="s">
+        <v>754</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>755</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42" t="s">
+        <v>757</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>761</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C20" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D20" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="43" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="39" t="s">
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>768</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B22" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C22" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D22" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E22" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F22" s="43" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B23" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C23" s="39" t="s">
         <v>272</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="41" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="41" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>486</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="39"/>
-      <c r="F23" s="41" t="s">
-        <v>487</v>
+      <c r="F23" s="40" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="39"/>
       <c r="B24" s="39" t="s">
-        <v>488</v>
+        <v>274</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>489</v>
+        <v>275</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="39"/>
-      <c r="F24" s="41" t="s">
-        <v>490</v>
+      <c r="F24" s="40" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="39"/>
       <c r="B25" s="39" t="s">
-        <v>491</v>
+        <v>175</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>492</v>
+        <v>277</v>
       </c>
       <c r="D25" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="39"/>
-      <c r="F25" s="41" t="s">
-        <v>493</v>
+      <c r="F25" s="40" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A26" s="39"/>
       <c r="B26" s="39" t="s">
-        <v>494</v>
+        <v>186</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D26" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E26" s="39"/>
-      <c r="F26" s="41" t="s">
-        <v>496</v>
+      <c r="F26" s="40" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="39"/>
       <c r="B27" s="39" t="s">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D27" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="39"/>
-      <c r="F27" s="41" t="s">
-        <v>499</v>
+      <c r="F27" s="40" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B28" s="39" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="39"/>
-      <c r="F28" s="41" t="s">
-        <v>502</v>
+      <c r="F28" s="40" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="39"/>
       <c r="B29" s="39" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="39"/>
-      <c r="F29" s="41" t="s">
-        <v>505</v>
+      <c r="F29" s="40" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="39"/>
-      <c r="F30" s="41" t="s">
-        <v>508</v>
+      <c r="F30" s="40" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="39"/>
-      <c r="F31" s="41" t="s">
-        <v>510</v>
+      <c r="F31" s="40" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B32" s="39" t="s">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="39"/>
-      <c r="F32" s="41" t="s">
-        <v>512</v>
+      <c r="F32" s="40" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="39"/>
-      <c r="F33" s="41" t="s">
-        <v>515</v>
+      <c r="F33" s="40" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="39"/>
       <c r="B34" s="39" t="s">
-        <v>185</v>
+        <v>500</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="39"/>
-      <c r="F34" s="41" t="s">
-        <v>517</v>
+      <c r="F34" s="40" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="39"/>
-      <c r="F35" s="41" t="s">
-        <v>520</v>
+      <c r="F35" s="40" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="39" t="s">
-        <v>683</v>
-      </c>
+      <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>684</v>
+        <v>506</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>685</v>
+        <v>507</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39"/>
-      <c r="F36" s="41"/>
+      <c r="F36" s="40" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="39"/>
+      <c r="A37" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B37" s="39" t="s">
-        <v>686</v>
+        <v>172</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>687</v>
+        <v>509</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39"/>
-      <c r="F37" s="39" t="s">
-        <v>688</v>
+      <c r="F37" s="40" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="39"/>
       <c r="B38" s="39" t="s">
-        <v>689</v>
+        <v>184</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="39"/>
-      <c r="F38" s="39" t="s">
-        <v>691</v>
+      <c r="F38" s="40" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>692</v>
+        <v>513</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>693</v>
+        <v>514</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="39"/>
-      <c r="F39" s="39" t="s">
-        <v>694</v>
+      <c r="F39" s="40" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>521</v>
+        <v>185</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>523</v>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>525</v>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="39"/>
+      <c r="A42" s="39" t="s">
+        <v>683</v>
+      </c>
       <c r="B42" s="39" t="s">
-        <v>526</v>
+        <v>684</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="39"/>
-      <c r="F42" s="41" t="s">
-        <v>528</v>
-      </c>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="39"/>
       <c r="B43" s="39" t="s">
-        <v>529</v>
+        <v>686</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>530</v>
+        <v>687</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="F43" s="41" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="F43" s="39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>340</v>
+        <v>689</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>341</v>
+        <v>690</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A45" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>346</v>
+        <v>692</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>347</v>
+        <v>693</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="41" t="s">
-        <v>533</v>
+      <c r="F45" s="39" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>356</v>
+        <v>522</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>91</v>
@@ -10244,157 +10436,161 @@
       <c r="E46" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>534</v>
+      <c r="F46" s="40" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="39"/>
+      <c r="A47" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B47" s="39" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="41" t="s">
-        <v>537</v>
+      <c r="E47" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F47" s="40" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="39"/>
       <c r="B48" s="39" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="41" t="s">
-        <v>540</v>
+      <c r="F48" s="40" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="39"/>
+      <c r="F49" s="40" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A50" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F49" s="41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A50" s="42" t="s">
-        <v>339</v>
-      </c>
       <c r="B50" s="39" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>542</v>
+        <v>341</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="41" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E50" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A51" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>544</v>
+      <c r="E51" s="39"/>
+      <c r="F51" s="40" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B52" s="39" t="s">
-        <v>545</v>
+        <v>355</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="41" t="s">
-        <v>28</v>
+      <c r="E52" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="39"/>
       <c r="B53" s="39" t="s">
-        <v>191</v>
+        <v>535</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E53" s="39"/>
-      <c r="F53" s="41" t="s">
-        <v>547</v>
+      <c r="F53" s="40" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>190</v>
+        <v>538</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="39"/>
-      <c r="F54" s="41" t="s">
-        <v>549</v>
+      <c r="F54" s="40" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="39" t="s">
-        <v>221</v>
+      <c r="A55" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>550</v>
+        <v>386</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>91</v>
@@ -10402,39 +10598,37 @@
       <c r="E55" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="41" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="39" t="s">
-        <v>221</v>
+      <c r="F55" s="40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A56" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>552</v>
+        <v>349</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="E56" s="39"/>
+      <c r="F56" s="40" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>695</v>
+        <v>189</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>696</v>
+        <v>151</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>91</v>
@@ -10442,56 +10636,56 @@
       <c r="E57" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F57" s="41" t="s">
-        <v>697</v>
+      <c r="F57" s="40" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="39"/>
       <c r="B58" s="39" t="s">
-        <v>698</v>
+        <v>545</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>699</v>
+        <v>300</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="39"/>
-      <c r="F58" s="41" t="s">
-        <v>700</v>
+      <c r="F58" s="40" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>701</v>
+        <v>191</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>702</v>
+        <v>546</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="39"/>
-      <c r="F59" s="41" t="s">
-        <v>703</v>
+      <c r="F59" s="40" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>704</v>
+        <v>190</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>705</v>
+        <v>548</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="39"/>
-      <c r="F60" s="41" t="s">
-        <v>706</v>
+      <c r="F60" s="40" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -10499,10 +10693,10 @@
         <v>221</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>707</v>
+        <v>550</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>91</v>
@@ -10510,375 +10704,367 @@
       <c r="E61" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F61" s="41" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="39"/>
+      <c r="F61" s="40" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A62" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B62" s="39" t="s">
-        <v>709</v>
+        <v>552</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>710</v>
+        <v>553</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="41" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="39"/>
+      <c r="E62" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A63" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B63" s="39" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="41" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A64" s="39" t="s">
+      <c r="E63" s="39" t="s">
         <v>221</v>
       </c>
+      <c r="F63" s="40" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="39"/>
-      <c r="F64" s="41" t="s">
-        <v>717</v>
+      <c r="F64" s="40" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="39"/>
-      <c r="F65" s="39" t="s">
-        <v>720</v>
+      <c r="F65" s="40" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="39"/>
-      <c r="F66" s="39" t="s">
-        <v>723</v>
+      <c r="F66" s="40" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="39"/>
+      <c r="A67" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B67" s="39" t="s">
-        <v>724</v>
+        <v>177</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A68" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="E67" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="39"/>
       <c r="B68" s="39" t="s">
-        <v>555</v>
+        <v>709</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>556</v>
+        <v>710</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="39"/>
-      <c r="F68" s="41" t="s">
-        <v>557</v>
+      <c r="F68" s="40" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="A69" s="39"/>
       <c r="B69" s="39" t="s">
-        <v>558</v>
+        <v>712</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>559</v>
+        <v>713</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="39"/>
+      <c r="F69" s="40" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A70" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F69" s="41" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="42" t="s">
-        <v>339</v>
-      </c>
       <c r="B70" s="39" t="s">
-        <v>561</v>
+        <v>715</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="39"/>
-      <c r="F70" s="41" t="s">
-        <v>563</v>
+      <c r="F70" s="40" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>353</v>
+        <v>719</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="39"/>
-      <c r="F71" s="41" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A72" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="F71" s="39" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="39"/>
-      <c r="F72" s="41" t="s">
-        <v>568</v>
+      <c r="F72" s="39" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="42" t="s">
-        <v>727</v>
-      </c>
+      <c r="A73" s="39"/>
       <c r="B73" s="39" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E73" s="39"/>
-      <c r="F73" s="41" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="42"/>
+      <c r="F73" s="39" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A74" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B74" s="39" t="s">
-        <v>731</v>
+        <v>555</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>732</v>
+        <v>556</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="39"/>
-      <c r="F74" s="39" t="s">
-        <v>732</v>
+      <c r="F74" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B75" s="39" t="s">
-        <v>733</v>
+        <v>558</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>734</v>
+        <v>559</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39" t="s">
-        <v>734</v>
+      <c r="E75" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>735</v>
+        <v>561</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>736</v>
+        <v>562</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E76" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="41" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A77" s="42" t="s">
+      <c r="E76" s="39"/>
+      <c r="F76" s="40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>569</v>
+        <v>353</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="41" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="42" t="s">
-        <v>339</v>
+      <c r="F77" s="40" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A78" s="39" t="s">
+        <v>221</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F78" s="41" t="s">
-        <v>573</v>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="42" t="s">
-        <v>339</v>
+      <c r="A79" s="41" t="s">
+        <v>727</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>574</v>
+        <v>728</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>575</v>
+        <v>729</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A80" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" s="41"/>
       <c r="B80" s="39" t="s">
-        <v>577</v>
+        <v>731</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>578</v>
+        <v>732</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="39"/>
-      <c r="F80" s="41" t="s">
-        <v>579</v>
+      <c r="F80" s="39" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="A81" s="41"/>
       <c r="B81" s="39" t="s">
-        <v>580</v>
+        <v>733</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>581</v>
+        <v>734</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A82" s="42" t="s">
-        <v>471</v>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>583</v>
+        <v>735</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>584</v>
+        <v>736</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>91</v>
@@ -10886,27 +11072,143 @@
       <c r="E82" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="41" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A83" s="42" t="s">
-        <v>471</v>
+      <c r="F82" s="40" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A83" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>586</v>
+        <v>181</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="39" t="s">
+      <c r="E83" s="39"/>
+      <c r="F83" s="40" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="D84" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F84" s="40" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D85" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E85" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F85" s="40" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A86" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="D86" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="40" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="D87" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F87" s="40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A88" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B88" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F88" s="40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A89" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B89" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" s="40" t="s">
         <v>588</v>
       </c>
     </row>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -3572,7 +3572,7 @@
     <col min="18" max="18" width="10.75" customWidth="1"/>
     <col min="19" max="19" width="9.25" customWidth="1"/>
     <col min="20" max="20" width="11.25" customWidth="1"/>
-    <col min="21" max="1030" width="8.75" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
@@ -6509,7 +6509,6 @@
     <col min="12" max="15" width="11.375" customWidth="1"/>
     <col min="16" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="19" width="10.5" customWidth="1"/>
-    <col min="20" max="1029" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -7130,18 +7129,12 @@
   </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>利用手順!$C$116:$C$118</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B6 B8:B23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>利用手順!$C$116:$C$118</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B4:B23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7159,9 +7152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7178,7 +7169,6 @@
     <col min="24" max="24" width="12.25" customWidth="1"/>
     <col min="25" max="25" width="24.75" customWidth="1"/>
     <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="1037" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
@@ -7770,9 +7760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7780,7 +7768,6 @@
     <col min="2" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="65.75" customWidth="1"/>
-    <col min="6" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -7862,9 +7849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F107"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7873,8 +7858,6 @@
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="68.375" customWidth="1"/>
-    <col min="7" max="1023" width="8.75" customWidth="1"/>
-    <col min="1024" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -9708,8 +9691,7 @@
     <col min="4" max="4" width="8.75" style="38" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="38" customWidth="1"/>
     <col min="6" max="6" width="52.125" style="38" customWidth="1"/>
-    <col min="7" max="1025" width="8.75" style="38" customWidth="1"/>
-    <col min="1026" max="16384" width="9" style="38"/>
+    <col min="7" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -11227,9 +11209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -11253,7 +11233,6 @@
     <col min="19" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
     <col min="22" max="22" width="26.625" customWidth="1"/>
-    <col min="23" max="1025" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -14170,7 +14149,7 @@
   </sheetData>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -14190,9 +14169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14216,7 +14193,6 @@
     <col min="19" max="20" width="9.5" customWidth="1"/>
     <col min="21" max="21" width="9.125" customWidth="1"/>
     <col min="22" max="22" width="28" customWidth="1"/>
-    <col min="23" max="1024" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
@@ -17193,9 +17169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
-    </sheetView>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17213,8 +17187,6 @@
     <col min="12" max="12" width="10.625" customWidth="1"/>
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="1022" width="8.75" customWidth="1"/>
-    <col min="1023" max="1025" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="796">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2442,110 +2442,198 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>VMNetwork.type</t>
+    <t>vm_conf.limit</t>
+  </si>
+  <si>
+    <t>vm_conf.shares_level</t>
+  </si>
+  <si>
+    <t>vm_conf.cpu_affinity</t>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>└─アダプタタイプ</t>
+    <t>vm_hot_add</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ネットワークアダプタタイプ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_conf</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>VMWare 設定カスタマイズ</t>
-    <rPh sb="7" eb="9">
+    <t>VMWare CPU/メモリ ホットアド設定</t>
+    <rPh sb="20" eb="22">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
-    <rPh sb="45" eb="47">
+    <t>Get-VM コマンドで VMWare CPU/メモリ ホットアド設定を検索</t>
+    <rPh sb="33" eb="35">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>vm_conf.limit</t>
-  </si>
-  <si>
-    <t>├─リソース制限</t>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>CPU,メモリリソース制限設定</t>
-    <rPh sb="11" eb="13">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セッテイ</t>
+    <t>vm.CpuHotAddEnabled</t>
+  </si>
+  <si>
+    <t>├─CPUホットアドの有効化</t>
+    <rPh sb="11" eb="14">
+      <t>ユウコウカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_conf.shares_level</t>
-  </si>
-  <si>
-    <t>├─シェアレベル</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPU,メモリ共有レベル設定</t>
-    <rPh sb="7" eb="9">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セッテイ</t>
+    <t>CPUホットアドの有効化</t>
+    <rPh sb="9" eb="12">
+      <t>ユウコウカ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_conf.cpu_affinity</t>
-  </si>
-  <si>
-    <t>└─CPUアフィニティ</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>CPUアフィニティ設定</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
+    <t>vm.MemoryReservationLockedToMax</t>
+  </si>
+  <si>
+    <t>├─すべてのゲストメモリを予約</t>
+    <rPh sb="13" eb="15">
+      <t>ヨヤク</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>すべてのゲストメモリを予約（全てロック）</t>
+    <rPh sb="11" eb="13">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm.MemoryHotAddEnabled</t>
+  </si>
+  <si>
+    <t>└─メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>└─メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>VMNetwork.type</t>
+  </si>
+  <si>
+    <t>└─アダプタタイプ</t>
+  </si>
+  <si>
+    <t>ネットワークアダプタタイプ</t>
+  </si>
+  <si>
+    <t>vm_conf</t>
+  </si>
+  <si>
+    <t>VMWare 設定カスタマイズ</t>
+  </si>
+  <si>
+    <t>Get-VMResourceConfiguration コマンドで、VMWare リソース設定を検索</t>
+  </si>
+  <si>
+    <t>├─リソース制限</t>
+  </si>
+  <si>
+    <t>CPU,メモリリソース制限設定</t>
+  </si>
+  <si>
+    <t>├─シェアレベル</t>
+  </si>
+  <si>
+    <t>CPU,メモリ共有レベル設定</t>
+  </si>
+  <si>
+    <t>└─CPUアフィニティ</t>
+  </si>
+  <si>
+    <t>CPUアフィニティ設定</t>
+  </si>
+  <si>
+    <t>vm_nic_limit</t>
+  </si>
+  <si>
+    <t>ネットワークアダプタ制限</t>
+  </si>
+  <si>
+    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
+  </si>
+  <si>
+    <t>vm_floppy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>フロッピーディスク構成</t>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vCenter</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Get-Vm $vm | Get-FloppyDriveコマンドで、フロッピィディスク構成を検索</t>
+    <rPh sb="43" eb="45">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>vm_nic_limit</t>
+    <t>vm_video_ram</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ネットワークアダプタ制限</t>
-    <rPh sb="10" eb="12">
-      <t>セイゲン</t>
+    <t>vm_video_ram</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ビデオRAM構成</t>
+    <rPh sb="6" eb="8">
+      <t>コウセイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>Get-VM コマンドで、ビデオ RAM メモリ割り当てを検索</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリホットプラグ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>vm_floppy</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
     <t>vCenter</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>Get-NetworkAdapter コマンドで、ネットワーク制限値を検索</t>
-    <rPh sb="31" eb="34">
-      <t>セイゲンチ</t>
-    </rPh>
+    <t>Get-VM コマンドで、ビデオ RAM メモリ割り当てを検索</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2626,7 +2714,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2765,8 +2853,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -3075,6 +3169,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3090,7 +3199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3228,6 +3337,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -7847,7 +7962,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F107"/>
+  <dimension ref="A3:F113"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
@@ -7889,451 +8004,453 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>766</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B15" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D15" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C16" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D16" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E16" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C21" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="C22" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="C23" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="B24" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B25" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>754</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="D16" s="42" t="s">
+      <c r="B26" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>760</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>761</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
-        <v>763</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>764</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="E26" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>766</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>767</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
+      <c r="F26" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="42" t="s">
+      <c r="B27" s="46" t="s">
+        <v>783</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>784</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="46" t="s">
+        <v>787</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>789</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>785</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>268</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="9" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="8"/>
+      <c r="A30" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B30" s="8" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="9" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -8341,267 +8458,265 @@
         <v>221</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="9" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>277</v>
+        <v>145</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="9" t="s">
-        <v>278</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
+      <c r="A34" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B34" s="8" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="9" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="9" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="9" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E41" s="8"/>
       <c r="F41" s="9" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="8"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B43" s="8" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="9" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B44" s="8" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="9" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
-        <v>306</v>
+        <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="9" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -8609,139 +8724,139 @@
         <v>221</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F47" s="9" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="B48" s="8" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E48" s="8"/>
       <c r="F48" s="9" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
-        <v>221</v>
-      </c>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="9" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="8" t="s">
-        <v>176</v>
+        <v>306</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B53" s="8" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="9" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B54" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F54" s="9" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -8749,33 +8864,35 @@
         <v>221</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="42"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="B56" s="8" t="s">
-        <v>739</v>
+        <v>320</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>740</v>
+        <v>321</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="9" t="s">
-        <v>741</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -8783,10 +8900,10 @@
         <v>221</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>84</v>
@@ -8795,108 +8912,98 @@
         <v>221</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>342</v>
-      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="42"/>
       <c r="B62" s="8" t="s">
-        <v>352</v>
+        <v>739</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>353</v>
+        <v>740</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="9" t="s">
-        <v>354</v>
+        <v>741</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
-        <v>339</v>
+        <v>221</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>84</v>
@@ -8905,453 +9012,457 @@
         <v>221</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B64" s="8" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E64" s="8"/>
+      <c r="E64" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F64" s="9" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="9" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B66" s="8" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E66" s="8"/>
       <c r="F66" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="8"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A67" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B67" s="8" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="9" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="8"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A68" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B68" s="8" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B69" s="8" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F69" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E70" s="8"/>
       <c r="F70" s="9" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="8"/>
       <c r="F72" s="9" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E73" s="8"/>
       <c r="F73" s="9" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="9" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="9" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="8"/>
       <c r="F76" s="9" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="9" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B79" s="8" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E79" s="8"/>
+      <c r="E79" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="F79" s="9" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E83" s="8"/>
       <c r="F83" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E84" s="8"/>
       <c r="F84" s="9" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E86" s="8"/>
       <c r="F86" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="48" x14ac:dyDescent="0.15">
+      <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E88" s="8"/>
       <c r="F88" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="42"/>
-      <c r="B89" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="D89" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="E89" s="42"/>
-      <c r="F89" s="43" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
-        <v>339</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="9" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -9359,17 +9470,17 @@
         <v>339</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>437</v>
+        <v>84</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="9" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -9377,33 +9488,35 @@
         <v>339</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="9" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="8"/>
+      <c r="A93" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B93" s="8" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="9" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -9411,53 +9524,51 @@
         <v>339</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="9" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="42"/>
+      <c r="B95" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E95" s="42"/>
+      <c r="F95" s="43" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="9" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -9465,17 +9576,17 @@
         <v>339</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>454</v>
+        <v>182</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>84</v>
+        <v>437</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="9" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -9483,53 +9594,51 @@
         <v>339</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>193</v>
+        <v>439</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="9" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="A99" s="8"/>
       <c r="B99" s="8" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="9" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -9537,124 +9646,232 @@
         <v>339</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="9" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="8"/>
+      <c r="A102" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="B102" s="8" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E102" s="8"/>
       <c r="F102" s="9" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="B103" s="42" t="s">
-        <v>743</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>742</v>
+      <c r="A103" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>455</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E103" s="42"/>
-      <c r="F103" s="43" t="s">
-        <v>744</v>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="42" t="s">
-        <v>747</v>
-      </c>
-      <c r="B104" s="42" t="s">
-        <v>748</v>
-      </c>
-      <c r="C104" s="42" t="s">
-        <v>749</v>
-      </c>
-      <c r="D104" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="E104" s="42"/>
-      <c r="F104" s="43" t="s">
-        <v>750</v>
+      <c r="A104" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>221</v>
-      </c>
+      <c r="E105" s="8"/>
       <c r="F105" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="8" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>84</v>
       </c>
       <c r="E107" s="8"/>
       <c r="F107" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>743</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="42"/>
+      <c r="F109" s="43" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" s="42" t="s">
+        <v>747</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>748</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>749</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>738</v>
+      </c>
+      <c r="E110" s="42"/>
+      <c r="F110" s="43" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A113" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9" t="s">
         <v>480</v>
       </c>
     </row>
@@ -9679,7 +9896,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F89"/>
+  <dimension ref="A4:F95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -9715,801 +9932,793 @@
       </c>
     </row>
     <row r="5" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="46"/>
+      <c r="F5" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="47" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="46"/>
+      <c r="F8" s="47" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="47" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="47" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>755</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>764</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B15" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C15" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D15" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E15" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="42" t="s">
+    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C16" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D16" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E16" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42" t="s">
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>772</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="s">
         <v>751</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C21" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>752</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="C22" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="D22" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="47" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="C23" s="46" t="s">
+        <v>778</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="47" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A24" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="B24" s="46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="B25" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>781</v>
+      </c>
+      <c r="D25" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="47" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B26" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A27" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>793</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>784</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="46" t="s">
         <v>754</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>755</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42" t="s">
-        <v>760</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>761</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42" t="s">
-        <v>763</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>764</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="B28" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>794</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>766</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>767</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>769</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="39" t="s">
+      <c r="B29" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C29" s="39" t="s">
         <v>272</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>486</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="40" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="39"/>
       <c r="B30" s="39" t="s">
-        <v>488</v>
+        <v>274</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>489</v>
+        <v>275</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="40" t="s">
-        <v>490</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="39"/>
       <c r="B31" s="39" t="s">
-        <v>491</v>
+        <v>175</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>492</v>
+        <v>277</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="39"/>
       <c r="F31" s="40" t="s">
-        <v>493</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A32" s="39"/>
       <c r="B32" s="39" t="s">
-        <v>494</v>
+        <v>186</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="40" t="s">
-        <v>496</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="39"/>
       <c r="B33" s="39" t="s">
-        <v>497</v>
+        <v>74</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="40" t="s">
-        <v>499</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="39"/>
+      <c r="A34" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B34" s="39" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="40" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="39"/>
       <c r="B35" s="39" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="40" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="39"/>
       <c r="B36" s="39" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="40" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A37" s="39"/>
       <c r="B37" s="39" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E37" s="39"/>
       <c r="F37" s="40" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
+      <c r="A38" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B38" s="39" t="s">
-        <v>184</v>
+        <v>494</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E38" s="39"/>
       <c r="F38" s="40" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="39"/>
       <c r="B39" s="39" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="D39" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="39"/>
       <c r="F39" s="40" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="39"/>
       <c r="B40" s="39" t="s">
-        <v>185</v>
+        <v>500</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D40" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E40" s="39"/>
       <c r="F40" s="40" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="39"/>
       <c r="B41" s="39" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D41" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="39"/>
       <c r="F41" s="40" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="39" t="s">
-        <v>683</v>
-      </c>
+      <c r="A42" s="39"/>
       <c r="B42" s="39" t="s">
-        <v>684</v>
+        <v>506</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>685</v>
+        <v>507</v>
       </c>
       <c r="D42" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E42" s="39"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="40" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="39"/>
+      <c r="A43" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B43" s="39" t="s">
-        <v>686</v>
+        <v>172</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>687</v>
+        <v>509</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="39"/>
-      <c r="F43" s="39" t="s">
-        <v>688</v>
+      <c r="F43" s="40" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="39" t="s">
-        <v>689</v>
+        <v>184</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>690</v>
+        <v>511</v>
       </c>
       <c r="D44" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="39"/>
-      <c r="F44" s="39" t="s">
-        <v>691</v>
+      <c r="F44" s="40" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="39"/>
       <c r="B45" s="39" t="s">
-        <v>692</v>
+        <v>513</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>693</v>
+        <v>514</v>
       </c>
       <c r="D45" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="39"/>
-      <c r="F45" s="39" t="s">
-        <v>694</v>
+      <c r="F45" s="40" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="A46" s="39"/>
       <c r="B46" s="39" t="s">
-        <v>521</v>
+        <v>185</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D46" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E46" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E46" s="39"/>
       <c r="F46" s="40" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="A47" s="39"/>
       <c r="B47" s="39" t="s">
-        <v>176</v>
+        <v>518</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E47" s="39"/>
       <c r="F47" s="40" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="39"/>
+      <c r="A48" s="39" t="s">
+        <v>683</v>
+      </c>
       <c r="B48" s="39" t="s">
-        <v>526</v>
+        <v>684</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="40" t="s">
-        <v>528</v>
-      </c>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="39"/>
       <c r="B49" s="39" t="s">
-        <v>529</v>
+        <v>686</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>530</v>
+        <v>687</v>
       </c>
       <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E49" s="39"/>
-      <c r="F49" s="40" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A50" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="F49" s="39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="39"/>
       <c r="B50" s="39" t="s">
-        <v>340</v>
+        <v>689</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>341</v>
+        <v>690</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F50" s="40" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A51" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
       <c r="B51" s="39" t="s">
-        <v>346</v>
+        <v>692</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>347</v>
+        <v>693</v>
       </c>
       <c r="D51" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="39"/>
-      <c r="F51" s="40" t="s">
-        <v>533</v>
+      <c r="F51" s="39" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -10517,10 +10726,10 @@
         <v>339</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>355</v>
+        <v>521</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>356</v>
+        <v>522</v>
       </c>
       <c r="D52" s="39" t="s">
         <v>91</v>
@@ -10529,156 +10738,160 @@
         <v>221</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="39"/>
+      <c r="A53" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B53" s="39" t="s">
-        <v>535</v>
+        <v>176</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D53" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="39"/>
+      <c r="E53" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="F53" s="40" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="39"/>
       <c r="B54" s="39" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D54" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="39"/>
       <c r="F54" s="40" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="A55" s="39"/>
       <c r="B55" s="39" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="C55" s="39" t="s">
-        <v>386</v>
+        <v>530</v>
       </c>
       <c r="D55" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="39"/>
+      <c r="F55" s="40" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A56" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F55" s="40" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A56" s="41" t="s">
-        <v>339</v>
-      </c>
       <c r="B56" s="39" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>542</v>
+        <v>341</v>
       </c>
       <c r="D56" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E56" s="39"/>
+      <c r="E56" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="F56" s="40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>151</v>
+        <v>347</v>
       </c>
       <c r="D57" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E57" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E57" s="39"/>
       <c r="F57" s="40" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B58" s="39" t="s">
-        <v>545</v>
+        <v>355</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="D58" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="39"/>
+      <c r="E58" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="F58" s="40" t="s">
-        <v>28</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="39"/>
       <c r="B59" s="39" t="s">
-        <v>191</v>
+        <v>535</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D59" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="39"/>
       <c r="F59" s="40" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="39"/>
       <c r="B60" s="39" t="s">
-        <v>190</v>
+        <v>538</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D60" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="39"/>
       <c r="F60" s="40" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="39" t="s">
-        <v>221</v>
+      <c r="A61" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>192</v>
+        <v>385</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>550</v>
+        <v>386</v>
       </c>
       <c r="D61" s="39" t="s">
         <v>91</v>
@@ -10687,38 +10900,36 @@
         <v>221</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A62" s="39" t="s">
-        <v>221</v>
+        <v>541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A62" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>552</v>
+        <v>349</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D62" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E62" s="39"/>
       <c r="F62" s="40" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="39" t="s">
         <v>221</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>695</v>
+        <v>189</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>696</v>
+        <v>151</v>
       </c>
       <c r="D63" s="39" t="s">
         <v>91</v>
@@ -10727,55 +10938,55 @@
         <v>221</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>697</v>
+        <v>544</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
       <c r="B64" s="39" t="s">
-        <v>698</v>
+        <v>545</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>699</v>
+        <v>300</v>
       </c>
       <c r="D64" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E64" s="39"/>
       <c r="F64" s="40" t="s">
-        <v>700</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="39"/>
       <c r="B65" s="39" t="s">
-        <v>701</v>
+        <v>191</v>
       </c>
       <c r="C65" s="39" t="s">
-        <v>702</v>
+        <v>546</v>
       </c>
       <c r="D65" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E65" s="39"/>
       <c r="F65" s="40" t="s">
-        <v>703</v>
+        <v>547</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="39"/>
       <c r="B66" s="39" t="s">
-        <v>704</v>
+        <v>190</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>705</v>
+        <v>548</v>
       </c>
       <c r="D66" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="40" t="s">
-        <v>706</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -10783,10 +10994,10 @@
         <v>221</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>707</v>
+        <v>550</v>
       </c>
       <c r="D67" s="39" t="s">
         <v>91</v>
@@ -10795,247 +11006,251 @@
         <v>221</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="39"/>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A68" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B68" s="39" t="s">
-        <v>709</v>
+        <v>552</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>710</v>
+        <v>553</v>
       </c>
       <c r="D68" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="39"/>
+      <c r="E68" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="F68" s="40" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="39"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A69" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B69" s="39" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="C69" s="39" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="D69" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="39"/>
+      <c r="E69" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="F69" s="40" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A70" s="39" t="s">
-        <v>221</v>
-      </c>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="39"/>
       <c r="B70" s="39" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="C70" s="39" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="D70" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="39"/>
       <c r="B71" s="39" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="C71" s="39" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="D71" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E71" s="39"/>
-      <c r="F71" s="39" t="s">
-        <v>720</v>
+      <c r="F71" s="40" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="39"/>
       <c r="B72" s="39" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="C72" s="39" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="D72" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="39"/>
-      <c r="F72" s="39" t="s">
-        <v>723</v>
+      <c r="F72" s="40" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="39"/>
+      <c r="A73" s="39" t="s">
+        <v>221</v>
+      </c>
       <c r="B73" s="39" t="s">
-        <v>724</v>
+        <v>177</v>
       </c>
       <c r="C73" s="39" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="D73" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="E73" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="39"/>
       <c r="B74" s="39" t="s">
-        <v>555</v>
+        <v>709</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>556</v>
+        <v>710</v>
       </c>
       <c r="D74" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40" t="s">
-        <v>557</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="A75" s="39"/>
       <c r="B75" s="39" t="s">
-        <v>558</v>
+        <v>712</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>559</v>
+        <v>713</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="39"/>
+      <c r="F75" s="40" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A76" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F75" s="40" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="41" t="s">
-        <v>339</v>
-      </c>
       <c r="B76" s="39" t="s">
-        <v>561</v>
+        <v>715</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>562</v>
+        <v>716</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="40" t="s">
-        <v>563</v>
+        <v>717</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="A77" s="39"/>
       <c r="B77" s="39" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="C77" s="39" t="s">
-        <v>353</v>
+        <v>719</v>
       </c>
       <c r="D77" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E77" s="39"/>
-      <c r="F77" s="40" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A78" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="F77" s="39" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="39"/>
       <c r="B78" s="39" t="s">
-        <v>566</v>
+        <v>721</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>567</v>
+        <v>722</v>
       </c>
       <c r="D78" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E78" s="39"/>
-      <c r="F78" s="40" t="s">
-        <v>568</v>
+      <c r="F78" s="39" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="41" t="s">
-        <v>727</v>
-      </c>
+      <c r="A79" s="39"/>
       <c r="B79" s="39" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C79" s="39" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D79" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E79" s="39"/>
-      <c r="F79" s="40" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="41"/>
+      <c r="F79" s="39" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+      <c r="A80" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B80" s="39" t="s">
-        <v>731</v>
+        <v>555</v>
       </c>
       <c r="C80" s="39" t="s">
-        <v>732</v>
+        <v>556</v>
       </c>
       <c r="D80" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E80" s="39"/>
-      <c r="F80" s="39" t="s">
-        <v>732</v>
+      <c r="F80" s="40" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="41"/>
+      <c r="A81" s="41" t="s">
+        <v>339</v>
+      </c>
       <c r="B81" s="39" t="s">
-        <v>733</v>
+        <v>558</v>
       </c>
       <c r="C81" s="39" t="s">
-        <v>734</v>
+        <v>559</v>
       </c>
       <c r="D81" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39" t="s">
-        <v>734</v>
+      <c r="E81" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" s="40" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -11043,126 +11258,114 @@
         <v>339</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>735</v>
+        <v>561</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>736</v>
+        <v>562</v>
       </c>
       <c r="D82" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E82" s="39"/>
       <c r="F82" s="40" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="36" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>181</v>
+        <v>564</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>569</v>
+        <v>353</v>
       </c>
       <c r="D83" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="40" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="41" t="s">
-        <v>339</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A84" s="39" t="s">
+        <v>221</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D84" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E84" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E84" s="39"/>
       <c r="F84" s="40" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="41" t="s">
-        <v>339</v>
+        <v>727</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>574</v>
+        <v>728</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>575</v>
+        <v>729</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E85" s="39" t="s">
-        <v>221</v>
-      </c>
+      <c r="E85" s="39"/>
       <c r="F85" s="40" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A86" s="41" t="s">
-        <v>339</v>
-      </c>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="41"/>
       <c r="B86" s="39" t="s">
-        <v>577</v>
+        <v>731</v>
       </c>
       <c r="C86" s="39" t="s">
-        <v>578</v>
+        <v>732</v>
       </c>
       <c r="D86" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="39"/>
-      <c r="F86" s="40" t="s">
-        <v>579</v>
+      <c r="F86" s="39" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="41" t="s">
-        <v>339</v>
-      </c>
+      <c r="A87" s="41"/>
       <c r="B87" s="39" t="s">
-        <v>580</v>
+        <v>733</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>581</v>
+        <v>734</v>
       </c>
       <c r="D87" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E87" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="F87" s="40" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="E87" s="39"/>
+      <c r="F87" s="39" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="41" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>583</v>
+        <v>735</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>584</v>
+        <v>736</v>
       </c>
       <c r="D88" s="39" t="s">
         <v>91</v>
@@ -11171,26 +11374,142 @@
         <v>221</v>
       </c>
       <c r="F88" s="40" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A89" s="41" t="s">
-        <v>471</v>
+        <v>339</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>586</v>
+        <v>181</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="D89" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="39" t="s">
+      <c r="E89" s="39"/>
+      <c r="F89" s="40" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="C90" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F90" s="40" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A92" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B92" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="C92" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="D92" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="39"/>
+      <c r="F92" s="40" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E93" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A94" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B94" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="D94" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E94" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A95" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="B95" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="D95" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E95" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F95" s="40" t="s">
         <v>588</v>
       </c>
     </row>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="705">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -313,19 +313,10 @@
     <t>192.168.0.20</t>
   </si>
   <si>
-    <t>RH7</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>win2012</t>
-  </si>
-  <si>
-    <t>192.168.0.24</t>
-  </si>
-  <si>
-    <t>w2012</t>
   </si>
   <si>
     <t>4. 設定ファイル(config.groovy)編集</t>
@@ -2119,6 +2110,82 @@
   </si>
   <si>
     <t>ネットワークI/F</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>cent7g</t>
+  </si>
+  <si>
+    <t>192.168.10.100</t>
+  </si>
+  <si>
+    <t>datastore2</t>
+  </si>
+  <si>
+    <t>192.168.0.70</t>
+  </si>
+  <si>
+    <t>192.168.0.27</t>
+  </si>
+  <si>
+    <t>P@ssw0rd</t>
+  </si>
+  <si>
+    <t>OracleLinuxカーネルモード</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>oracle_linux_kernel</t>
+  </si>
+  <si>
+    <t>Oracle Linux起動カーネル選択(UEK/RH互換)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>RH6_sample</t>
+  </si>
+  <si>
+    <t>RH7_sample</t>
+  </si>
+  <si>
+    <t>Windows_sample</t>
+  </si>
+  <si>
+    <t>NICチーミング設定</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>nic_teaming_config</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Get-NetLbfoTeam コマンドで、NICチーミング(NetLBFO)設定を検索</t>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント制御</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>user_account_control</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>以下レジストリからユーザアカウント制御を検索
+"HKLM:\SOFTWARE\Microsoft\Windows\CurrentVersion\Policies\System"</t>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -2629,7 +2696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2770,6 +2837,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4327,30 +4400,30 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A49" s="25"/>
       <c r="B49" s="27"/>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47" t="s">
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47" t="s">
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="49"/>
       <c r="U49" s="25"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.15">
@@ -4491,14 +4564,12 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>84</v>
+        <v>695</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>88</v>
-      </c>
+      <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
       <c r="L52" s="29"/>
@@ -4530,23 +4601,37 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>90</v>
+        <v>696</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="I53" s="27" t="s">
+        <v>686</v>
+      </c>
       <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
+      <c r="K53" s="27">
+        <v>1</v>
+      </c>
+      <c r="L53" s="27">
+        <v>4</v>
+      </c>
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
+      <c r="Q53" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R53" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S53" s="27">
+        <v>1</v>
+      </c>
+      <c r="T53" s="27">
+        <v>4</v>
+      </c>
       <c r="U53" s="25"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.15">
@@ -4555,35 +4640,47 @@
         <v>3</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>92</v>
+        <v>686</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>93</v>
+        <v>689</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>91</v>
+        <v>696</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>94</v>
+        <v>686</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
+      <c r="K54" s="27">
+        <v>1</v>
+      </c>
+      <c r="L54" s="27">
+        <v>3</v>
+      </c>
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
+      <c r="Q54" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R54" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S54" s="27">
+        <v>1</v>
+      </c>
+      <c r="T54" s="27">
+        <v>3</v>
+      </c>
       <c r="U54" s="25"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.15">
@@ -4591,24 +4688,50 @@
       <c r="B55" s="27">
         <v>4</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>91</v>
+      </c>
       <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
+      <c r="J55" s="27" t="s">
+        <v>691</v>
+      </c>
+      <c r="K55" s="27">
+        <v>1</v>
+      </c>
+      <c r="L55" s="27">
+        <v>4</v>
+      </c>
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="27"/>
-      <c r="T55" s="27"/>
+      <c r="Q55" s="27" t="s">
+        <v>687</v>
+      </c>
+      <c r="R55" s="27" t="s">
+        <v>688</v>
+      </c>
+      <c r="S55" s="27">
+        <v>1</v>
+      </c>
+      <c r="T55" s="27">
+        <v>4</v>
+      </c>
       <c r="U55" s="25"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.15">
@@ -4786,7 +4909,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A63" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
@@ -4835,7 +4958,7 @@
     <row r="65" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A65" s="25"/>
       <c r="B65" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4884,7 +5007,7 @@
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
@@ -4931,7 +5054,7 @@
     <row r="69" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A69" s="25"/>
       <c r="B69" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4980,7 +5103,7 @@
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
@@ -5028,7 +5151,7 @@
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
@@ -5053,7 +5176,7 @@
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
@@ -5078,7 +5201,7 @@
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
@@ -5126,7 +5249,7 @@
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
@@ -5174,7 +5297,7 @@
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D79" s="25"/>
       <c r="E79" s="25"/>
@@ -5199,7 +5322,7 @@
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D80" s="25"/>
       <c r="E80" s="25"/>
@@ -5224,7 +5347,7 @@
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="25"/>
@@ -5272,7 +5395,7 @@
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D83" s="25"/>
       <c r="E83" s="25"/>
@@ -5320,7 +5443,7 @@
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D85" s="25"/>
       <c r="E85" s="25"/>
@@ -5345,7 +5468,7 @@
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -5391,7 +5514,7 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
@@ -5440,7 +5563,7 @@
     <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="25"/>
       <c r="B90" s="25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
@@ -5489,7 +5612,7 @@
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22"/>
@@ -5535,7 +5658,7 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -5584,7 +5707,7 @@
     <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="25"/>
       <c r="B96" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
@@ -5633,7 +5756,7 @@
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
@@ -5680,7 +5803,7 @@
     <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="25"/>
       <c r="B100" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -5705,7 +5828,7 @@
     <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="25"/>
       <c r="B101" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -5754,7 +5877,7 @@
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22"/>
@@ -5801,7 +5924,7 @@
     <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="25"/>
       <c r="B105" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -5850,7 +5973,7 @@
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D107" s="25"/>
       <c r="E107" s="25"/>
@@ -5875,7 +5998,7 @@
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="22"/>
@@ -5923,7 +6046,7 @@
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D110" s="25"/>
       <c r="E110" s="25"/>
@@ -5948,7 +6071,7 @@
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
@@ -5994,20 +6117,20 @@
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C117" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C118" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6069,16 +6192,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6146,61 +6269,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6218,13 +6341,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6236,37 +6359,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="P3" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="S3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6286,26 +6409,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6325,7 +6448,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6333,14 +6456,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6360,7 +6483,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6368,14 +6491,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6395,7 +6518,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6406,7 +6529,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6435,7 +6558,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9022,16 +9145,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9099,61 +9222,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9168,16 +9291,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9190,30 +9313,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9233,26 +9356,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9272,7 +9395,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9283,7 +9406,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9303,7 +9426,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9314,7 +9437,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9334,7 +9457,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9345,7 +9468,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9374,7 +9497,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9403,7 +9526,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9432,7 +9555,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9461,7 +9584,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9490,7 +9613,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9519,7 +9642,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9548,7 +9671,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9577,7 +9700,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9606,7 +9729,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9635,7 +9758,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9664,7 +9787,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9693,7 +9816,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9722,7 +9845,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9751,7 +9874,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9780,7 +9903,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9809,7 +9932,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9838,7 +9961,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -9867,7 +9990,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -9896,7 +10019,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -9925,7 +10048,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -9954,7 +10077,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -9983,7 +10106,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10012,7 +10135,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10041,7 +10164,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10070,7 +10193,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10099,7 +10222,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10128,7 +10251,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10157,7 +10280,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10186,7 +10309,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10215,7 +10338,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12012,46 +12135,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -12065,37 +12188,37 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12109,13 +12232,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12124,20 +12247,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12153,16 +12276,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12178,7 +12301,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12199,7 +12322,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12220,7 +12343,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14070,30 +14193,30 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
@@ -14131,19 +14254,19 @@
         <v>58</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>56</v>
@@ -14187,22 +14310,22 @@
         <v>75</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>82</v>
@@ -14268,8 +14391,8 @@
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -14291,7 +14414,7 @@
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -14730,90 +14853,90 @@
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>66</v>
@@ -14841,40 +14964,40 @@
       <c r="V4" s="30"/>
       <c r="W4" s="30"/>
       <c r="X4" s="30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Z4" s="31" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L5" s="32"/>
       <c r="M5" s="32"/>
@@ -14891,12 +15014,12 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="30"/>
       <c r="Z5" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -14905,48 +15028,48 @@
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>75</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>180</v>
       </c>
       <c r="T6" s="30"/>
       <c r="U6" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V6" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="W6" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X6" s="30"/>
       <c r="Y6" s="30"/>
@@ -14956,7 +15079,7 @@
     </row>
     <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -14965,66 +15088,66 @@
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J7" s="30" t="s">
         <v>74</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="S7" s="30" t="s">
         <v>189</v>
-      </c>
-      <c r="Q7" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="R7" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>192</v>
       </c>
       <c r="T7" s="30"/>
       <c r="U7" s="30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -15034,14 +15157,14 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -15049,12 +15172,12 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -15070,14 +15193,14 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -15085,24 +15208,24 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="30" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -15112,14 +15235,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15127,7 +15250,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15330,33 +15453,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15404,9 +15527,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G86"/>
+  <dimension ref="A3:G87"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15432,1714 +15557,1733 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>261</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>272</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>306</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>316</v>
+        <v>692</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>317</v>
+        <v>693</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10" t="s">
-        <v>318</v>
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B36" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>47</v>
+        <v>300</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="9"/>
+      <c r="A42" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A43" s="9"/>
       <c r="B43" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="9"/>
+      <c r="A47" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="A48" s="9" t="s">
-        <v>324</v>
-      </c>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="9"/>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>355</v>
+        <v>84</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>358</v>
+        <v>179</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>84</v>
+        <v>352</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="9"/>
+      <c r="A51" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>375</v>
+        <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>383</v>
+        <v>190</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>351</v>
+        <v>84</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="10" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="E60" s="9" t="s">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>382</v>
+      </c>
       <c r="B61" s="9" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="10" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>187</v>
+        <v>392</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="10" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="10" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>402</v>
+        <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67" s="9"/>
+      <c r="A67" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B67" s="9" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>411</v>
+        <v>75</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>413</v>
-      </c>
       <c r="D69" s="9" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="10" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>179</v>
+        <v>415</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="10" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>423</v>
+        <v>176</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>189</v>
+        <v>420</v>
       </c>
       <c r="E73" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>429</v>
+        <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G74" s="10" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E75" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F75" s="9"/>
       <c r="G75" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F76" s="9"/>
       <c r="G76" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="9"/>
+      <c r="A77" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="B77" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E77" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F77" s="9"/>
       <c r="G77" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>176</v>
+        <v>438</v>
       </c>
       <c r="E79" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>447</v>
+        <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>321</v>
+      </c>
       <c r="B82" s="9" t="s">
-        <v>158</v>
+        <v>446</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G82" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="A83" s="9"/>
       <c r="B83" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E83" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>241</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>459</v>
+        <v>321</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>460</v>
+        <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E84" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="E85" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>238</v>
+      </c>
       <c r="G85" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E86" s="9" t="s">
         <v>84</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0" cellComments="asDisplayed"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -17157,7 +17301,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G84"/>
+  <dimension ref="A4:G86"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
@@ -17176,944 +17320,944 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F5" s="40"/>
       <c r="G5" s="41" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="41" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="41" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="41" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="43" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>261</v>
-      </c>
       <c r="D17" s="40" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" s="41" t="s">
         <v>272</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>276</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B24" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>283</v>
-      </c>
       <c r="D24" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="41" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="41" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="41" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E30" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="45"/>
       <c r="G30" s="46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>473</v>
-      </c>
       <c r="D31" s="45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E31" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="45"/>
       <c r="G31" s="46" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C32" s="45" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="45"/>
       <c r="G32" s="46" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="45"/>
       <c r="G33" s="45" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C34" s="45" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="45"/>
       <c r="G34" s="46" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E35" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F35" s="45"/>
       <c r="G35" s="46" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C36" s="45" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E36" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="45"/>
       <c r="G36" s="45" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C37" s="45" t="s">
         <v>483</v>
       </c>
-      <c r="C37" s="45" t="s">
-        <v>486</v>
-      </c>
       <c r="D37" s="45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E37" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="45"/>
       <c r="G37" s="45" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C38" s="45" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E38" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38" s="45"/>
       <c r="G38" s="45" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C39" s="45" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="45"/>
       <c r="G39" s="45" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C40" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E40" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="45"/>
       <c r="G40" s="46" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C41" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="45"/>
       <c r="G41" s="46" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C42" s="45" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E42" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="45"/>
       <c r="G42" s="46" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C43" s="45" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="45"/>
       <c r="G43" s="46" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C44" s="45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E44" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F44" s="45"/>
       <c r="G44" s="46" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E45" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="45"/>
       <c r="G45" s="46" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E46" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E47" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F47" s="45"/>
       <c r="G47" s="46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E48" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="45"/>
       <c r="G48" s="46" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E49" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="45"/>
       <c r="G49" s="46" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E50" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="45"/>
       <c r="G50" s="46" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18122,17 +18266,17 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E51" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="45"/>
       <c r="G51" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18141,705 +18285,749 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E52" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F52" s="45"/>
       <c r="G52" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E53" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F53" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="45"/>
       <c r="G56" s="46" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G57" s="38" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G58" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A59" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="45"/>
       <c r="G59" s="46" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="45" t="s">
-        <v>324</v>
+      <c r="A60" s="48" t="s">
+        <v>701</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>529</v>
+        <v>702</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>530</v>
+        <v>703</v>
       </c>
       <c r="E60" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F60" s="45"/>
       <c r="G60" s="46" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45" t="s">
-        <v>393</v>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>394</v>
+        <v>526</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>395</v>
+        <v>527</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F61" s="45"/>
       <c r="G61" s="46" t="s">
-        <v>396</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="E62" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62" s="45"/>
       <c r="G62" s="46" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E63" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="45"/>
       <c r="G63" s="46" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45"/>
       <c r="B64" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>146</v>
+        <v>399</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E64" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="45"/>
       <c r="G64" s="46" t="s">
-        <v>146</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="E65" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="45"/>
       <c r="G65" s="46" t="s">
-        <v>399</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="45" t="s">
-        <v>241</v>
-      </c>
+      <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>405</v>
+        <v>74</v>
       </c>
       <c r="E66" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="45"/>
       <c r="G66" s="46" t="s">
-        <v>532</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
+      <c r="A67" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="B67" s="45" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>533</v>
+        <v>401</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="E67" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="45"/>
       <c r="G67" s="46" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45"/>
       <c r="B68" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>536</v>
+        <v>185</v>
       </c>
       <c r="E68" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F68" s="45"/>
       <c r="G68" s="46" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45"/>
       <c r="B69" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E69" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="45"/>
       <c r="G69" s="46" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="45" t="s">
-        <v>241</v>
-      </c>
+      <c r="A70" s="45"/>
       <c r="B70" s="45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>413</v>
+        <v>535</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E70" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" s="45"/>
       <c r="G70" s="46" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>543</v>
+        <v>410</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F71" s="45"/>
       <c r="G71" s="46" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>192</v>
+        <v>541</v>
       </c>
       <c r="E72" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="45" t="s">
-        <v>241</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F72" s="45"/>
       <c r="G72" s="46" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>548</v>
+        <v>698</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>549</v>
+        <v>699</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="G73" s="46" t="s">
-        <v>550</v>
+        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>151</v>
+        <v>543</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F74" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G74" s="46" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>688</v>
+        <v>413</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G76" s="46" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>549</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>685</v>
+      </c>
+      <c r="C78" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="D78" s="45" t="s">
         <v>553</v>
       </c>
-      <c r="E75" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G75" s="46" t="s">
+      <c r="E78" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" s="46" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A76" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="C76" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="D76" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="E76" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A77" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B77" s="45" t="s">
-        <v>688</v>
-      </c>
-      <c r="C77" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="D77" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A78" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="B78" s="45" t="s">
-        <v>687</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="D78" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>427</v>
+        <v>685</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G79" s="46" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>562</v>
+        <v>684</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="G80" s="46" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>562</v>
+        <v>424</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>446</v>
+        <v>557</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>447</v>
+        <v>173</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G81" s="46" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>449</v>
+        <v>559</v>
       </c>
       <c r="C82" s="45" t="s">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>451</v>
+        <v>561</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="45" t="s">
-        <v>241</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F82" s="45"/>
       <c r="G82" s="46" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>158</v>
+        <v>559</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" s="45" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G83" s="46" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B84" s="45" t="s">
+        <v>446</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="46" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" s="46" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G86" s="46" t="s">
         <v>569</v>
-      </c>
-      <c r="C84" s="45" t="s">
-        <v>570</v>
-      </c>
-      <c r="D84" s="45" t="s">
-        <v>571</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -18894,16 +19082,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -18971,61 +19159,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19037,39 +19225,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>612</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>614</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19089,7 +19277,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19097,14 +19285,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19124,7 +19312,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19135,7 +19323,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19155,7 +19343,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19166,7 +19354,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19186,7 +19374,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -21817,16 +22005,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -21894,61 +22082,61 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>600</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>602</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -21963,16 +22151,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -21985,30 +22173,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22028,26 +22216,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22067,7 +22255,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22078,7 +22266,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22098,7 +22286,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22109,7 +22297,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22129,7 +22317,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22140,7 +22328,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22169,7 +22357,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22198,7 +22386,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22227,7 +22415,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22256,7 +22444,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22285,7 +22473,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22314,7 +22502,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22343,7 +22531,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22372,7 +22560,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22401,7 +22589,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22430,7 +22618,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22459,7 +22647,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22488,7 +22676,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22517,7 +22705,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22546,7 +22734,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22575,7 +22763,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22604,7 +22792,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22633,7 +22821,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22662,7 +22850,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22691,7 +22879,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22720,7 +22908,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -22749,7 +22937,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -22778,7 +22966,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -22807,7 +22995,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -22836,7 +23024,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -22865,7 +23053,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -22894,7 +23082,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -22923,7 +23111,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -22952,7 +23140,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -22981,7 +23169,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23010,7 +23198,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -24815,46 +25003,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -24868,37 +25056,37 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -24909,24 +25097,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -24942,16 +25130,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -24967,7 +25155,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -24988,7 +25176,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25009,7 +25197,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -15530,7 +15530,7 @@
   <dimension ref="A3:G87"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15539,8 +15539,9 @@
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="68.375" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -15566,13 +15567,13 @@
         <v>213</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -15586,12 +15587,12 @@
       <c r="D5" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -15605,12 +15606,12 @@
       <c r="D6" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -15624,12 +15625,12 @@
       <c r="D7" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -15643,12 +15644,12 @@
       <c r="D8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -15662,12 +15663,12 @@
       <c r="D9" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -15681,12 +15682,12 @@
       <c r="D10" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -15702,12 +15703,12 @@
       <c r="D11" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -15721,12 +15722,12 @@
       <c r="D12" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -15740,12 +15741,12 @@
       <c r="D13" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -15759,12 +15760,12 @@
       <c r="D14" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -15780,12 +15781,12 @@
       <c r="D15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -15799,12 +15800,12 @@
       <c r="D16" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -15818,12 +15819,12 @@
       <c r="D17" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -15837,12 +15838,12 @@
       <c r="D18" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -15858,12 +15859,12 @@
       <c r="D19" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -15880,13 +15881,13 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -15903,13 +15904,13 @@
         <v>271</v>
       </c>
       <c r="E21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -15926,13 +15927,13 @@
         <v>275</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -15946,12 +15947,12 @@
       <c r="D23" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -15967,12 +15968,12 @@
       <c r="D24" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -15988,12 +15989,12 @@
       <c r="D25" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -16009,12 +16010,12 @@
       <c r="D26" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -16030,12 +16031,12 @@
       <c r="D27" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -16051,12 +16052,12 @@
       <c r="D28" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -16072,12 +16073,12 @@
       <c r="D29" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -16093,12 +16094,12 @@
       <c r="D30" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -16114,12 +16115,12 @@
       <c r="D31" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G31" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -16135,12 +16136,12 @@
       <c r="D32" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -16154,12 +16155,12 @@
       <c r="D33" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -16173,12 +16174,12 @@
       <c r="D34" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="9"/>
+      <c r="F34" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -16192,12 +16193,12 @@
       <c r="D35" s="9" t="s">
         <v>693</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="9"/>
+      <c r="F35" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -16213,12 +16214,12 @@
       <c r="D36" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -16232,12 +16233,12 @@
       <c r="D37" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -16251,12 +16252,12 @@
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
@@ -16272,12 +16273,12 @@
       <c r="D39" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16293,12 +16294,12 @@
       <c r="D40" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16314,12 +16315,12 @@
       <c r="D41" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -16335,12 +16336,12 @@
       <c r="D42" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="9"/>
+      <c r="F42" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -16354,12 +16355,12 @@
       <c r="D43" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -16375,12 +16376,12 @@
       <c r="D44" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -16396,12 +16397,12 @@
       <c r="D45" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="9"/>
+      <c r="F45" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -16417,12 +16418,12 @@
       <c r="D46" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -16438,12 +16439,12 @@
       <c r="D47" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -16457,12 +16458,12 @@
       <c r="D48" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16478,12 +16479,12 @@
       <c r="D49" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -16499,12 +16500,12 @@
       <c r="D50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -16520,12 +16521,12 @@
       <c r="D51" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -16539,12 +16540,12 @@
       <c r="D52" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="9"/>
+      <c r="F52" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -16560,12 +16561,12 @@
       <c r="D53" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -16581,12 +16582,12 @@
       <c r="D54" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -16602,12 +16603,12 @@
       <c r="D55" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -16623,12 +16624,12 @@
       <c r="D56" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="9"/>
+      <c r="F56" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -16644,12 +16645,12 @@
       <c r="D57" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="9"/>
+      <c r="F57" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -16665,12 +16666,12 @@
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -16686,12 +16687,12 @@
       <c r="D59" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -16707,12 +16708,12 @@
       <c r="D60" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -16728,12 +16729,12 @@
       <c r="D61" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -16747,12 +16748,12 @@
       <c r="D62" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -16766,12 +16767,12 @@
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -16785,12 +16786,12 @@
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="10" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -16804,12 +16805,12 @@
       <c r="D65" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="9"/>
+      <c r="F65" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -16823,12 +16824,12 @@
       <c r="D66" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="9"/>
+      <c r="F66" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G66" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -16844,12 +16845,12 @@
       <c r="D67" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G67" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -16863,12 +16864,12 @@
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="9"/>
+      <c r="F68" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G68" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -16882,12 +16883,12 @@
       <c r="D69" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="9"/>
+      <c r="F69" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -16903,12 +16904,12 @@
       <c r="D70" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="9"/>
+      <c r="F70" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="10" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -16924,12 +16925,12 @@
       <c r="D71" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="9"/>
+      <c r="F71" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -16945,12 +16946,12 @@
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -16967,13 +16968,13 @@
         <v>420</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -16990,13 +16991,13 @@
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -17012,12 +17013,12 @@
       <c r="D75" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="10" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -17033,12 +17034,12 @@
       <c r="D76" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G76" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="10" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -17054,12 +17055,12 @@
       <c r="D77" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="9"/>
+      <c r="F77" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="10" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -17073,12 +17074,12 @@
       <c r="D78" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="10" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -17095,13 +17096,13 @@
         <v>438</v>
       </c>
       <c r="E79" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G79" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -17118,13 +17119,13 @@
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G80" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -17141,13 +17142,13 @@
         <v>444</v>
       </c>
       <c r="E81" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -17164,13 +17165,13 @@
         <v>448</v>
       </c>
       <c r="E82" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -17184,12 +17185,12 @@
       <c r="D83" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -17206,13 +17207,13 @@
         <v>454</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -17229,13 +17230,13 @@
         <v>459</v>
       </c>
       <c r="E85" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -17251,12 +17252,12 @@
       <c r="D86" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="9"/>
+      <c r="F86" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="10" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -17272,12 +17273,12 @@
       <c r="D87" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="10" t="s">
-        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -17310,9 +17311,9 @@
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="37.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="60.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17329,13 +17330,13 @@
         <v>213</v>
       </c>
       <c r="E4" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -17349,12 +17350,12 @@
       <c r="D5" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="40"/>
+      <c r="F5" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -17368,12 +17369,12 @@
       <c r="D6" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -17387,12 +17388,12 @@
       <c r="D7" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -17406,12 +17407,12 @@
       <c r="D8" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="G8" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -17425,12 +17426,12 @@
       <c r="D9" s="40" t="s">
         <v>233</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="40"/>
+      <c r="F9" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -17444,12 +17445,12 @@
       <c r="D10" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="40"/>
+      <c r="F10" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -17465,12 +17466,12 @@
       <c r="D11" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -17484,12 +17485,12 @@
       <c r="D12" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -17503,12 +17504,12 @@
       <c r="D13" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="40"/>
+      <c r="F13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -17522,12 +17523,12 @@
       <c r="D14" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -17543,12 +17544,12 @@
       <c r="D15" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="G15" s="42" t="s">
         <v>222</v>
-      </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -17562,12 +17563,12 @@
       <c r="D16" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="40"/>
+      <c r="F16" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G16" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -17581,12 +17582,12 @@
       <c r="D17" s="40" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -17600,12 +17601,12 @@
       <c r="D18" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -17621,12 +17622,12 @@
       <c r="D19" s="40" t="s">
         <v>265</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -17643,13 +17644,13 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -17666,13 +17667,13 @@
         <v>271</v>
       </c>
       <c r="E21" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -17689,13 +17690,13 @@
         <v>275</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -17709,12 +17710,12 @@
       <c r="D23" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G23" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -17730,12 +17731,12 @@
       <c r="D24" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -17751,12 +17752,12 @@
       <c r="D25" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="40"/>
+      <c r="F25" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -17772,12 +17773,12 @@
       <c r="D26" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="40"/>
+      <c r="F26" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -17793,12 +17794,12 @@
       <c r="D27" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G27" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -17814,12 +17815,12 @@
       <c r="D28" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="40"/>
+      <c r="F28" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -17835,12 +17836,12 @@
       <c r="D29" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="40"/>
+      <c r="F29" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="40" t="s">
         <v>222</v>
-      </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17854,12 +17855,12 @@
       <c r="D30" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="45"/>
+      <c r="F30" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="G30" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="46" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17873,12 +17874,12 @@
       <c r="D31" s="45" t="s">
         <v>471</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="45"/>
+      <c r="F31" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="G31" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17892,12 +17893,12 @@
       <c r="D32" s="45" t="s">
         <v>473</v>
       </c>
-      <c r="E32" s="45" t="s">
+      <c r="E32" s="45"/>
+      <c r="F32" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="46" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17911,12 +17912,12 @@
       <c r="D33" s="45" t="s">
         <v>475</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="45"/>
+      <c r="F33" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="G33" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17930,12 +17931,12 @@
       <c r="D34" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="45"/>
+      <c r="F34" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="G34" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="46" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17951,12 +17952,12 @@
       <c r="D35" s="45" t="s">
         <v>478</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="45"/>
+      <c r="F35" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="G35" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="46" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17970,12 +17971,12 @@
       <c r="D36" s="45" t="s">
         <v>482</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="G36" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -17989,12 +17990,12 @@
       <c r="D37" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="45"/>
+      <c r="F37" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18008,12 +18009,12 @@
       <c r="D38" s="45" t="s">
         <v>487</v>
       </c>
-      <c r="E38" s="45" t="s">
+      <c r="E38" s="45"/>
+      <c r="F38" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="G38" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18027,12 +18028,12 @@
       <c r="D39" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18048,12 +18049,12 @@
       <c r="D40" s="45" t="s">
         <v>493</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="46" t="s">
+        <v>494</v>
+      </c>
+      <c r="G40" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="46" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18067,12 +18068,12 @@
       <c r="D41" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="45"/>
+      <c r="F41" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="G41" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="46" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18086,12 +18087,12 @@
       <c r="D42" s="45" t="s">
         <v>497</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="45"/>
+      <c r="F42" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18105,12 +18106,12 @@
       <c r="D43" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="45"/>
+      <c r="F43" s="46" t="s">
+        <v>499</v>
+      </c>
+      <c r="G43" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18124,12 +18125,12 @@
       <c r="D44" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="45"/>
+      <c r="F44" s="46" t="s">
+        <v>502</v>
+      </c>
+      <c r="G44" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18145,12 +18146,12 @@
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="45"/>
+      <c r="F45" s="46" t="s">
+        <v>504</v>
+      </c>
+      <c r="G45" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18167,13 +18168,13 @@
         <v>506</v>
       </c>
       <c r="E46" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="46" t="s">
+        <v>507</v>
+      </c>
+      <c r="G46" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F46" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18189,12 +18190,12 @@
       <c r="D47" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="G47" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18210,12 +18211,12 @@
       <c r="D48" s="45" t="s">
         <v>510</v>
       </c>
-      <c r="E48" s="45" t="s">
+      <c r="E48" s="45"/>
+      <c r="F48" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="G48" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18231,12 +18232,12 @@
       <c r="D49" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="46" t="s">
+        <v>514</v>
+      </c>
+      <c r="G49" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18252,12 +18253,12 @@
       <c r="D50" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="E50" s="45" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="46" t="s">
+        <v>518</v>
+      </c>
+      <c r="G50" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F50" s="45"/>
-      <c r="G50" s="46" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18271,12 +18272,12 @@
       <c r="D51" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E51" s="45"/>
+      <c r="F51" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="G51" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18290,12 +18291,12 @@
       <c r="D52" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="E52" s="45" t="s">
+      <c r="E52" s="45"/>
+      <c r="F52" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="G52" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18312,13 +18313,13 @@
         <v>524</v>
       </c>
       <c r="E53" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="G53" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18335,13 +18336,13 @@
         <v>574</v>
       </c>
       <c r="E54" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>575</v>
+      </c>
+      <c r="G54" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18358,13 +18359,13 @@
         <v>577</v>
       </c>
       <c r="E55" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>578</v>
+      </c>
+      <c r="G55" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F55" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18380,12 +18381,12 @@
       <c r="D56" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="E56" s="45" t="s">
+      <c r="E56" s="45"/>
+      <c r="F56" s="46" t="s">
+        <v>581</v>
+      </c>
+      <c r="G56" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -18402,13 +18403,13 @@
         <v>583</v>
       </c>
       <c r="E57" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="G57" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G57" s="38" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -18425,13 +18426,13 @@
         <v>586</v>
       </c>
       <c r="E58" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="G58" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="38" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18447,12 +18448,12 @@
       <c r="D59" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="45"/>
+      <c r="F59" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="G59" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18468,12 +18469,12 @@
       <c r="D60" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="45"/>
+      <c r="F60" s="46" t="s">
+        <v>704</v>
+      </c>
+      <c r="G60" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F60" s="45"/>
-      <c r="G60" s="46" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18489,12 +18490,12 @@
       <c r="D61" s="45" t="s">
         <v>527</v>
       </c>
-      <c r="E61" s="45" t="s">
+      <c r="E61" s="45"/>
+      <c r="F61" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="46" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18508,12 +18509,12 @@
       <c r="D62" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="45"/>
+      <c r="F62" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G62" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="46" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18527,12 +18528,12 @@
       <c r="D63" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="45"/>
+      <c r="F63" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F63" s="45"/>
-      <c r="G63" s="46" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18546,12 +18547,12 @@
       <c r="D64" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="45"/>
+      <c r="F64" s="46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F64" s="45"/>
-      <c r="G64" s="46" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18565,12 +18566,12 @@
       <c r="D65" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="45"/>
+      <c r="F65" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F65" s="45"/>
-      <c r="G65" s="46" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18584,12 +18585,12 @@
       <c r="D66" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="45"/>
+      <c r="F66" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G66" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F66" s="45"/>
-      <c r="G66" s="46" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18605,12 +18606,12 @@
       <c r="D67" s="45" t="s">
         <v>402</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="45"/>
+      <c r="F67" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F67" s="45"/>
-      <c r="G67" s="46" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18624,12 +18625,12 @@
       <c r="D68" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="E68" s="45" t="s">
+      <c r="E68" s="45"/>
+      <c r="F68" s="46" t="s">
+        <v>531</v>
+      </c>
+      <c r="G68" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18643,12 +18644,12 @@
       <c r="D69" s="45" t="s">
         <v>533</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="45"/>
+      <c r="F69" s="46" t="s">
+        <v>534</v>
+      </c>
+      <c r="G69" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F69" s="45"/>
-      <c r="G69" s="46" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18662,12 +18663,12 @@
       <c r="D70" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E70" s="45"/>
+      <c r="F70" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="G70" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18683,12 +18684,12 @@
       <c r="D71" s="45" t="s">
         <v>538</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="45"/>
+      <c r="F71" s="46" t="s">
+        <v>539</v>
+      </c>
+      <c r="G71" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18704,12 +18705,12 @@
       <c r="D72" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="45"/>
+      <c r="F72" s="46" t="s">
+        <v>542</v>
+      </c>
+      <c r="G72" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F72" s="45"/>
-      <c r="G72" s="46" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18726,13 +18727,13 @@
         <v>699</v>
       </c>
       <c r="E73" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="G73" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F73" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18749,13 +18750,13 @@
         <v>189</v>
       </c>
       <c r="E74" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F74" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G74" s="46" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18771,12 +18772,12 @@
       <c r="D75" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="45"/>
+      <c r="F75" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18793,13 +18794,13 @@
         <v>186</v>
       </c>
       <c r="E76" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="46" t="s">
+        <v>548</v>
+      </c>
+      <c r="G76" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F76" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18816,13 +18817,13 @@
         <v>550</v>
       </c>
       <c r="E77" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>551</v>
+      </c>
+      <c r="G77" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F77" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
@@ -18839,13 +18840,13 @@
         <v>553</v>
       </c>
       <c r="E78" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F78" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" s="46" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18862,13 +18863,13 @@
         <v>174</v>
       </c>
       <c r="E79" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G79" s="46" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18885,13 +18886,13 @@
         <v>571</v>
       </c>
       <c r="E80" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="G80" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F80" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G80" s="46" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18908,13 +18909,13 @@
         <v>173</v>
       </c>
       <c r="E81" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="G81" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F81" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G81" s="46" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18930,12 +18931,12 @@
       <c r="D82" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="45"/>
+      <c r="F82" s="46" t="s">
+        <v>562</v>
+      </c>
+      <c r="G82" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F82" s="45"/>
-      <c r="G82" s="46" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18952,13 +18953,13 @@
         <v>444</v>
       </c>
       <c r="E83" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="G83" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F83" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G83" s="46" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18975,13 +18976,13 @@
         <v>448</v>
       </c>
       <c r="E84" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>564</v>
+      </c>
+      <c r="G84" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F84" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G84" s="46" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -18998,13 +18999,13 @@
         <v>454</v>
       </c>
       <c r="E85" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="46" t="s">
+        <v>565</v>
+      </c>
+      <c r="G85" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F85" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G85" s="46" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -19021,13 +19022,13 @@
         <v>568</v>
       </c>
       <c r="E86" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="G86" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="F86" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G86" s="46" t="s">
-        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1673" uniqueCount="708">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -2186,6 +2186,18 @@
     <rPh sb="17" eb="19">
       <t>セイギョ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>パッチ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ホスト</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>タスク</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -14361,10 +14373,10 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -18299,7 +18311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
         <v>321</v>
       </c>
@@ -18307,64 +18319,62 @@
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>524</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>238</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="45" t="s">
-        <v>321</v>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="45" t="s">
-        <v>573</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="C54" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="E54" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>575</v>
-      </c>
-      <c r="G54" s="45" t="s">
+      <c r="F54" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="G54" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
-        <v>321</v>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="39" t="s">
+        <v>456</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>576</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="E55" s="45" t="s">
+      <c r="C55" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="E55" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="F55" s="46" t="s">
-        <v>578</v>
-      </c>
-      <c r="G55" s="45" t="s">
+      <c r="F55" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="G55" s="37" t="s">
         <v>90</v>
       </c>
     </row>
@@ -18376,123 +18386,113 @@
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>580</v>
+        <v>178</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57" s="39" t="s">
-        <v>456</v>
+    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A57" s="48" t="s">
+        <v>701</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>584</v>
-      </c>
-      <c r="G57" s="37" t="s">
+      <c r="C57" s="45" t="s">
+        <v>702</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="46" t="s">
+        <v>704</v>
+      </c>
+      <c r="G57" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58" s="39" t="s">
-        <v>456</v>
+    <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="45" t="s">
+        <v>321</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="G58" s="37" t="s">
+      <c r="C58" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="G58" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>47</v>
+    <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="C59" s="45" t="s">
-        <v>588</v>
+        <v>391</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>589</v>
+        <v>393</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="48" t="s">
-        <v>701</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>47</v>
+    <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>702</v>
+        <v>394</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>703</v>
+        <v>172</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>704</v>
+        <v>395</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>47</v>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>526</v>
+        <v>399</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>527</v>
+        <v>183</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>528</v>
+        <v>399</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18504,14 +18504,14 @@
         <v>390</v>
       </c>
       <c r="C62" s="45" t="s">
-        <v>391</v>
+        <v>143</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="E62" s="45"/>
       <c r="F62" s="46" t="s">
-        <v>393</v>
+        <v>143</v>
       </c>
       <c r="G62" s="45" t="s">
         <v>90</v>
@@ -18523,33 +18523,35 @@
         <v>390</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="45"/>
+      <c r="A64" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="B64" s="45" t="s">
         <v>390</v>
       </c>
       <c r="C64" s="45" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>399</v>
+        <v>529</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18558,17 +18560,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>143</v>
+        <v>530</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>143</v>
+        <v>531</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18577,95 +18579,101 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>396</v>
+        <v>532</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>74</v>
+        <v>533</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>396</v>
+        <v>534</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="45" t="s">
-        <v>238</v>
-      </c>
+      <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C67" s="45" t="s">
-        <v>401</v>
+        <v>535</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="45"/>
+      <c r="A68" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="B68" s="45" t="s">
         <v>404</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>530</v>
+        <v>410</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>185</v>
+        <v>538</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="45"/>
+      <c r="A69" s="45" t="s">
+        <v>321</v>
+      </c>
       <c r="B69" s="45" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C69" s="45" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="45"/>
+      <c r="A70" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="B70" s="45" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C70" s="45" t="s">
-        <v>535</v>
+        <v>698</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>536</v>
-      </c>
-      <c r="E70" s="45"/>
+        <v>699</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="F70" s="46" t="s">
-        <v>537</v>
+        <v>700</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18676,38 +18684,40 @@
         <v>238</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>410</v>
+        <v>543</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="E71" s="45"/>
+        <v>189</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="F71" s="46" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B72" s="45" t="s">
         <v>413</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18721,39 +18731,39 @@
         <v>413</v>
       </c>
       <c r="C73" s="45" t="s">
-        <v>698</v>
+        <v>148</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>699</v>
+        <v>186</v>
       </c>
       <c r="E73" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>700</v>
+        <v>548</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
         <v>238</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>413</v>
+        <v>685</v>
       </c>
       <c r="C74" s="45" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>189</v>
+        <v>550</v>
       </c>
       <c r="E74" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F74" s="46" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18764,17 +18774,19 @@
         <v>238</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>413</v>
+        <v>685</v>
       </c>
       <c r="C75" s="45" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="E75" s="45"/>
+        <v>553</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>238</v>
+      </c>
       <c r="F75" s="46" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18785,65 +18797,65 @@
         <v>238</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>413</v>
+        <v>685</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>148</v>
+        <v>555</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E76" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C77" s="45" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="E77" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F77" s="46" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
         <v>238</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>685</v>
+        <v>424</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>553</v>
+        <v>173</v>
       </c>
       <c r="E78" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18854,19 +18866,17 @@
         <v>238</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>685</v>
+        <v>559</v>
       </c>
       <c r="C79" s="45" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" s="45" t="s">
-        <v>238</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18874,22 +18884,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>684</v>
+        <v>559</v>
       </c>
       <c r="C80" s="45" t="s">
-        <v>570</v>
+        <v>443</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>571</v>
+        <v>444</v>
       </c>
       <c r="E80" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18897,22 +18907,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>424</v>
+        <v>321</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>706</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>173</v>
+        <v>577</v>
       </c>
       <c r="E81" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F81" s="46" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -18920,20 +18930,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="E82" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B82" s="45" t="s">
-        <v>559</v>
-      </c>
-      <c r="C82" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="D82" s="45" t="s">
-        <v>561</v>
-      </c>
-      <c r="E82" s="45"/>
       <c r="F82" s="46" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -18941,22 +18953,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>238</v>
+        <v>321</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>559</v>
+        <v>446</v>
       </c>
       <c r="C83" s="45" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E83" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -18967,19 +18979,19 @@
         <v>321</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E84" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -18990,19 +19002,19 @@
         <v>321</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>155</v>
+        <v>566</v>
       </c>
       <c r="C85" s="45" t="s">
-        <v>453</v>
+        <v>567</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>454</v>
+        <v>568</v>
       </c>
       <c r="E85" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F85" s="46" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19012,20 +19024,20 @@
       <c r="A86" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="B86" s="45" t="s">
-        <v>566</v>
+      <c r="B86" s="9" t="s">
+        <v>707</v>
       </c>
       <c r="C86" s="45" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E86" s="45" t="s">
         <v>238</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -655,9 +655,6 @@
     <t>chassis.sn</t>
   </si>
   <si>
-    <t>virtual_drive</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
@@ -2198,6 +2195,10 @@
   </si>
   <si>
     <t>タスク</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>hdd</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -4576,7 +4577,7 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
@@ -4613,13 +4614,13 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27">
@@ -4633,10 +4634,10 @@
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S53" s="27">
         <v>1</v>
@@ -4655,19 +4656,19 @@
         <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -4682,10 +4683,10 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S54" s="27">
         <v>1</v>
@@ -4707,20 +4708,20 @@
         <v>91</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K55" s="27">
         <v>1</v>
@@ -4733,10 +4734,10 @@
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
+        <v>686</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>687</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>688</v>
       </c>
       <c r="S55" s="27">
         <v>1</v>
@@ -6204,16 +6205,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6284,13 +6285,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -6299,43 +6300,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6353,13 +6354,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6371,37 +6372,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6421,26 +6422,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>617</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6460,7 +6461,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6468,14 +6469,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6495,7 +6496,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6503,14 +6504,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6530,7 +6531,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6541,7 +6542,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6570,7 +6571,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9157,16 +9158,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9237,13 +9238,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -9252,43 +9253,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9303,16 +9304,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9325,30 +9326,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9368,26 +9369,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9407,7 +9408,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9418,7 +9419,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9438,7 +9439,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9449,7 +9450,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9469,7 +9470,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9480,7 +9481,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9509,7 +9510,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9538,7 +9539,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9567,7 +9568,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9596,7 +9597,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9625,7 +9626,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9654,7 +9655,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9683,7 +9684,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9712,7 +9713,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9741,7 +9742,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9770,7 +9771,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9799,7 +9800,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9828,7 +9829,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9857,7 +9858,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9886,7 +9887,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9915,7 +9916,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9944,7 +9945,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9973,7 +9974,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -10002,7 +10003,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -10031,7 +10032,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -10060,7 +10061,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -10089,7 +10090,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10118,7 +10119,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10147,7 +10148,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10176,7 +10177,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10205,7 +10206,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10234,7 +10235,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10263,7 +10264,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10292,7 +10293,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10321,7 +10322,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10350,7 +10351,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12147,16 +12148,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -12215,22 +12216,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12244,13 +12245,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12259,20 +12260,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12288,16 +12289,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12313,7 +12314,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12334,7 +12335,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12355,7 +12356,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -15247,14 +15248,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>204</v>
+        <v>707</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15262,7 +15263,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15465,16 +15466,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15482,16 +15483,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15570,321 +15571,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>239</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>240</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>243</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>244</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>247</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>249</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>252</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>253</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>259</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>262</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -15893,222 +15894,222 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>276</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>281</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>284</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>84</v>
@@ -16116,20 +16117,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>84</v>
@@ -16137,20 +16138,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>84</v>
@@ -16159,17 +16160,17 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>84</v>
@@ -16178,13 +16179,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -16197,17 +16198,17 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>692</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>693</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>84</v>
@@ -16215,20 +16216,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>84</v>
@@ -16237,17 +16238,17 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>84</v>
@@ -16256,17 +16257,17 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>84</v>
@@ -16274,20 +16275,20 @@
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>318</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>319</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
@@ -16295,20 +16296,20 @@
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>323</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
@@ -16316,20 +16317,20 @@
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
@@ -16337,20 +16338,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>328</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>329</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>84</v>
@@ -16362,14 +16363,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>331</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>84</v>
@@ -16377,20 +16378,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>84</v>
@@ -16398,20 +16399,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>84</v>
@@ -16419,20 +16420,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>84</v>
@@ -16440,20 +16441,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>343</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>344</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
@@ -16465,35 +16466,35 @@
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>346</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>347</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>349</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>84</v>
@@ -16501,7 +16502,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
@@ -16514,28 +16515,28 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>354</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>355</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>84</v>
@@ -16547,14 +16548,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>84</v>
@@ -16562,20 +16563,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>360</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>361</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>84</v>
@@ -16583,20 +16584,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>84</v>
@@ -16604,20 +16605,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>84</v>
@@ -16625,20 +16626,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>84</v>
@@ -16646,20 +16647,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>84</v>
@@ -16667,20 +16668,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>84</v>
@@ -16688,20 +16689,20 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>379</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>380</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
@@ -16709,41 +16710,41 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>385</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="C61" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>84</v>
@@ -16752,17 +16753,17 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>84</v>
@@ -16771,17 +16772,17 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>84</v>
@@ -16790,17 +16791,17 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>84</v>
@@ -16809,17 +16810,17 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>84</v>
@@ -16828,17 +16829,17 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>399</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>400</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>84</v>
@@ -16846,20 +16847,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>84</v>
@@ -16868,17 +16869,17 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>84</v>
@@ -16887,17 +16888,17 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>84</v>
@@ -16905,20 +16906,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>84</v>
@@ -16926,20 +16927,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>84</v>
@@ -16947,20 +16948,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>84</v>
@@ -16968,22 +16969,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>420</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>421</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>84</v>
@@ -16991,22 +16992,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>84</v>
@@ -17014,20 +17015,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>426</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>84</v>
@@ -17035,20 +17036,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>428</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>429</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>84</v>
@@ -17056,20 +17057,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>431</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>432</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>84</v>
@@ -17078,17 +17079,17 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>84</v>
@@ -17096,22 +17097,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>84</v>
@@ -17119,22 +17120,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>84</v>
@@ -17142,22 +17143,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>444</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>445</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>84</v>
@@ -17165,22 +17166,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>448</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>449</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>84</v>
@@ -17192,14 +17193,14 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>451</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>84</v>
@@ -17207,22 +17208,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>454</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>455</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>84</v>
@@ -17230,22 +17231,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>459</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>460</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>84</v>
@@ -17253,20 +17254,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C86" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>84</v>
@@ -17274,20 +17275,20 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="C87" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>464</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>84</v>
@@ -17333,321 +17334,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>218</v>
-      </c>
       <c r="G4" s="44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>220</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>221</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>224</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>225</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>236</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>239</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>240</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>243</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>244</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>247</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>249</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>250</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>252</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>253</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>258</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>259</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>262</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -17656,220 +17657,220 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>272</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>276</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>281</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>283</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>284</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>289</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>290</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>468</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>469</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>90</v>
@@ -17878,17 +17879,17 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>470</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>471</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>90</v>
@@ -17897,17 +17898,17 @@
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>472</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>473</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -17916,17 +17917,17 @@
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>474</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>475</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -17935,17 +17936,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>476</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>477</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -17953,20 +17954,20 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>90</v>
@@ -17975,17 +17976,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>481</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>482</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>90</v>
@@ -17994,17 +17995,17 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C37" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>483</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>484</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -18013,17 +18014,17 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C38" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>486</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>487</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -18032,17 +18033,17 @@
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>489</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>490</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>90</v>
@@ -18050,20 +18051,20 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>491</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>492</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>493</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>90</v>
@@ -18072,7 +18073,7 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>141</v>
@@ -18082,7 +18083,7 @@
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -18091,17 +18092,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>496</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>497</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -18110,7 +18111,7 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>142</v>
@@ -18120,7 +18121,7 @@
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>90</v>
@@ -18129,17 +18130,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>500</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>501</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>90</v>
@@ -18147,20 +18148,20 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -18168,22 +18169,22 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>504</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>505</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>506</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>507</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -18191,20 +18192,20 @@
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -18212,20 +18213,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -18233,20 +18234,20 @@
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>512</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>513</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>90</v>
@@ -18254,20 +18255,20 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>516</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>517</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>90</v>
@@ -18279,14 +18280,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>519</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>520</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>90</v>
@@ -18298,14 +18299,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>521</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>522</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>90</v>
@@ -18313,20 +18314,20 @@
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>578</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>579</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>580</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
@@ -18334,22 +18335,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>583</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>584</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>90</v>
@@ -18357,22 +18358,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>584</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>585</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="E55" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>586</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>587</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>90</v>
@@ -18380,20 +18381,20 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>178</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
@@ -18401,20 +18402,20 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>702</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>703</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>90</v>
@@ -18422,20 +18423,20 @@
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>525</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>526</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>527</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>90</v>
@@ -18444,17 +18445,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>391</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>392</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -18463,17 +18464,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
@@ -18482,17 +18483,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18501,7 +18502,7 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>143</v>
@@ -18520,17 +18521,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
@@ -18538,20 +18539,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>401</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>402</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18560,17 +18561,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18579,17 +18580,17 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>532</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>533</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
@@ -18598,17 +18599,17 @@
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>534</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>535</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>536</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
@@ -18616,20 +18617,20 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
@@ -18637,20 +18638,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>540</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>541</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
@@ -18658,22 +18659,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>697</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>698</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="E70" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" s="46" t="s">
         <v>699</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>700</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18681,22 +18682,22 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
@@ -18704,20 +18705,20 @@
     </row>
     <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>544</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>545</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>546</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18725,10 +18726,10 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>148</v>
@@ -18737,10 +18738,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
@@ -18748,22 +18749,22 @@
     </row>
     <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="E74" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>550</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>551</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18771,22 +18772,22 @@
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>552</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="E75" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>553</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>554</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18794,22 +18795,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>174</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
@@ -18817,22 +18818,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="E77" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>571</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>572</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
@@ -18840,22 +18841,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18863,20 +18864,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>560</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>561</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18884,22 +18885,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>442</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>444</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18907,22 +18908,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>575</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>576</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>577</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>578</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -18930,22 +18931,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>523</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="E82" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>524</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>525</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -18953,22 +18954,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>448</v>
-      </c>
       <c r="E83" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -18976,22 +18977,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>452</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>454</v>
-      </c>
       <c r="E84" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -18999,22 +19000,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="D85" s="45" t="s">
         <v>567</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="E85" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>568</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>569</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19022,22 +19023,22 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="E86" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="F86" s="46" t="s">
         <v>574</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>238</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>575</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>
@@ -19095,16 +19096,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19175,13 +19176,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -19190,43 +19191,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19238,39 +19239,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>603</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>604</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19290,7 +19291,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19298,14 +19299,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19325,7 +19326,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19336,7 +19337,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19356,7 +19357,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19367,7 +19368,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19387,7 +19388,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22018,16 +22019,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22098,13 +22099,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -22113,43 +22114,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>599</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22164,16 +22165,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22186,30 +22187,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>630</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22229,26 +22230,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>636</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22268,7 +22269,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22279,7 +22280,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22299,7 +22300,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22310,7 +22311,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22330,7 +22331,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22341,7 +22342,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22370,7 +22371,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22399,7 +22400,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22428,7 +22429,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22457,7 +22458,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22486,7 +22487,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22515,7 +22516,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22544,7 +22545,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22573,7 +22574,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22602,7 +22603,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22631,7 +22632,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22660,7 +22661,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22689,7 +22690,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22718,7 +22719,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22747,7 +22748,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22776,7 +22777,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22805,7 +22806,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22834,7 +22835,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22863,7 +22864,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22892,7 +22893,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22921,7 +22922,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -22950,7 +22951,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -22979,7 +22980,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -23008,7 +23009,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -23037,7 +23038,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -23066,7 +23067,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23095,7 +23096,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23124,7 +23125,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23153,7 +23154,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23182,7 +23183,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23211,7 +23212,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -25016,16 +25017,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -25084,22 +25085,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>675</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25110,24 +25111,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>681</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25143,16 +25144,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25168,7 +25169,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25189,7 +25190,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25210,7 +25211,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>

--- a/blank_サーバチェックシート.xlsx
+++ b/blank_サーバチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="8130" windowHeight="7485" tabRatio="787" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10815" windowHeight="8325" tabRatio="787" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$T$108</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext uri="smNativeData">
       <pm:revision xmlns:pm="smNativeData" day="1557349583" val="944" rev="123" revOS="4"/>
@@ -628,9 +628,6 @@
     <t>Storage</t>
   </si>
   <si>
-    <t>Nic</t>
-  </si>
-  <si>
     <t>iLO</t>
   </si>
   <si>
@@ -2200,6 +2197,9 @@
   <si>
     <t>hdd</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ip_mng</t>
   </si>
 </sst>
 </file>
@@ -4577,7 +4577,7 @@
         <v>87</v>
       </c>
       <c r="G52" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>85</v>
@@ -4614,13 +4614,13 @@
         <v>87</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H53" s="27" t="s">
         <v>88</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J53" s="27"/>
       <c r="K53" s="27">
@@ -4634,10 +4634,10 @@
       <c r="O53" s="27"/>
       <c r="P53" s="27"/>
       <c r="Q53" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R53" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R53" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S53" s="27">
         <v>1</v>
@@ -4656,19 +4656,19 @@
         <v>84</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G54" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="27"/>
@@ -4683,10 +4683,10 @@
       <c r="O54" s="27"/>
       <c r="P54" s="27"/>
       <c r="Q54" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R54" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R54" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S54" s="27">
         <v>1</v>
@@ -4708,20 +4708,20 @@
         <v>91</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F55" s="27" t="s">
         <v>87</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>91</v>
       </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K55" s="27">
         <v>1</v>
@@ -4734,10 +4734,10 @@
       <c r="O55" s="27"/>
       <c r="P55" s="27"/>
       <c r="Q55" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="R55" s="27" t="s">
         <v>686</v>
-      </c>
-      <c r="R55" s="27" t="s">
-        <v>687</v>
       </c>
       <c r="S55" s="27">
         <v>1</v>
@@ -6205,16 +6205,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -6285,13 +6285,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -6300,43 +6300,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6354,13 +6354,13 @@
         <v>2.6</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>6.7</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -6372,37 +6372,37 @@
         <v>2</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="N3" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="Q3" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6422,26 +6422,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>613</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>614</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6461,7 +6461,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -6469,14 +6469,14 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6496,7 +6496,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -6504,14 +6504,14 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6531,7 +6531,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -6542,7 +6542,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -6571,7 +6571,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9158,16 +9158,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -9238,13 +9238,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -9253,43 +9253,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9304,16 +9304,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -9326,30 +9326,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>629</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9369,26 +9369,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9408,7 +9408,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -9419,7 +9419,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9439,7 +9439,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -9450,7 +9450,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9470,7 +9470,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -9481,7 +9481,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9510,7 +9510,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9539,7 +9539,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9568,7 +9568,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9597,7 +9597,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9626,7 +9626,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9655,7 +9655,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9684,7 +9684,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9713,7 +9713,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9742,7 +9742,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9771,7 +9771,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9800,7 +9800,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9829,7 +9829,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9858,7 +9858,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9887,7 +9887,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -9916,7 +9916,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -9945,7 +9945,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -9974,7 +9974,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -10003,7 +10003,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -10032,7 +10032,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -10061,7 +10061,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -10090,7 +10090,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -10119,7 +10119,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -10148,7 +10148,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -10177,7 +10177,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -10206,7 +10206,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -10235,7 +10235,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -10264,7 +10264,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -10293,7 +10293,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -10322,7 +10322,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -10351,7 +10351,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -12148,16 +12148,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -12216,22 +12216,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12245,13 +12245,13 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="12">
         <v>1</v>
@@ -12260,20 +12260,20 @@
         <v>4</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="K3" s="12">
         <v>40</v>
       </c>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12289,16 +12289,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -12314,7 +12314,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -12335,7 +12335,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -12356,7 +12356,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -14418,7 +14418,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -15177,7 +15177,7 @@
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30" t="s">
-        <v>195</v>
+        <v>707</v>
       </c>
       <c r="U8" s="30"/>
       <c r="V8" s="30"/>
@@ -15185,7 +15185,7 @@
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15206,14 +15206,14 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P9" s="30"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
       <c r="S9" s="30"/>
       <c r="T9" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="30"/>
@@ -15221,24 +15221,24 @@
       <c r="X9" s="30"/>
       <c r="Y9" s="30"/>
       <c r="Z9" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="30" t="s">
         <v>202</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
@@ -15248,14 +15248,14 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
       <c r="S10" s="34"/>
       <c r="T10" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U10" s="34"/>
       <c r="V10" s="34"/>
@@ -15263,7 +15263,7 @@
       <c r="X10" s="34"/>
       <c r="Y10" s="34"/>
       <c r="Z10" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.15">
@@ -15466,16 +15466,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -15483,16 +15483,16 @@
         <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -15571,321 +15571,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>224</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>235</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>243</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>252</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>257</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="D19" s="40" t="s">
         <v>263</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>264</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -15894,222 +15894,222 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>275</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>292</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="40" t="s">
+      <c r="D29" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>84</v>
@@ -16117,20 +16117,20 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>302</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>84</v>
@@ -16138,20 +16138,20 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>84</v>
@@ -16160,17 +16160,17 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>84</v>
@@ -16179,13 +16179,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="10" t="s">
@@ -16198,17 +16198,17 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="47"/>
       <c r="B35" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>691</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>692</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>84</v>
@@ -16216,20 +16216,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>84</v>
@@ -16238,17 +16238,17 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>84</v>
@@ -16257,17 +16257,17 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>84</v>
@@ -16275,20 +16275,20 @@
     </row>
     <row r="39" spans="1:7" ht="36" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>84</v>
@@ -16296,20 +16296,20 @@
     </row>
     <row r="40" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>84</v>
@@ -16317,20 +16317,20 @@
     </row>
     <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>324</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>325</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>84</v>
@@ -16338,20 +16338,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>327</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>328</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>84</v>
@@ -16363,14 +16363,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>331</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>84</v>
@@ -16378,20 +16378,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>334</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>84</v>
@@ -16399,20 +16399,20 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>336</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>337</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>84</v>
@@ -16420,20 +16420,20 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>340</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>84</v>
@@ -16441,20 +16441,20 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>343</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>84</v>
@@ -16466,35 +16466,35 @@
         <v>47</v>
       </c>
       <c r="C48" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>345</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>346</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>349</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>84</v>
@@ -16502,7 +16502,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
@@ -16515,28 +16515,28 @@
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>353</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>354</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>84</v>
@@ -16548,14 +16548,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>356</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>357</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>84</v>
@@ -16563,20 +16563,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>84</v>
@@ -16584,20 +16584,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>363</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>84</v>
@@ -16605,20 +16605,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>84</v>
@@ -16626,20 +16626,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>84</v>
@@ -16647,20 +16647,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>372</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>84</v>
@@ -16668,20 +16668,20 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>84</v>
@@ -16689,20 +16689,20 @@
     </row>
     <row r="59" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>378</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>379</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
@@ -16710,41 +16710,41 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>382</v>
-      </c>
       <c r="C61" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>84</v>
@@ -16753,17 +16753,17 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>84</v>
@@ -16772,17 +16772,17 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>84</v>
@@ -16791,17 +16791,17 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>84</v>
@@ -16810,17 +16810,17 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>84</v>
@@ -16829,17 +16829,17 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>84</v>
@@ -16847,20 +16847,20 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C67" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>401</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>84</v>
@@ -16869,17 +16869,17 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>403</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>404</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>84</v>
@@ -16888,17 +16888,17 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C69" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D69" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>84</v>
@@ -16906,20 +16906,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C70" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" s="9" t="s">
         <v>409</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>410</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>84</v>
@@ -16927,20 +16927,20 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>84</v>
@@ -16948,20 +16948,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>84</v>
@@ -16969,22 +16969,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="E73" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>419</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>420</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>84</v>
@@ -16992,22 +16992,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>186</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>84</v>
@@ -17015,20 +17015,20 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>424</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>425</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>84</v>
@@ -17036,20 +17036,20 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C76" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>84</v>
@@ -17057,20 +17057,20 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C77" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="9" t="s">
         <v>430</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>431</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>84</v>
@@ -17079,17 +17079,17 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" s="9" t="s">
         <v>433</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>434</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>84</v>
@@ -17097,22 +17097,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C79" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D79" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="E79" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>437</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>438</v>
       </c>
       <c r="G79" s="9" t="s">
         <v>84</v>
@@ -17120,22 +17120,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>173</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G80" s="9" t="s">
         <v>84</v>
@@ -17143,22 +17143,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="E81" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>443</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>84</v>
@@ -17166,22 +17166,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>447</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>448</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>84</v>
@@ -17193,14 +17193,14 @@
         <v>155</v>
       </c>
       <c r="C83" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>84</v>
@@ -17208,22 +17208,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="E84" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>453</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>454</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>84</v>
@@ -17231,22 +17231,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="C85" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="E85" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>458</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>459</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>84</v>
@@ -17254,20 +17254,20 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="C86" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D86" s="9" t="s">
         <v>460</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>461</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>84</v>
@@ -17275,20 +17275,20 @@
     </row>
     <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A87" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>456</v>
-      </c>
       <c r="C87" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D87" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>84</v>
@@ -17334,321 +17334,321 @@
         <v>87</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="D4" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="F4" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>217</v>
-      </c>
       <c r="G4" s="44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="40"/>
       <c r="B5" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>219</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>220</v>
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
       <c r="B6" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>224</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="40"/>
       <c r="B7" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>227</v>
       </c>
       <c r="E7" s="40"/>
       <c r="F7" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="40"/>
       <c r="B8" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>230</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="40"/>
       <c r="B9" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E9" s="40"/>
       <c r="F9" s="41" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="40"/>
       <c r="B10" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>234</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>235</v>
       </c>
       <c r="E10" s="40"/>
       <c r="F10" s="41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D11" s="40" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>239</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="40"/>
       <c r="B12" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="D12" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>243</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="40"/>
       <c r="B13" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="40"/>
       <c r="B14" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>252</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="40"/>
       <c r="B16" s="42" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="40" t="s">
         <v>255</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>256</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="40"/>
       <c r="B17" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>257</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>258</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="40"/>
       <c r="B18" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C19" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>263</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>264</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>128</v>
@@ -17657,220 +17657,220 @@
         <v>133</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>268</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="D21" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="E21" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>271</v>
-      </c>
       <c r="G21" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="E22" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>275</v>
-      </c>
       <c r="G22" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
       <c r="B23" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="40" t="s">
         <v>277</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>278</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="40" t="s">
         <v>279</v>
-      </c>
-      <c r="D24" s="40" t="s">
-        <v>280</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D25" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A26" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>285</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>286</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>291</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>292</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>466</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="D30" s="45" t="s">
         <v>467</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>468</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G30" s="45" t="s">
         <v>90</v>
@@ -17879,17 +17879,17 @@
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="45"/>
       <c r="B31" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C31" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="D31" s="45" t="s">
         <v>469</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>470</v>
       </c>
       <c r="E31" s="45"/>
       <c r="F31" s="46" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G31" s="45" t="s">
         <v>90</v>
@@ -17898,17 +17898,17 @@
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="45"/>
       <c r="B32" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C32" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="D32" s="45" t="s">
         <v>471</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>472</v>
       </c>
       <c r="E32" s="45"/>
       <c r="F32" s="46" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G32" s="45" t="s">
         <v>90</v>
@@ -17917,17 +17917,17 @@
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="45"/>
       <c r="B33" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C33" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="D33" s="45" t="s">
         <v>473</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>474</v>
       </c>
       <c r="E33" s="45"/>
       <c r="F33" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G33" s="45" t="s">
         <v>90</v>
@@ -17936,17 +17936,17 @@
     <row r="34" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="45"/>
       <c r="B34" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C34" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>475</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>476</v>
       </c>
       <c r="E34" s="45"/>
       <c r="F34" s="46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G34" s="45" t="s">
         <v>90</v>
@@ -17954,20 +17954,20 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C35" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E35" s="45"/>
       <c r="F35" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G35" s="45" t="s">
         <v>90</v>
@@ -17976,17 +17976,17 @@
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="45"/>
       <c r="B36" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="45" t="s">
         <v>479</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="D36" s="45" t="s">
         <v>480</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>481</v>
       </c>
       <c r="E36" s="45"/>
       <c r="F36" s="45" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G36" s="45" t="s">
         <v>90</v>
@@ -17995,17 +17995,17 @@
     <row r="37" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="45"/>
       <c r="B37" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C37" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" s="45" t="s">
         <v>482</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>483</v>
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G37" s="45" t="s">
         <v>90</v>
@@ -18014,17 +18014,17 @@
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="45"/>
       <c r="B38" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C38" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D38" s="45" t="s">
         <v>485</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>486</v>
       </c>
       <c r="E38" s="45"/>
       <c r="F38" s="45" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>90</v>
@@ -18033,17 +18033,17 @@
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="45"/>
       <c r="B39" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C39" s="45" t="s">
+        <v>487</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>488</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>489</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>90</v>
@@ -18051,20 +18051,20 @@
     </row>
     <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A40" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C40" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D40" s="45" t="s">
         <v>491</v>
-      </c>
-      <c r="D40" s="45" t="s">
-        <v>492</v>
       </c>
       <c r="E40" s="45"/>
       <c r="F40" s="46" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>90</v>
@@ -18073,7 +18073,7 @@
     <row r="41" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="45"/>
       <c r="B41" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>141</v>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="E41" s="45"/>
       <c r="F41" s="46" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>90</v>
@@ -18092,17 +18092,17 @@
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45"/>
       <c r="B42" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C42" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="D42" s="45" t="s">
         <v>495</v>
-      </c>
-      <c r="D42" s="45" t="s">
-        <v>496</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>90</v>
@@ -18111,7 +18111,7 @@
     <row r="43" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="45"/>
       <c r="B43" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C43" s="45" t="s">
         <v>142</v>
@@ -18121,7 +18121,7 @@
       </c>
       <c r="E43" s="45"/>
       <c r="F43" s="46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>90</v>
@@ -18130,17 +18130,17 @@
     <row r="44" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="B44" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C44" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" s="45" t="s">
         <v>499</v>
-      </c>
-      <c r="D44" s="45" t="s">
-        <v>500</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>90</v>
@@ -18148,20 +18148,20 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C45" s="45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D45" s="45" t="s">
         <v>169</v>
       </c>
       <c r="E45" s="45"/>
       <c r="F45" s="46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>90</v>
@@ -18169,22 +18169,22 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="45" t="s">
+        <v>503</v>
+      </c>
+      <c r="D46" s="45" t="s">
         <v>504</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="E46" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>505</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>506</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>90</v>
@@ -18192,20 +18192,20 @@
     </row>
     <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A47" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E47" s="45"/>
       <c r="F47" s="46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>90</v>
@@ -18213,20 +18213,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E48" s="45"/>
       <c r="F48" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>90</v>
@@ -18234,20 +18234,20 @@
     </row>
     <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A49" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="45" t="s">
+        <v>510</v>
+      </c>
+      <c r="D49" s="45" t="s">
         <v>511</v>
-      </c>
-      <c r="D49" s="45" t="s">
-        <v>512</v>
       </c>
       <c r="E49" s="45"/>
       <c r="F49" s="46" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G49" s="45" t="s">
         <v>90</v>
@@ -18255,20 +18255,20 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>515</v>
-      </c>
-      <c r="D50" s="45" t="s">
-        <v>516</v>
       </c>
       <c r="E50" s="45"/>
       <c r="F50" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>90</v>
@@ -18280,14 +18280,14 @@
         <v>47</v>
       </c>
       <c r="C51" s="45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" s="45" t="s">
         <v>518</v>
-      </c>
-      <c r="D51" s="45" t="s">
-        <v>519</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G51" s="45" t="s">
         <v>90</v>
@@ -18299,14 +18299,14 @@
         <v>47</v>
       </c>
       <c r="C52" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="45" t="s">
         <v>520</v>
-      </c>
-      <c r="D52" s="45" t="s">
-        <v>521</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>90</v>
@@ -18314,20 +18314,20 @@
     </row>
     <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A53" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C53" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" s="45" t="s">
         <v>578</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>579</v>
       </c>
       <c r="E53" s="45"/>
       <c r="F53" s="46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>90</v>
@@ -18335,22 +18335,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>580</v>
+      </c>
+      <c r="D54" s="37" t="s">
         <v>581</v>
       </c>
-      <c r="D54" s="37" t="s">
+      <c r="E54" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F54" s="38" t="s">
         <v>582</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>583</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>90</v>
@@ -18358,22 +18358,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C55" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="D55" s="37" t="s">
         <v>584</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="E55" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="38" t="s">
         <v>585</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>586</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>90</v>
@@ -18381,20 +18381,20 @@
     </row>
     <row r="56" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>178</v>
       </c>
       <c r="E56" s="45"/>
       <c r="F56" s="46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G56" s="45" t="s">
         <v>90</v>
@@ -18402,20 +18402,20 @@
     </row>
     <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="D57" s="45" t="s">
         <v>701</v>
-      </c>
-      <c r="D57" s="45" t="s">
-        <v>702</v>
       </c>
       <c r="E57" s="45"/>
       <c r="F57" s="46" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G57" s="45" t="s">
         <v>90</v>
@@ -18423,20 +18423,20 @@
     </row>
     <row r="58" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C58" s="45" t="s">
+        <v>524</v>
+      </c>
+      <c r="D58" s="45" t="s">
         <v>525</v>
-      </c>
-      <c r="D58" s="45" t="s">
-        <v>526</v>
       </c>
       <c r="E58" s="45"/>
       <c r="F58" s="46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G58" s="45" t="s">
         <v>90</v>
@@ -18445,17 +18445,17 @@
     <row r="59" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="45"/>
       <c r="B59" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="C59" s="45" t="s">
         <v>389</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="D59" s="45" t="s">
         <v>390</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>391</v>
       </c>
       <c r="E59" s="45"/>
       <c r="F59" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G59" s="45" t="s">
         <v>90</v>
@@ -18464,17 +18464,17 @@
     <row r="60" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="45"/>
       <c r="B60" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C60" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D60" s="45" t="s">
         <v>172</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G60" s="45" t="s">
         <v>90</v>
@@ -18483,17 +18483,17 @@
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="45"/>
       <c r="B61" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D61" s="45" t="s">
         <v>183</v>
       </c>
       <c r="E61" s="45"/>
       <c r="F61" s="46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>90</v>
@@ -18502,7 +18502,7 @@
     <row r="62" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="45"/>
       <c r="B62" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C62" s="45" t="s">
         <v>143</v>
@@ -18521,17 +18521,17 @@
     <row r="63" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="45"/>
       <c r="B63" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D63" s="45" t="s">
         <v>74</v>
       </c>
       <c r="E63" s="45"/>
       <c r="F63" s="46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>90</v>
@@ -18539,20 +18539,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>400</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>401</v>
       </c>
       <c r="E64" s="45"/>
       <c r="F64" s="46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G64" s="45" t="s">
         <v>90</v>
@@ -18561,17 +18561,17 @@
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="45"/>
       <c r="B65" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D65" s="45" t="s">
         <v>185</v>
       </c>
       <c r="E65" s="45"/>
       <c r="F65" s="46" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G65" s="45" t="s">
         <v>90</v>
@@ -18580,17 +18580,17 @@
     <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="45"/>
       <c r="B66" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>530</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>531</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>532</v>
       </c>
       <c r="E66" s="45"/>
       <c r="F66" s="46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G66" s="45" t="s">
         <v>90</v>
@@ -18599,17 +18599,17 @@
     <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="45"/>
       <c r="B67" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="45" t="s">
+        <v>533</v>
+      </c>
+      <c r="D67" s="45" t="s">
         <v>534</v>
-      </c>
-      <c r="D67" s="45" t="s">
-        <v>535</v>
       </c>
       <c r="E67" s="45"/>
       <c r="F67" s="46" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G67" s="45" t="s">
         <v>90</v>
@@ -18617,20 +18617,20 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C68" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E68" s="45"/>
       <c r="F68" s="46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>90</v>
@@ -18638,20 +18638,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C69" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="D69" s="45" t="s">
         <v>539</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>540</v>
       </c>
       <c r="E69" s="45"/>
       <c r="F69" s="46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>90</v>
@@ -18659,22 +18659,22 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>697</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="E70" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" s="46" t="s">
         <v>698</v>
-      </c>
-      <c r="E70" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="46" t="s">
-        <v>699</v>
       </c>
       <c r="G70" s="45" t="s">
         <v>90</v>
@@ -18682,22 +18682,22 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71" s="45" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>189</v>
       </c>
       <c r="E71" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>90</v>
@@ -18705,20 +18705,20 @@
     </row>
     <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A72" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C72" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="D72" s="45" t="s">
         <v>544</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>545</v>
       </c>
       <c r="E72" s="45"/>
       <c r="F72" s="46" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>90</v>
@@ -18726,10 +18726,10 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C73" s="45" t="s">
         <v>148</v>
@@ -18738,10 +18738,10 @@
         <v>186</v>
       </c>
       <c r="E73" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F73" s="46" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>90</v>
@@ -18749,22 +18749,22 @@
     </row>
     <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A74" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>548</v>
       </c>
-      <c r="D74" s="45" t="s">
+      <c r="E74" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F74" s="46" t="s">
         <v>549</v>
-      </c>
-      <c r="E74" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>550</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>90</v>
@@ -18772,22 +18772,22 @@
     </row>
     <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A75" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C75" s="45" t="s">
+        <v>550</v>
+      </c>
+      <c r="D75" s="45" t="s">
         <v>551</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="E75" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" s="46" t="s">
         <v>552</v>
-      </c>
-      <c r="E75" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>553</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>90</v>
@@ -18795,22 +18795,22 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D76" s="45" t="s">
         <v>174</v>
       </c>
       <c r="E76" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F76" s="46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>90</v>
@@ -18818,22 +18818,22 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C77" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D77" s="45" t="s">
         <v>569</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="E77" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77" s="46" t="s">
         <v>570</v>
-      </c>
-      <c r="E77" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F77" s="46" t="s">
-        <v>571</v>
       </c>
       <c r="G77" s="45" t="s">
         <v>90</v>
@@ -18841,22 +18841,22 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>173</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F78" s="46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G78" s="45" t="s">
         <v>90</v>
@@ -18864,20 +18864,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B79" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>558</v>
       </c>
-      <c r="C79" s="45" t="s">
+      <c r="D79" s="45" t="s">
         <v>559</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>560</v>
       </c>
       <c r="E79" s="45"/>
       <c r="F79" s="46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G79" s="45" t="s">
         <v>90</v>
@@ -18885,22 +18885,22 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>443</v>
-      </c>
       <c r="E80" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G80" s="45" t="s">
         <v>90</v>
@@ -18908,22 +18908,22 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D81" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="E81" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>576</v>
-      </c>
-      <c r="E81" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" s="46" t="s">
-        <v>577</v>
       </c>
       <c r="G81" s="45" t="s">
         <v>90</v>
@@ -18931,22 +18931,22 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>521</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>522</v>
       </c>
-      <c r="D82" s="45" t="s">
+      <c r="E82" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F82" s="46" t="s">
         <v>523</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>524</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>90</v>
@@ -18954,22 +18954,22 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="C83" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="C83" s="45" t="s">
+      <c r="D83" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>447</v>
-      </c>
       <c r="E83" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F83" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G83" s="45" t="s">
         <v>90</v>
@@ -18977,22 +18977,22 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B84" s="45" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="45" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" s="45" t="s">
         <v>452</v>
       </c>
-      <c r="D84" s="45" t="s">
-        <v>453</v>
-      </c>
       <c r="E84" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F84" s="46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>90</v>
@@ -19000,22 +19000,22 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B85" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="C85" s="45" t="s">
         <v>565</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="D85" s="45" t="s">
         <v>566</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="E85" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F85" s="46" t="s">
         <v>567</v>
-      </c>
-      <c r="E85" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F85" s="46" t="s">
-        <v>568</v>
       </c>
       <c r="G85" s="45" t="s">
         <v>90</v>
@@ -19023,22 +19023,22 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>572</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="E86" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="46" t="s">
         <v>573</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>237</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>574</v>
       </c>
       <c r="G86" s="45" t="s">
         <v>90</v>
@@ -19096,16 +19096,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -19176,13 +19176,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -19191,43 +19191,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19239,39 +19239,39 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>603</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>610</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19291,7 +19291,7 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -19299,14 +19299,14 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19326,7 +19326,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -19337,7 +19337,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19357,7 +19357,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -19368,7 +19368,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -19388,7 +19388,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22019,16 +22019,16 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>84</v>
@@ -22099,13 +22099,13 @@
         <v>132</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>169</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>170</v>
@@ -22114,43 +22114,43 @@
         <v>74</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>75</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>598</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22165,16 +22165,16 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G3" s="12">
         <v>7.2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I3" s="12">
         <v>1</v>
@@ -22187,30 +22187,30 @@
       </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>628</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>629</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22230,26 +22230,26 @@
       <c r="K4" s="12"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
       <c r="P4" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>634</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>635</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22269,7 +22269,7 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -22280,7 +22280,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22300,7 +22300,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
@@ -22311,7 +22311,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22331,7 +22331,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -22342,7 +22342,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22371,7 +22371,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22400,7 +22400,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22429,7 +22429,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22458,7 +22458,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22487,7 +22487,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22516,7 +22516,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22545,7 +22545,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22574,7 +22574,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22603,7 +22603,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22632,7 +22632,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
       <c r="V17" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22661,7 +22661,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22690,7 +22690,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22719,7 +22719,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22748,7 +22748,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="14.25" x14ac:dyDescent="0.15">
@@ -22777,7 +22777,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
       <c r="V22" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -22806,7 +22806,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -22835,7 +22835,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -22864,7 +22864,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -22893,7 +22893,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -22922,7 +22922,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -22951,7 +22951,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -22980,7 +22980,7 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -23009,7 +23009,7 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -23038,7 +23038,7 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -23067,7 +23067,7 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -23096,7 +23096,7 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -23125,7 +23125,7 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -23154,7 +23154,7 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -23183,7 +23183,7 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -23212,7 +23212,7 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.15">
@@ -25017,16 +25017,16 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>90</v>
@@ -25085,22 +25085,22 @@
         <v>185</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>674</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25111,24 +25111,24 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>680</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25144,16 +25144,16 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -25169,7 +25169,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -25190,7 +25190,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -25211,7 +25211,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
